--- a/Code/Results/Cases/Case_3_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_23/res_line/loading_percent.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.05342019475722</v>
+        <v>21.05342019475723</v>
       </c>
       <c r="C2">
-        <v>17.39777763204004</v>
+        <v>17.39777763204009</v>
       </c>
       <c r="D2">
-        <v>8.054095096818626</v>
+        <v>8.054095096818619</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.25658469883331</v>
+        <v>30.25658469883336</v>
       </c>
       <c r="G2">
-        <v>20.36114733667719</v>
+        <v>20.36114733667721</v>
       </c>
       <c r="H2">
-        <v>15.87609695074727</v>
+        <v>15.87609695074729</v>
       </c>
       <c r="I2">
         <v>30.67656121824625</v>
       </c>
       <c r="J2">
-        <v>19.50442088366652</v>
+        <v>19.50442088366655</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.60779415279762</v>
+        <v>19.60779415279753</v>
       </c>
       <c r="C3">
         <v>16.17766919822973</v>
       </c>
       <c r="D3">
-        <v>7.547261821616487</v>
+        <v>7.547261821616432</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28.62260071727258</v>
+        <v>28.62260071727261</v>
       </c>
       <c r="G3">
-        <v>19.55961937984761</v>
+        <v>19.55961937984767</v>
       </c>
       <c r="H3">
-        <v>15.63426925954375</v>
+        <v>15.63426925954386</v>
       </c>
       <c r="I3">
-        <v>28.29107841850432</v>
+        <v>28.29107841850421</v>
       </c>
       <c r="J3">
-        <v>18.19602087734133</v>
+        <v>18.19602087734126</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.67422741961445</v>
+        <v>18.67422741961449</v>
       </c>
       <c r="C4">
-        <v>15.39245742393013</v>
+        <v>15.39245742393016</v>
       </c>
       <c r="D4">
-        <v>7.224494065195583</v>
+        <v>7.224494065195709</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.62719899544329</v>
+        <v>27.62719899544328</v>
       </c>
       <c r="G4">
-        <v>19.08834676487039</v>
+        <v>19.08834676487037</v>
       </c>
       <c r="H4">
-        <v>15.51326825379458</v>
+        <v>15.51326825379457</v>
       </c>
       <c r="I4">
-        <v>26.77723124652363</v>
+        <v>26.77723124652366</v>
       </c>
       <c r="J4">
-        <v>17.35291446913136</v>
+        <v>17.3529144691314</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.28204610391315</v>
+        <v>18.28204610391313</v>
       </c>
       <c r="C5">
-        <v>15.06319710044275</v>
+        <v>15.06319710044258</v>
       </c>
       <c r="D5">
-        <v>7.089966467095124</v>
+        <v>7.089966467094992</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.22370823201882</v>
+        <v>27.22370823201899</v>
       </c>
       <c r="G5">
-        <v>18.90148643871503</v>
+        <v>18.90148643871516</v>
       </c>
       <c r="H5">
-        <v>15.47043978514021</v>
+        <v>15.47043978514031</v>
       </c>
       <c r="I5">
-        <v>26.14704738251017</v>
+        <v>26.14704738251011</v>
       </c>
       <c r="J5">
-        <v>16.99918574444015</v>
+        <v>16.99918574444012</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.21621008669951</v>
+        <v>18.21621008669956</v>
       </c>
       <c r="C6">
-        <v>15.00795741092562</v>
+        <v>15.00795741092569</v>
       </c>
       <c r="D6">
-        <v>7.067445220508447</v>
+        <v>7.067445220508504</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27.15684545750238</v>
+        <v>27.1568454575023</v>
       </c>
       <c r="G6">
-        <v>18.87077031271803</v>
+        <v>18.87077031271795</v>
       </c>
       <c r="H6">
-        <v>15.46370698894991</v>
+        <v>15.4637069889498</v>
       </c>
       <c r="I6">
-        <v>26.04157916146303</v>
+        <v>26.0415791614631</v>
       </c>
       <c r="J6">
-        <v>16.93983173365627</v>
+        <v>16.93983173365637</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.66898612062033</v>
+        <v>18.66898612062034</v>
       </c>
       <c r="C7">
-        <v>15.38805474306932</v>
+        <v>15.38805474306927</v>
       </c>
       <c r="D7">
-        <v>7.22269200959833</v>
+        <v>7.222692009598333</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.62174839390922</v>
+        <v>27.62174839390917</v>
       </c>
       <c r="G7">
-        <v>19.08580576372811</v>
+        <v>19.08580576372808</v>
       </c>
       <c r="H7">
-        <v>15.51266498282132</v>
+        <v>15.51266498282126</v>
       </c>
       <c r="I7">
-        <v>26.76878726207121</v>
+        <v>26.76878726207114</v>
       </c>
       <c r="J7">
-        <v>17.34818527634408</v>
+        <v>17.34818527634406</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.56438247118187</v>
+        <v>20.5643824711818</v>
       </c>
       <c r="C8">
-        <v>16.98443274901081</v>
+        <v>16.98443274901096</v>
       </c>
       <c r="D8">
-        <v>7.881678343543521</v>
+        <v>7.881678343543554</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -655,16 +655,16 @@
         <v>29.69161188969278</v>
       </c>
       <c r="G8">
-        <v>20.08040424933034</v>
+        <v>20.08040424933037</v>
       </c>
       <c r="H8">
-        <v>15.78675143795453</v>
+        <v>15.78675143795461</v>
       </c>
       <c r="I8">
-        <v>29.86365466625784</v>
+        <v>29.86365466625789</v>
       </c>
       <c r="J8">
-        <v>19.0614269884441</v>
+        <v>19.06142698844412</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -681,28 +681,28 @@
         <v>23.92657676618764</v>
       </c>
       <c r="C9">
-        <v>19.83988397337458</v>
+        <v>19.83988397337464</v>
       </c>
       <c r="D9">
-        <v>9.087823503876223</v>
+        <v>9.087823503876367</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>33.81350295122343</v>
+        <v>33.81350295122342</v>
       </c>
       <c r="G9">
-        <v>22.20123171923505</v>
+        <v>22.20123171923507</v>
       </c>
       <c r="H9">
-        <v>16.56179936893219</v>
+        <v>16.56179936893224</v>
       </c>
       <c r="I9">
-        <v>35.59205045498209</v>
+        <v>35.59205045498211</v>
       </c>
       <c r="J9">
-        <v>22.11464626861567</v>
+        <v>22.11464626861569</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.19669594279218</v>
+        <v>26.19669594279206</v>
       </c>
       <c r="C10">
-        <v>21.78846510779955</v>
+        <v>21.78846510779954</v>
       </c>
       <c r="D10">
-        <v>9.932546690160711</v>
+        <v>9.932546690160697</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>37.06225007296017</v>
+        <v>37.06225007296008</v>
       </c>
       <c r="G10">
-        <v>23.87523879064426</v>
+        <v>23.8752387906443</v>
       </c>
       <c r="H10">
-        <v>17.30408184298329</v>
+        <v>17.30408184298337</v>
       </c>
       <c r="I10">
-        <v>39.67849939451268</v>
+        <v>39.67849939451261</v>
       </c>
       <c r="J10">
-        <v>24.18623517205651</v>
+        <v>24.18623517205639</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.19044634836721</v>
+        <v>27.1904463483672</v>
       </c>
       <c r="C11">
-        <v>22.64769926537286</v>
+        <v>22.64769926537295</v>
       </c>
       <c r="D11">
-        <v>10.31148779729566</v>
+        <v>10.31148779729565</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>38.62568509351833</v>
+        <v>38.62568509351848</v>
       </c>
       <c r="G11">
-        <v>24.74251086701457</v>
+        <v>24.74251086701468</v>
       </c>
       <c r="H11">
-        <v>17.68611504914995</v>
+        <v>17.68611504914993</v>
       </c>
       <c r="I11">
-        <v>41.5368348600316</v>
+        <v>41.53683486003175</v>
       </c>
       <c r="J11">
-        <v>25.09577199167961</v>
+        <v>25.09577199167963</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.56161836019551</v>
+        <v>27.56161836019557</v>
       </c>
       <c r="C12">
-        <v>22.96971233414175</v>
+        <v>22.96971233414176</v>
       </c>
       <c r="D12">
-        <v>10.45464481289241</v>
+        <v>10.45464481289243</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>39.21924887834253</v>
+        <v>39.21924887834255</v>
       </c>
       <c r="G12">
-        <v>25.12614806896649</v>
+        <v>25.12614806896648</v>
       </c>
       <c r="H12">
-        <v>17.83782712464889</v>
+        <v>17.83782712464885</v>
       </c>
       <c r="I12">
-        <v>42.24336696368604</v>
+        <v>42.24336696368607</v>
       </c>
       <c r="J12">
-        <v>25.43593407356465</v>
+        <v>25.43593407356469</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.48190000654913</v>
+        <v>27.48190000654919</v>
       </c>
       <c r="C13">
         <v>22.90050035406378</v>
       </c>
       <c r="D13">
-        <v>10.42382025843432</v>
+        <v>10.4238202584342</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>39.09132243986361</v>
+        <v>39.09132243986367</v>
       </c>
       <c r="G13">
-        <v>25.04344522356764</v>
+        <v>25.0434452235677</v>
       </c>
       <c r="H13">
-        <v>17.80482797016082</v>
+        <v>17.80482797016081</v>
       </c>
       <c r="I13">
-        <v>42.0910217428801</v>
+        <v>42.09102174288009</v>
       </c>
       <c r="J13">
-        <v>25.36285499292201</v>
+        <v>25.36285499292207</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.22108290908953</v>
+        <v>27.2210829090895</v>
       </c>
       <c r="C14">
-        <v>22.67425521058189</v>
+        <v>22.67425521058181</v>
       </c>
       <c r="D14">
-        <v>10.32326930153743</v>
+        <v>10.32326930153752</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>38.67447887257809</v>
+        <v>38.67447887257815</v>
       </c>
       <c r="G14">
-        <v>24.77403842775585</v>
+        <v>24.77403842775587</v>
       </c>
       <c r="H14">
-        <v>17.69845106040847</v>
+        <v>17.6984510604085</v>
       </c>
       <c r="I14">
-        <v>41.5948854942429</v>
+        <v>41.59488549424285</v>
       </c>
       <c r="J14">
-        <v>25.12383966575277</v>
+        <v>25.12383966575272</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.06067090104871</v>
+        <v>27.0606709010486</v>
       </c>
       <c r="C15">
-        <v>22.53525440651195</v>
+        <v>22.53525440651203</v>
       </c>
       <c r="D15">
-        <v>10.26164959353471</v>
+        <v>10.26164959353468</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>38.41939216095779</v>
+        <v>38.41939216095764</v>
       </c>
       <c r="G15">
-        <v>24.60923594632989</v>
+        <v>24.6092359463298</v>
       </c>
       <c r="H15">
-        <v>17.63423133963188</v>
+        <v>17.63423133963187</v>
       </c>
       <c r="I15">
-        <v>41.2914555106873</v>
+        <v>41.29145551068723</v>
       </c>
       <c r="J15">
-        <v>24.97689668937434</v>
+        <v>24.97689668937426</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -950,25 +950,25 @@
         <v>21.7318092283639</v>
       </c>
       <c r="D16">
-        <v>9.907708377278599</v>
+        <v>9.907708377278638</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>36.96021352536675</v>
+        <v>36.96021352536684</v>
       </c>
       <c r="G16">
-        <v>23.82416422902177</v>
+        <v>23.8241642290218</v>
       </c>
       <c r="H16">
         <v>17.28006200838183</v>
       </c>
       <c r="I16">
-        <v>39.55727122146494</v>
+        <v>39.55727122146501</v>
       </c>
       <c r="J16">
-        <v>24.12617117974126</v>
+        <v>24.12617117974125</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.55101105398793</v>
+        <v>25.55101105398795</v>
       </c>
       <c r="C17">
-        <v>21.23231208206633</v>
+        <v>21.23231208206622</v>
       </c>
       <c r="D17">
-        <v>9.689477596875955</v>
+        <v>9.689477596876056</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>36.0663386971193</v>
+        <v>36.06633869711928</v>
       </c>
       <c r="G17">
-        <v>23.37996314156475</v>
+        <v>23.37996314156477</v>
       </c>
       <c r="H17">
-        <v>17.07459184782491</v>
+        <v>17.07459184782493</v>
       </c>
       <c r="I17">
-        <v>38.49507981257449</v>
+        <v>38.4950798125745</v>
       </c>
       <c r="J17">
         <v>23.5961653689153</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.21371615653102</v>
+        <v>25.21371615653098</v>
       </c>
       <c r="C18">
-        <v>20.94241669895534</v>
+        <v>20.94241669895536</v>
       </c>
       <c r="D18">
-        <v>9.563423789808992</v>
+        <v>9.563423789809063</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>35.55230809854228</v>
+        <v>35.55230809854211</v>
       </c>
       <c r="G18">
-        <v>23.12724277960789</v>
+        <v>23.12724277960782</v>
       </c>
       <c r="H18">
-        <v>16.96054157367181</v>
+        <v>16.96054157367179</v>
       </c>
       <c r="I18">
-        <v>37.88386505269917</v>
+        <v>37.8838650526991</v>
       </c>
       <c r="J18">
-        <v>23.28819612355558</v>
+        <v>23.28819612355554</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.09886637975295</v>
+        <v>25.09886637975298</v>
       </c>
       <c r="C19">
-        <v>20.84380214421644</v>
+        <v>20.84380214421651</v>
       </c>
       <c r="D19">
-        <v>9.520641549369936</v>
+        <v>9.520641549369909</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>35.3782528780927</v>
+        <v>35.37825287809267</v>
       </c>
       <c r="G19">
         <v>23.04213701553656</v>
       </c>
       <c r="H19">
-        <v>16.92261712832542</v>
+        <v>16.92261712832543</v>
       </c>
       <c r="I19">
-        <v>37.67679562771607</v>
+        <v>37.67679562771599</v>
       </c>
       <c r="J19">
-        <v>23.18337403587775</v>
+        <v>23.18337403587779</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>25.61313210178289</v>
       </c>
       <c r="C20">
-        <v>21.28574968689076</v>
+        <v>21.28574968689068</v>
       </c>
       <c r="D20">
-        <v>9.71276113514763</v>
+        <v>9.712761135147792</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>36.16147499261936</v>
+        <v>36.16147499261933</v>
       </c>
       <c r="G20">
-        <v>23.42695844950637</v>
+        <v>23.42695844950633</v>
       </c>
       <c r="H20">
         <v>17.09603253628129</v>
       </c>
       <c r="I20">
-        <v>38.60816132114154</v>
+        <v>38.6081613211415</v>
       </c>
       <c r="J20">
-        <v>23.65290568398179</v>
+        <v>23.65290568398181</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.29782653971514</v>
+        <v>27.29782653971521</v>
       </c>
       <c r="C21">
-        <v>22.74079506793586</v>
+        <v>22.74079506793577</v>
       </c>
       <c r="D21">
-        <v>10.35280871320498</v>
+        <v>10.35280871320496</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1152,13 +1152,13 @@
         <v>24.85312281570519</v>
       </c>
       <c r="H21">
-        <v>17.72949943674885</v>
+        <v>17.72949943674888</v>
       </c>
       <c r="I21">
-        <v>41.74050882564714</v>
+        <v>41.7405088256471</v>
       </c>
       <c r="J21">
-        <v>25.19415564290253</v>
+        <v>25.19415564290248</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.36920656915234</v>
+        <v>28.36920656915237</v>
       </c>
       <c r="C22">
-        <v>23.67252322433906</v>
+        <v>23.67252322433905</v>
       </c>
       <c r="D22">
-        <v>10.76944123285948</v>
+        <v>10.76944123285947</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>40.52902522211692</v>
+        <v>40.52902522211703</v>
       </c>
       <c r="G22">
-        <v>25.97348971526652</v>
+        <v>25.97348971526661</v>
       </c>
       <c r="H22">
-        <v>18.18497718943744</v>
+        <v>18.18497718943748</v>
       </c>
       <c r="I22">
-        <v>43.8061440070559</v>
+        <v>43.80614400705596</v>
       </c>
       <c r="J22">
-        <v>26.17692304914389</v>
+        <v>26.17692304914392</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,28 +1213,28 @@
         <v>27.79992534724013</v>
       </c>
       <c r="C23">
-        <v>23.17678402130319</v>
+        <v>23.1767840213031</v>
       </c>
       <c r="D23">
-        <v>10.54705151242484</v>
+        <v>10.5470515124249</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>39.60312165257914</v>
+        <v>39.60312165257893</v>
       </c>
       <c r="G23">
-        <v>25.37438112276276</v>
+        <v>25.37438112276259</v>
       </c>
       <c r="H23">
-        <v>17.93783043491108</v>
+        <v>17.93783043491098</v>
       </c>
       <c r="I23">
-        <v>42.70078883419481</v>
+        <v>42.7007888341948</v>
       </c>
       <c r="J23">
-        <v>25.6544628186617</v>
+        <v>25.65446281866166</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.58505919600752</v>
+        <v>25.58505919600754</v>
       </c>
       <c r="C24">
-        <v>21.26159908193839</v>
+        <v>21.26159908193841</v>
       </c>
       <c r="D24">
-        <v>9.702236515578603</v>
+        <v>9.702236515578708</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>36.11846436514062</v>
+        <v>36.11846436514058</v>
       </c>
       <c r="G24">
-        <v>23.4057036383532</v>
+        <v>23.40570363835317</v>
       </c>
       <c r="H24">
-        <v>17.08632654967489</v>
+        <v>17.08632654967488</v>
       </c>
       <c r="I24">
-        <v>38.55703908182365</v>
+        <v>38.55703908182356</v>
       </c>
       <c r="J24">
-        <v>23.62726358087711</v>
+        <v>23.62726358087712</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.05346670808495</v>
+        <v>23.05346670808488</v>
       </c>
       <c r="C25">
-        <v>19.09514359791576</v>
+        <v>19.09514359791572</v>
       </c>
       <c r="D25">
-        <v>8.769794542582479</v>
+        <v>8.769794542582412</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>32.69094696862281</v>
+        <v>32.69094696862286</v>
       </c>
       <c r="G25">
-        <v>21.60832653160703</v>
+        <v>21.60832653160714</v>
       </c>
       <c r="H25">
-        <v>16.32389542123832</v>
+        <v>16.32389542123848</v>
       </c>
       <c r="I25">
-        <v>34.07108008486617</v>
+        <v>34.0710800848661</v>
       </c>
       <c r="J25">
-        <v>21.32007542280608</v>
+        <v>21.32007542280599</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_23/res_line/loading_percent.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.05342019475723</v>
+        <v>21.05342019475722</v>
       </c>
       <c r="C2">
-        <v>17.39777763204009</v>
+        <v>17.39777763204004</v>
       </c>
       <c r="D2">
-        <v>8.054095096818619</v>
+        <v>8.054095096818626</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.25658469883336</v>
+        <v>30.25658469883331</v>
       </c>
       <c r="G2">
-        <v>20.36114733667721</v>
+        <v>20.36114733667719</v>
       </c>
       <c r="H2">
-        <v>15.87609695074729</v>
+        <v>15.87609695074727</v>
       </c>
       <c r="I2">
         <v>30.67656121824625</v>
       </c>
       <c r="J2">
-        <v>19.50442088366655</v>
+        <v>19.50442088366652</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.60779415279753</v>
+        <v>19.60779415279762</v>
       </c>
       <c r="C3">
         <v>16.17766919822973</v>
       </c>
       <c r="D3">
-        <v>7.547261821616432</v>
+        <v>7.547261821616487</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28.62260071727261</v>
+        <v>28.62260071727258</v>
       </c>
       <c r="G3">
-        <v>19.55961937984767</v>
+        <v>19.55961937984761</v>
       </c>
       <c r="H3">
-        <v>15.63426925954386</v>
+        <v>15.63426925954375</v>
       </c>
       <c r="I3">
-        <v>28.29107841850421</v>
+        <v>28.29107841850432</v>
       </c>
       <c r="J3">
-        <v>18.19602087734126</v>
+        <v>18.19602087734133</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.67422741961449</v>
+        <v>18.67422741961445</v>
       </c>
       <c r="C4">
-        <v>15.39245742393016</v>
+        <v>15.39245742393013</v>
       </c>
       <c r="D4">
-        <v>7.224494065195709</v>
+        <v>7.224494065195583</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.62719899544328</v>
+        <v>27.62719899544329</v>
       </c>
       <c r="G4">
-        <v>19.08834676487037</v>
+        <v>19.08834676487039</v>
       </c>
       <c r="H4">
-        <v>15.51326825379457</v>
+        <v>15.51326825379458</v>
       </c>
       <c r="I4">
-        <v>26.77723124652366</v>
+        <v>26.77723124652363</v>
       </c>
       <c r="J4">
-        <v>17.3529144691314</v>
+        <v>17.35291446913136</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.28204610391313</v>
+        <v>18.28204610391315</v>
       </c>
       <c r="C5">
-        <v>15.06319710044258</v>
+        <v>15.06319710044275</v>
       </c>
       <c r="D5">
-        <v>7.089966467094992</v>
+        <v>7.089966467095124</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.22370823201899</v>
+        <v>27.22370823201882</v>
       </c>
       <c r="G5">
-        <v>18.90148643871516</v>
+        <v>18.90148643871503</v>
       </c>
       <c r="H5">
-        <v>15.47043978514031</v>
+        <v>15.47043978514021</v>
       </c>
       <c r="I5">
-        <v>26.14704738251011</v>
+        <v>26.14704738251017</v>
       </c>
       <c r="J5">
-        <v>16.99918574444012</v>
+        <v>16.99918574444015</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.21621008669956</v>
+        <v>18.21621008669951</v>
       </c>
       <c r="C6">
-        <v>15.00795741092569</v>
+        <v>15.00795741092562</v>
       </c>
       <c r="D6">
-        <v>7.067445220508504</v>
+        <v>7.067445220508447</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27.1568454575023</v>
+        <v>27.15684545750238</v>
       </c>
       <c r="G6">
-        <v>18.87077031271795</v>
+        <v>18.87077031271803</v>
       </c>
       <c r="H6">
-        <v>15.4637069889498</v>
+        <v>15.46370698894991</v>
       </c>
       <c r="I6">
-        <v>26.0415791614631</v>
+        <v>26.04157916146303</v>
       </c>
       <c r="J6">
-        <v>16.93983173365637</v>
+        <v>16.93983173365627</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.66898612062034</v>
+        <v>18.66898612062033</v>
       </c>
       <c r="C7">
-        <v>15.38805474306927</v>
+        <v>15.38805474306932</v>
       </c>
       <c r="D7">
-        <v>7.222692009598333</v>
+        <v>7.22269200959833</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.62174839390917</v>
+        <v>27.62174839390922</v>
       </c>
       <c r="G7">
-        <v>19.08580576372808</v>
+        <v>19.08580576372811</v>
       </c>
       <c r="H7">
-        <v>15.51266498282126</v>
+        <v>15.51266498282132</v>
       </c>
       <c r="I7">
-        <v>26.76878726207114</v>
+        <v>26.76878726207121</v>
       </c>
       <c r="J7">
-        <v>17.34818527634406</v>
+        <v>17.34818527634408</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.5643824711818</v>
+        <v>20.56438247118187</v>
       </c>
       <c r="C8">
-        <v>16.98443274901096</v>
+        <v>16.98443274901081</v>
       </c>
       <c r="D8">
-        <v>7.881678343543554</v>
+        <v>7.881678343543521</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -655,16 +655,16 @@
         <v>29.69161188969278</v>
       </c>
       <c r="G8">
-        <v>20.08040424933037</v>
+        <v>20.08040424933034</v>
       </c>
       <c r="H8">
-        <v>15.78675143795461</v>
+        <v>15.78675143795453</v>
       </c>
       <c r="I8">
-        <v>29.86365466625789</v>
+        <v>29.86365466625784</v>
       </c>
       <c r="J8">
-        <v>19.06142698844412</v>
+        <v>19.0614269884441</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -681,28 +681,28 @@
         <v>23.92657676618764</v>
       </c>
       <c r="C9">
-        <v>19.83988397337464</v>
+        <v>19.83988397337458</v>
       </c>
       <c r="D9">
-        <v>9.087823503876367</v>
+        <v>9.087823503876223</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>33.81350295122342</v>
+        <v>33.81350295122343</v>
       </c>
       <c r="G9">
-        <v>22.20123171923507</v>
+        <v>22.20123171923505</v>
       </c>
       <c r="H9">
-        <v>16.56179936893224</v>
+        <v>16.56179936893219</v>
       </c>
       <c r="I9">
-        <v>35.59205045498211</v>
+        <v>35.59205045498209</v>
       </c>
       <c r="J9">
-        <v>22.11464626861569</v>
+        <v>22.11464626861567</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.19669594279206</v>
+        <v>26.19669594279218</v>
       </c>
       <c r="C10">
-        <v>21.78846510779954</v>
+        <v>21.78846510779955</v>
       </c>
       <c r="D10">
-        <v>9.932546690160697</v>
+        <v>9.932546690160711</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>37.06225007296008</v>
+        <v>37.06225007296017</v>
       </c>
       <c r="G10">
-        <v>23.8752387906443</v>
+        <v>23.87523879064426</v>
       </c>
       <c r="H10">
-        <v>17.30408184298337</v>
+        <v>17.30408184298329</v>
       </c>
       <c r="I10">
-        <v>39.67849939451261</v>
+        <v>39.67849939451268</v>
       </c>
       <c r="J10">
-        <v>24.18623517205639</v>
+        <v>24.18623517205651</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.1904463483672</v>
+        <v>27.19044634836721</v>
       </c>
       <c r="C11">
-        <v>22.64769926537295</v>
+        <v>22.64769926537286</v>
       </c>
       <c r="D11">
-        <v>10.31148779729565</v>
+        <v>10.31148779729566</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>38.62568509351848</v>
+        <v>38.62568509351833</v>
       </c>
       <c r="G11">
-        <v>24.74251086701468</v>
+        <v>24.74251086701457</v>
       </c>
       <c r="H11">
-        <v>17.68611504914993</v>
+        <v>17.68611504914995</v>
       </c>
       <c r="I11">
-        <v>41.53683486003175</v>
+        <v>41.5368348600316</v>
       </c>
       <c r="J11">
-        <v>25.09577199167963</v>
+        <v>25.09577199167961</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.56161836019557</v>
+        <v>27.56161836019551</v>
       </c>
       <c r="C12">
-        <v>22.96971233414176</v>
+        <v>22.96971233414175</v>
       </c>
       <c r="D12">
-        <v>10.45464481289243</v>
+        <v>10.45464481289241</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>39.21924887834255</v>
+        <v>39.21924887834253</v>
       </c>
       <c r="G12">
-        <v>25.12614806896648</v>
+        <v>25.12614806896649</v>
       </c>
       <c r="H12">
-        <v>17.83782712464885</v>
+        <v>17.83782712464889</v>
       </c>
       <c r="I12">
-        <v>42.24336696368607</v>
+        <v>42.24336696368604</v>
       </c>
       <c r="J12">
-        <v>25.43593407356469</v>
+        <v>25.43593407356465</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.48190000654919</v>
+        <v>27.48190000654913</v>
       </c>
       <c r="C13">
         <v>22.90050035406378</v>
       </c>
       <c r="D13">
-        <v>10.4238202584342</v>
+        <v>10.42382025843432</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>39.09132243986367</v>
+        <v>39.09132243986361</v>
       </c>
       <c r="G13">
-        <v>25.0434452235677</v>
+        <v>25.04344522356764</v>
       </c>
       <c r="H13">
-        <v>17.80482797016081</v>
+        <v>17.80482797016082</v>
       </c>
       <c r="I13">
-        <v>42.09102174288009</v>
+        <v>42.0910217428801</v>
       </c>
       <c r="J13">
-        <v>25.36285499292207</v>
+        <v>25.36285499292201</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.2210829090895</v>
+        <v>27.22108290908953</v>
       </c>
       <c r="C14">
-        <v>22.67425521058181</v>
+        <v>22.67425521058189</v>
       </c>
       <c r="D14">
-        <v>10.32326930153752</v>
+        <v>10.32326930153743</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>38.67447887257815</v>
+        <v>38.67447887257809</v>
       </c>
       <c r="G14">
-        <v>24.77403842775587</v>
+        <v>24.77403842775585</v>
       </c>
       <c r="H14">
-        <v>17.6984510604085</v>
+        <v>17.69845106040847</v>
       </c>
       <c r="I14">
-        <v>41.59488549424285</v>
+        <v>41.5948854942429</v>
       </c>
       <c r="J14">
-        <v>25.12383966575272</v>
+        <v>25.12383966575277</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.0606709010486</v>
+        <v>27.06067090104871</v>
       </c>
       <c r="C15">
-        <v>22.53525440651203</v>
+        <v>22.53525440651195</v>
       </c>
       <c r="D15">
-        <v>10.26164959353468</v>
+        <v>10.26164959353471</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>38.41939216095764</v>
+        <v>38.41939216095779</v>
       </c>
       <c r="G15">
-        <v>24.6092359463298</v>
+        <v>24.60923594632989</v>
       </c>
       <c r="H15">
-        <v>17.63423133963187</v>
+        <v>17.63423133963188</v>
       </c>
       <c r="I15">
-        <v>41.29145551068723</v>
+        <v>41.2914555106873</v>
       </c>
       <c r="J15">
-        <v>24.97689668937426</v>
+        <v>24.97689668937434</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -950,25 +950,25 @@
         <v>21.7318092283639</v>
       </c>
       <c r="D16">
-        <v>9.907708377278638</v>
+        <v>9.907708377278599</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>36.96021352536684</v>
+        <v>36.96021352536675</v>
       </c>
       <c r="G16">
-        <v>23.8241642290218</v>
+        <v>23.82416422902177</v>
       </c>
       <c r="H16">
         <v>17.28006200838183</v>
       </c>
       <c r="I16">
-        <v>39.55727122146501</v>
+        <v>39.55727122146494</v>
       </c>
       <c r="J16">
-        <v>24.12617117974125</v>
+        <v>24.12617117974126</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.55101105398795</v>
+        <v>25.55101105398793</v>
       </c>
       <c r="C17">
-        <v>21.23231208206622</v>
+        <v>21.23231208206633</v>
       </c>
       <c r="D17">
-        <v>9.689477596876056</v>
+        <v>9.689477596875955</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>36.06633869711928</v>
+        <v>36.0663386971193</v>
       </c>
       <c r="G17">
-        <v>23.37996314156477</v>
+        <v>23.37996314156475</v>
       </c>
       <c r="H17">
-        <v>17.07459184782493</v>
+        <v>17.07459184782491</v>
       </c>
       <c r="I17">
-        <v>38.4950798125745</v>
+        <v>38.49507981257449</v>
       </c>
       <c r="J17">
         <v>23.5961653689153</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.21371615653098</v>
+        <v>25.21371615653102</v>
       </c>
       <c r="C18">
-        <v>20.94241669895536</v>
+        <v>20.94241669895534</v>
       </c>
       <c r="D18">
-        <v>9.563423789809063</v>
+        <v>9.563423789808992</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>35.55230809854211</v>
+        <v>35.55230809854228</v>
       </c>
       <c r="G18">
-        <v>23.12724277960782</v>
+        <v>23.12724277960789</v>
       </c>
       <c r="H18">
-        <v>16.96054157367179</v>
+        <v>16.96054157367181</v>
       </c>
       <c r="I18">
-        <v>37.8838650526991</v>
+        <v>37.88386505269917</v>
       </c>
       <c r="J18">
-        <v>23.28819612355554</v>
+        <v>23.28819612355558</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.09886637975298</v>
+        <v>25.09886637975295</v>
       </c>
       <c r="C19">
-        <v>20.84380214421651</v>
+        <v>20.84380214421644</v>
       </c>
       <c r="D19">
-        <v>9.520641549369909</v>
+        <v>9.520641549369936</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>35.37825287809267</v>
+        <v>35.3782528780927</v>
       </c>
       <c r="G19">
         <v>23.04213701553656</v>
       </c>
       <c r="H19">
-        <v>16.92261712832543</v>
+        <v>16.92261712832542</v>
       </c>
       <c r="I19">
-        <v>37.67679562771599</v>
+        <v>37.67679562771607</v>
       </c>
       <c r="J19">
-        <v>23.18337403587779</v>
+        <v>23.18337403587775</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>25.61313210178289</v>
       </c>
       <c r="C20">
-        <v>21.28574968689068</v>
+        <v>21.28574968689076</v>
       </c>
       <c r="D20">
-        <v>9.712761135147792</v>
+        <v>9.71276113514763</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>36.16147499261933</v>
+        <v>36.16147499261936</v>
       </c>
       <c r="G20">
-        <v>23.42695844950633</v>
+        <v>23.42695844950637</v>
       </c>
       <c r="H20">
         <v>17.09603253628129</v>
       </c>
       <c r="I20">
-        <v>38.6081613211415</v>
+        <v>38.60816132114154</v>
       </c>
       <c r="J20">
-        <v>23.65290568398181</v>
+        <v>23.65290568398179</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.29782653971521</v>
+        <v>27.29782653971514</v>
       </c>
       <c r="C21">
-        <v>22.74079506793577</v>
+        <v>22.74079506793586</v>
       </c>
       <c r="D21">
-        <v>10.35280871320496</v>
+        <v>10.35280871320498</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1152,13 +1152,13 @@
         <v>24.85312281570519</v>
       </c>
       <c r="H21">
-        <v>17.72949943674888</v>
+        <v>17.72949943674885</v>
       </c>
       <c r="I21">
-        <v>41.7405088256471</v>
+        <v>41.74050882564714</v>
       </c>
       <c r="J21">
-        <v>25.19415564290248</v>
+        <v>25.19415564290253</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.36920656915237</v>
+        <v>28.36920656915234</v>
       </c>
       <c r="C22">
-        <v>23.67252322433905</v>
+        <v>23.67252322433906</v>
       </c>
       <c r="D22">
-        <v>10.76944123285947</v>
+        <v>10.76944123285948</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>40.52902522211703</v>
+        <v>40.52902522211692</v>
       </c>
       <c r="G22">
-        <v>25.97348971526661</v>
+        <v>25.97348971526652</v>
       </c>
       <c r="H22">
-        <v>18.18497718943748</v>
+        <v>18.18497718943744</v>
       </c>
       <c r="I22">
-        <v>43.80614400705596</v>
+        <v>43.8061440070559</v>
       </c>
       <c r="J22">
-        <v>26.17692304914392</v>
+        <v>26.17692304914389</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,28 +1213,28 @@
         <v>27.79992534724013</v>
       </c>
       <c r="C23">
-        <v>23.1767840213031</v>
+        <v>23.17678402130319</v>
       </c>
       <c r="D23">
-        <v>10.5470515124249</v>
+        <v>10.54705151242484</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>39.60312165257893</v>
+        <v>39.60312165257914</v>
       </c>
       <c r="G23">
-        <v>25.37438112276259</v>
+        <v>25.37438112276276</v>
       </c>
       <c r="H23">
-        <v>17.93783043491098</v>
+        <v>17.93783043491108</v>
       </c>
       <c r="I23">
-        <v>42.7007888341948</v>
+        <v>42.70078883419481</v>
       </c>
       <c r="J23">
-        <v>25.65446281866166</v>
+        <v>25.6544628186617</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.58505919600754</v>
+        <v>25.58505919600752</v>
       </c>
       <c r="C24">
-        <v>21.26159908193841</v>
+        <v>21.26159908193839</v>
       </c>
       <c r="D24">
-        <v>9.702236515578708</v>
+        <v>9.702236515578603</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>36.11846436514058</v>
+        <v>36.11846436514062</v>
       </c>
       <c r="G24">
-        <v>23.40570363835317</v>
+        <v>23.4057036383532</v>
       </c>
       <c r="H24">
-        <v>17.08632654967488</v>
+        <v>17.08632654967489</v>
       </c>
       <c r="I24">
-        <v>38.55703908182356</v>
+        <v>38.55703908182365</v>
       </c>
       <c r="J24">
-        <v>23.62726358087712</v>
+        <v>23.62726358087711</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.05346670808488</v>
+        <v>23.05346670808495</v>
       </c>
       <c r="C25">
-        <v>19.09514359791572</v>
+        <v>19.09514359791576</v>
       </c>
       <c r="D25">
-        <v>8.769794542582412</v>
+        <v>8.769794542582479</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>32.69094696862286</v>
+        <v>32.69094696862281</v>
       </c>
       <c r="G25">
-        <v>21.60832653160714</v>
+        <v>21.60832653160703</v>
       </c>
       <c r="H25">
-        <v>16.32389542123848</v>
+        <v>16.32389542123832</v>
       </c>
       <c r="I25">
-        <v>34.0710800848661</v>
+        <v>34.07108008486617</v>
       </c>
       <c r="J25">
-        <v>21.32007542280599</v>
+        <v>21.32007542280608</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_23/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.05342019475722</v>
+        <v>21.05316517610765</v>
       </c>
       <c r="C2">
-        <v>17.39777763204004</v>
+        <v>17.39437462961089</v>
       </c>
       <c r="D2">
-        <v>8.054095096818626</v>
+        <v>8.057673829319619</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.25658469883331</v>
+        <v>30.23842605673219</v>
       </c>
       <c r="G2">
-        <v>20.36114733667719</v>
+        <v>19.29286553116706</v>
       </c>
       <c r="H2">
-        <v>15.87609695074727</v>
+        <v>20.39351164823601</v>
       </c>
       <c r="I2">
-        <v>30.67656121824625</v>
+        <v>15.86416649134274</v>
       </c>
       <c r="J2">
-        <v>19.50442088366652</v>
+        <v>30.67625216645881</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>19.50313197052919</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.60779415279762</v>
+        <v>19.60769752838193</v>
       </c>
       <c r="C3">
-        <v>16.17766919822973</v>
+        <v>16.17465145514642</v>
       </c>
       <c r="D3">
-        <v>7.547261821616487</v>
+        <v>7.550535770292657</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28.62260071727258</v>
+        <v>28.60562317845971</v>
       </c>
       <c r="G3">
-        <v>19.55961937984761</v>
+        <v>18.20758950799803</v>
       </c>
       <c r="H3">
-        <v>15.63426925954375</v>
+        <v>19.59081111965269</v>
       </c>
       <c r="I3">
-        <v>28.29107841850432</v>
+        <v>15.62333343123218</v>
       </c>
       <c r="J3">
-        <v>18.19602087734133</v>
+        <v>28.29089976447363</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>18.19497680856704</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.67422741961445</v>
+        <v>18.67422481306817</v>
       </c>
       <c r="C4">
-        <v>15.39245742393013</v>
+        <v>15.38967979085688</v>
       </c>
       <c r="D4">
-        <v>7.224494065195583</v>
+        <v>7.22756464443349</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.62719899544329</v>
+        <v>27.61096694120135</v>
       </c>
       <c r="G4">
-        <v>19.08834676487039</v>
+        <v>17.54753405047413</v>
       </c>
       <c r="H4">
-        <v>15.51326825379458</v>
+        <v>19.11888082618416</v>
       </c>
       <c r="I4">
-        <v>26.77723124652363</v>
+        <v>15.5029489274025</v>
       </c>
       <c r="J4">
-        <v>17.35291446913136</v>
+        <v>26.77712122449215</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>17.35202173576218</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.28204610391315</v>
+        <v>18.28208125410288</v>
       </c>
       <c r="C5">
-        <v>15.06319710044275</v>
+        <v>15.06051854720144</v>
       </c>
       <c r="D5">
-        <v>7.089966467095124</v>
+        <v>7.092950056315998</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.22370823201882</v>
+        <v>27.207785349923</v>
       </c>
       <c r="G5">
-        <v>18.90148643871503</v>
+        <v>17.28026513085845</v>
       </c>
       <c r="H5">
-        <v>15.47043978514021</v>
+        <v>18.93176810808704</v>
       </c>
       <c r="I5">
-        <v>26.14704738251017</v>
+        <v>15.46037264817001</v>
       </c>
       <c r="J5">
-        <v>16.99918574444015</v>
+        <v>26.14696297067473</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.99835524125514</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.21621008669951</v>
+        <v>18.21625147995756</v>
       </c>
       <c r="C6">
-        <v>15.00795741092562</v>
+        <v>15.00529539377196</v>
       </c>
       <c r="D6">
-        <v>7.067445220508447</v>
+        <v>7.070414115080342</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27.15684545750238</v>
+        <v>27.14097424341562</v>
       </c>
       <c r="G6">
-        <v>18.87077031271803</v>
+        <v>17.23599366717503</v>
       </c>
       <c r="H6">
-        <v>15.46370698894991</v>
+        <v>18.90101101335215</v>
       </c>
       <c r="I6">
-        <v>26.04157916146303</v>
+        <v>15.45368177154008</v>
       </c>
       <c r="J6">
-        <v>16.93983173365627</v>
+        <v>26.04149887293319</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.93901160634858</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.66898612062033</v>
+        <v>18.6689840251999</v>
       </c>
       <c r="C7">
-        <v>15.38805474306932</v>
+        <v>15.38527844079809</v>
       </c>
       <c r="D7">
-        <v>7.22269200959833</v>
+        <v>7.22576143238424</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.62174839390922</v>
+        <v>27.60552048722566</v>
       </c>
       <c r="G7">
-        <v>19.08580576372811</v>
+        <v>17.54392242781228</v>
       </c>
       <c r="H7">
-        <v>15.51266498282132</v>
+        <v>19.11633635806404</v>
       </c>
       <c r="I7">
-        <v>26.76878726207121</v>
+        <v>15.50234905430664</v>
       </c>
       <c r="J7">
-        <v>17.34818527634408</v>
+        <v>26.76867759436715</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>17.34729337956785</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.56438247118187</v>
+        <v>20.5641829005345</v>
       </c>
       <c r="C8">
-        <v>16.98443274901081</v>
+        <v>16.98116205693605</v>
       </c>
       <c r="D8">
-        <v>7.881678343543521</v>
+        <v>7.885155343160914</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>29.69161188969278</v>
+        <v>29.67385650129108</v>
       </c>
       <c r="G8">
-        <v>20.08040424933034</v>
+        <v>18.91740003402733</v>
       </c>
       <c r="H8">
-        <v>15.78675143795453</v>
+        <v>20.11235131864094</v>
       </c>
       <c r="I8">
-        <v>29.86365466625784</v>
+        <v>15.77516242605372</v>
       </c>
       <c r="J8">
-        <v>19.0614269884441</v>
+        <v>29.86339329559906</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>19.06022248074443</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.92657676618764</v>
+        <v>23.92595117689737</v>
       </c>
       <c r="C9">
-        <v>19.83988397337458</v>
+        <v>19.83565498403213</v>
       </c>
       <c r="D9">
-        <v>9.087823503876223</v>
+        <v>9.091970871110581</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>33.81350295122343</v>
+        <v>33.79289140563145</v>
       </c>
       <c r="G9">
-        <v>22.20123171923505</v>
+        <v>21.66052651823421</v>
       </c>
       <c r="H9">
-        <v>16.56179936893219</v>
+        <v>22.23645132458533</v>
       </c>
       <c r="I9">
-        <v>35.59205045498209</v>
+        <v>16.54778067304018</v>
       </c>
       <c r="J9">
-        <v>22.11464626861567</v>
+        <v>35.59137004377165</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>22.11282156142445</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.19669594279218</v>
+        <v>26.19571182245081</v>
       </c>
       <c r="C10">
-        <v>21.78846510779955</v>
+        <v>21.78351053094492</v>
       </c>
       <c r="D10">
-        <v>9.932546690160711</v>
+        <v>9.937104562419499</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>37.06225007296017</v>
+        <v>37.03930794938677</v>
       </c>
       <c r="G10">
-        <v>23.87523879064426</v>
+        <v>23.77207130552696</v>
       </c>
       <c r="H10">
-        <v>17.30408184298329</v>
+        <v>23.91316678187838</v>
       </c>
       <c r="I10">
-        <v>39.67849939451268</v>
+        <v>17.28834068606255</v>
       </c>
       <c r="J10">
-        <v>24.18623517205651</v>
+        <v>39.67737621936156</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>24.18392592603023</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.19044634836721</v>
+        <v>27.18928272422178</v>
       </c>
       <c r="C11">
-        <v>22.64769926537286</v>
+        <v>22.6424015253025</v>
       </c>
       <c r="D11">
-        <v>10.31148779729566</v>
+        <v>10.3162124675437</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>38.62568509351833</v>
+        <v>38.60181377300932</v>
       </c>
       <c r="G11">
-        <v>24.74251086701457</v>
+        <v>24.78288270676634</v>
       </c>
       <c r="H11">
-        <v>17.68611504914995</v>
+        <v>24.70593893388898</v>
       </c>
       <c r="I11">
-        <v>41.5368348600316</v>
+        <v>17.6696052387301</v>
       </c>
       <c r="J11">
-        <v>25.09577199167961</v>
+        <v>41.53545924764703</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>25.0932289514855</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.56161836019551</v>
+        <v>27.56038366542943</v>
       </c>
       <c r="C12">
-        <v>22.96971233414175</v>
+        <v>22.96428181254124</v>
       </c>
       <c r="D12">
-        <v>10.45464481289241</v>
+        <v>10.45942944182847</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>39.21924887834253</v>
+        <v>39.19502187575821</v>
       </c>
       <c r="G12">
-        <v>25.12614806896649</v>
+        <v>25.16712216459449</v>
       </c>
       <c r="H12">
-        <v>17.83782712464889</v>
+        <v>25.02450408931057</v>
       </c>
       <c r="I12">
-        <v>42.24336696368604</v>
+        <v>17.82102812792809</v>
       </c>
       <c r="J12">
-        <v>25.43593407356465</v>
+        <v>42.24188560460578</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>25.43329978369304</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.48190000654913</v>
+        <v>27.48068076996286</v>
       </c>
       <c r="C13">
-        <v>22.90050035406378</v>
+        <v>22.89509857359957</v>
       </c>
       <c r="D13">
-        <v>10.42382025843432</v>
+        <v>10.42859212403542</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>39.09132243986361</v>
+        <v>39.0671722483232</v>
       </c>
       <c r="G13">
-        <v>25.04344522356764</v>
+        <v>25.08428941895126</v>
       </c>
       <c r="H13">
-        <v>17.80482797016082</v>
+        <v>24.94649694807103</v>
       </c>
       <c r="I13">
-        <v>42.0910217428801</v>
+        <v>17.78809117933132</v>
       </c>
       <c r="J13">
-        <v>25.36285499292201</v>
+        <v>42.08956366770357</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>25.36024049130028</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.22108290908953</v>
+        <v>27.21991350498686</v>
       </c>
       <c r="C14">
-        <v>22.67425521058189</v>
+        <v>22.66894660974146</v>
       </c>
       <c r="D14">
-        <v>10.32326930153743</v>
+        <v>10.32799897141183</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>38.67447887257809</v>
+        <v>38.65057838010019</v>
       </c>
       <c r="G14">
-        <v>24.77403842775585</v>
+        <v>24.81445972883737</v>
       </c>
       <c r="H14">
-        <v>17.69845106040847</v>
+        <v>24.73093933695499</v>
       </c>
       <c r="I14">
-        <v>41.5948854942429</v>
+        <v>17.68191742352419</v>
       </c>
       <c r="J14">
-        <v>25.12383966575277</v>
+        <v>41.59350140590004</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>25.12128917821748</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.06067090104871</v>
+        <v>27.05953159195503</v>
       </c>
       <c r="C15">
-        <v>22.53525440651195</v>
+        <v>22.53000247890562</v>
       </c>
       <c r="D15">
-        <v>10.26164959353471</v>
+        <v>10.26635298701906</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>38.41939216095779</v>
+        <v>38.39564404941334</v>
       </c>
       <c r="G15">
-        <v>24.60923594632989</v>
+        <v>24.64939877210366</v>
       </c>
       <c r="H15">
-        <v>17.63423133963188</v>
+        <v>24.6004082812995</v>
       </c>
       <c r="I15">
-        <v>41.2914555106873</v>
+        <v>17.6178223718129</v>
       </c>
       <c r="J15">
-        <v>24.97689668937434</v>
+        <v>41.29011531551223</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>24.97438503104272</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.13100559917532</v>
+        <v>26.13003282135182</v>
       </c>
       <c r="C16">
-        <v>21.7318092283639</v>
+        <v>21.72687673943286</v>
       </c>
       <c r="D16">
-        <v>9.907708377278599</v>
+        <v>9.912254922654117</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>36.96021352536675</v>
+        <v>36.93733171523107</v>
       </c>
       <c r="G16">
-        <v>23.82416422902177</v>
+        <v>23.70617158547632</v>
       </c>
       <c r="H16">
-        <v>17.28006200838183</v>
+        <v>23.86200865484264</v>
       </c>
       <c r="I16">
-        <v>39.55727122146494</v>
+        <v>17.26437137110524</v>
       </c>
       <c r="J16">
-        <v>24.12617117974126</v>
+        <v>39.55616330109879</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>24.12387688065972</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.55101105398793</v>
+        <v>25.55013577317696</v>
       </c>
       <c r="C17">
-        <v>21.23231208206633</v>
+        <v>21.2275716098386</v>
       </c>
       <c r="D17">
-        <v>9.689477596875955</v>
+        <v>9.693922624042274</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>36.0663386971193</v>
+        <v>36.04398384747918</v>
       </c>
       <c r="G17">
-        <v>23.37996314156475</v>
+        <v>23.12927464359169</v>
       </c>
       <c r="H17">
-        <v>17.07459184782491</v>
+        <v>23.41708282512181</v>
       </c>
       <c r="I17">
-        <v>38.49507981257449</v>
+        <v>17.05934562957061</v>
       </c>
       <c r="J17">
-        <v>23.5961653689153</v>
+        <v>38.49409964108598</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>23.59400048762109</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.21371615653102</v>
+        <v>25.21289546322694</v>
       </c>
       <c r="C18">
-        <v>20.94241669895534</v>
+        <v>20.93778550729898</v>
       </c>
       <c r="D18">
-        <v>9.563423789808992</v>
+        <v>9.567808577154308</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>35.55230809854228</v>
+        <v>35.53025529111456</v>
       </c>
       <c r="G18">
-        <v>23.12724277960789</v>
+        <v>22.80614325427247</v>
       </c>
       <c r="H18">
-        <v>16.96054157367181</v>
+        <v>23.16395197128072</v>
       </c>
       <c r="I18">
-        <v>37.88386505269917</v>
+        <v>16.9455524102129</v>
       </c>
       <c r="J18">
-        <v>23.28819612355558</v>
+        <v>37.88295377566234</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>23.28610447888445</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.09886637975295</v>
+        <v>25.0980639321229</v>
       </c>
       <c r="C19">
-        <v>20.84380214421644</v>
+        <v>20.83920777821453</v>
       </c>
       <c r="D19">
-        <v>9.520641549369936</v>
+        <v>9.525005630569432</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>35.3782528780927</v>
+        <v>35.35630220691144</v>
       </c>
       <c r="G19">
-        <v>23.04213701553656</v>
+        <v>22.70186519770737</v>
       </c>
       <c r="H19">
-        <v>16.92261712832542</v>
+        <v>23.07870830791552</v>
       </c>
       <c r="I19">
-        <v>37.67679562771607</v>
+        <v>16.90771524792596</v>
       </c>
       <c r="J19">
-        <v>23.18337403587775</v>
+        <v>37.67590695866902</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>23.18130700235927</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.61313210178289</v>
+        <v>25.6122466011641</v>
       </c>
       <c r="C20">
-        <v>21.28574968689076</v>
+        <v>21.28098890049424</v>
       </c>
       <c r="D20">
-        <v>9.71276113514763</v>
+        <v>9.717217162393599</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>36.16147499261936</v>
+        <v>36.13906416833063</v>
       </c>
       <c r="G20">
-        <v>23.42695844950637</v>
+        <v>23.19063859589191</v>
       </c>
       <c r="H20">
-        <v>17.09603253628129</v>
+        <v>23.46415462323356</v>
       </c>
       <c r="I20">
-        <v>38.60816132114154</v>
+        <v>17.0807388608501</v>
       </c>
       <c r="J20">
-        <v>23.65290568398179</v>
+        <v>38.60716804184726</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>23.65072715530863</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.29782653971514</v>
+        <v>27.29664258961143</v>
       </c>
       <c r="C21">
-        <v>22.74079506793586</v>
+        <v>22.73545918387168</v>
       </c>
       <c r="D21">
-        <v>10.35280871320498</v>
+        <v>10.35755086752924</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>38.7968627029131</v>
+        <v>38.77288899044591</v>
       </c>
       <c r="G21">
-        <v>24.85312281570519</v>
+        <v>24.89366821370915</v>
       </c>
       <c r="H21">
-        <v>17.72949943674885</v>
+        <v>24.7937110152224</v>
       </c>
       <c r="I21">
-        <v>41.74050882564714</v>
+        <v>17.71290608143133</v>
       </c>
       <c r="J21">
-        <v>25.19415564290253</v>
+        <v>41.73910330953154</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>25.191586434094</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.36920656915234</v>
+        <v>28.36780899606141</v>
       </c>
       <c r="C22">
-        <v>23.67252322433906</v>
+        <v>23.66679429355614</v>
       </c>
       <c r="D22">
-        <v>10.76944123285948</v>
+        <v>10.77435140519469</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>40.52902522211692</v>
+        <v>40.50400636803644</v>
       </c>
       <c r="G22">
-        <v>25.97348971526652</v>
+        <v>26.01579627213557</v>
       </c>
       <c r="H22">
-        <v>18.18497718943744</v>
+        <v>25.82537538184521</v>
       </c>
       <c r="I22">
-        <v>43.8061440070559</v>
+        <v>18.16754498234755</v>
       </c>
       <c r="J22">
-        <v>26.17692304914389</v>
+        <v>43.80440758970743</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>26.17408211509619</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.79992534724013</v>
+        <v>27.79864379384497</v>
       </c>
       <c r="C23">
-        <v>23.17678402130319</v>
+        <v>23.17126683502522</v>
       </c>
       <c r="D23">
-        <v>10.54705151242484</v>
+        <v>10.55187391076366</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>39.60312165257914</v>
+        <v>39.57866362451688</v>
       </c>
       <c r="G23">
-        <v>25.37438112276276</v>
+        <v>25.41574530767869</v>
       </c>
       <c r="H23">
-        <v>17.93783043491108</v>
+        <v>25.25881809704521</v>
       </c>
       <c r="I23">
-        <v>42.70078883419481</v>
+        <v>17.92084516624096</v>
       </c>
       <c r="J23">
-        <v>25.6544628186617</v>
+        <v>42.69923592428299</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>25.65176873762094</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.58505919600752</v>
+        <v>25.5841783202739</v>
       </c>
       <c r="C24">
-        <v>21.26159908193839</v>
+        <v>21.25684748297494</v>
       </c>
       <c r="D24">
-        <v>9.702236515578603</v>
+        <v>9.706687575508134</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>36.11846436514062</v>
+        <v>36.09607884969881</v>
       </c>
       <c r="G24">
-        <v>23.4057036383532</v>
+        <v>23.16289517502076</v>
       </c>
       <c r="H24">
-        <v>17.08632654967489</v>
+        <v>23.44286521166883</v>
       </c>
       <c r="I24">
-        <v>38.55703908182365</v>
+        <v>17.07105432478449</v>
       </c>
       <c r="J24">
-        <v>23.62726358087711</v>
+        <v>38.556051742546</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>23.62509122576355</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.05346670808495</v>
+        <v>23.05296253119663</v>
       </c>
       <c r="C25">
-        <v>19.09514359791576</v>
+        <v>19.09117526636576</v>
       </c>
       <c r="D25">
-        <v>8.769794542582479</v>
+        <v>8.773774516961353</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>32.69094696862281</v>
+        <v>32.67109700861329</v>
       </c>
       <c r="G25">
-        <v>21.60832653160703</v>
+        <v>20.91270735514081</v>
       </c>
       <c r="H25">
-        <v>16.32389542123832</v>
+        <v>21.64260773632686</v>
       </c>
       <c r="I25">
-        <v>34.07108008486617</v>
+        <v>16.31052417385746</v>
       </c>
       <c r="J25">
-        <v>21.32007542280608</v>
+        <v>34.07053117126269</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>21.31842154776376</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_23/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.05316517610765</v>
+        <v>18.53243832203811</v>
       </c>
       <c r="C2">
-        <v>17.39437462961089</v>
+        <v>9.593972664344049</v>
       </c>
       <c r="D2">
-        <v>8.057673829319619</v>
+        <v>6.384933304910369</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.23842605673219</v>
+        <v>68.09243129819014</v>
       </c>
       <c r="G2">
-        <v>19.29286553116706</v>
+        <v>2.168826703441441</v>
       </c>
       <c r="H2">
-        <v>20.39351164823601</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>15.86416649134274</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>30.67625216645881</v>
+        <v>7.225992489584954</v>
       </c>
       <c r="K2">
-        <v>19.50313197052919</v>
+        <v>14.67581716811706</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.673824268803454</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>11.66504054440601</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.60769752838193</v>
+        <v>17.62836359553892</v>
       </c>
       <c r="C3">
-        <v>16.17465145514642</v>
+        <v>8.883822381825651</v>
       </c>
       <c r="D3">
-        <v>7.550535770292657</v>
+        <v>6.040394257857779</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28.60562317845971</v>
+        <v>65.15768284756145</v>
       </c>
       <c r="G3">
-        <v>18.20758950799803</v>
+        <v>2.181897877351454</v>
       </c>
       <c r="H3">
-        <v>19.59081111965269</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>15.62333343123218</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>28.29089976447363</v>
+        <v>7.190372307600258</v>
       </c>
       <c r="K3">
-        <v>18.19497680856704</v>
+        <v>13.95995675698978</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.731074098818704</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>11.47095214887433</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.67422481306817</v>
+        <v>17.07410352239023</v>
       </c>
       <c r="C4">
-        <v>15.38967979085688</v>
+        <v>8.428759936001821</v>
       </c>
       <c r="D4">
-        <v>7.22756464443349</v>
+        <v>5.822562990305958</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.61096694120135</v>
+        <v>63.33055165504944</v>
       </c>
       <c r="G4">
-        <v>17.54753405047413</v>
+        <v>2.190075450934943</v>
       </c>
       <c r="H4">
-        <v>19.11888082618416</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>15.5029489274025</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>26.77712122449215</v>
+        <v>7.169186926042864</v>
       </c>
       <c r="K4">
-        <v>17.35202173576218</v>
+        <v>13.5221990536767</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.769529577044097</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>11.36260508464821</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.28208125410288</v>
+        <v>16.84869972033883</v>
       </c>
       <c r="C5">
-        <v>15.06051854720144</v>
+        <v>8.238390178485261</v>
       </c>
       <c r="D5">
-        <v>7.092950056315998</v>
+        <v>5.732230033411481</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.207785349923</v>
+        <v>62.58004610344119</v>
       </c>
       <c r="G5">
-        <v>17.28026513085845</v>
+        <v>2.19344999221336</v>
       </c>
       <c r="H5">
-        <v>18.93176810808704</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>15.46037264817001</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>26.14696297067473</v>
+        <v>7.160708102812841</v>
       </c>
       <c r="K5">
-        <v>16.99835524125514</v>
+        <v>13.34445215920946</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.786013697085819</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11.32111838228319</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.21625147995756</v>
+        <v>16.81130782897817</v>
       </c>
       <c r="C6">
-        <v>15.00529539377196</v>
+        <v>8.206477794583543</v>
       </c>
       <c r="D6">
-        <v>7.070414115080342</v>
+        <v>5.717136535614173</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27.14097424341562</v>
+        <v>62.45508089456533</v>
       </c>
       <c r="G6">
-        <v>17.23599366717503</v>
+        <v>2.194012984328741</v>
       </c>
       <c r="H6">
-        <v>18.90101101335215</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>15.45368177154008</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>26.04149887293319</v>
+        <v>7.159309028242096</v>
       </c>
       <c r="K6">
-        <v>16.93901160634858</v>
+        <v>13.31498278359305</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.788799508753391</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>11.31438886613524</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.6689840251999</v>
+        <v>17.07106140853154</v>
       </c>
       <c r="C7">
-        <v>15.38527844079809</v>
+        <v>8.426212678390019</v>
       </c>
       <c r="D7">
-        <v>7.22576143238424</v>
+        <v>5.821351033761622</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.60552048722566</v>
+        <v>63.32045348462763</v>
       </c>
       <c r="G7">
-        <v>17.54392242781228</v>
+        <v>2.19012078570855</v>
       </c>
       <c r="H7">
-        <v>19.11633635806404</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>15.50234905430664</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>26.76867759436715</v>
+        <v>7.169071975215842</v>
       </c>
       <c r="K7">
-        <v>17.34729337956785</v>
+        <v>13.51979900448247</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.769748616907446</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>11.36203486289947</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.5641829005345</v>
+        <v>18.22066923865355</v>
       </c>
       <c r="C8">
-        <v>16.98116205693605</v>
+        <v>9.352971817667481</v>
       </c>
       <c r="D8">
-        <v>7.885155343160914</v>
+        <v>6.267444307983442</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>29.67385650129108</v>
+        <v>67.08595421244011</v>
       </c>
       <c r="G8">
-        <v>18.91740003402733</v>
+        <v>2.173304619228264</v>
       </c>
       <c r="H8">
-        <v>20.11235131864094</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>15.77516242605372</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>29.86339329559906</v>
+        <v>7.213557024260651</v>
       </c>
       <c r="K8">
-        <v>19.06022248074443</v>
+        <v>14.42872064690935</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.692867123012061</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>11.59583875745679</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.92595117689737</v>
+        <v>20.47406714333045</v>
       </c>
       <c r="C9">
-        <v>19.83565498403213</v>
+        <v>11.02653267147509</v>
       </c>
       <c r="D9">
-        <v>9.091970871110581</v>
+        <v>7.092579899690995</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>33.79289140563145</v>
+        <v>74.26023998259133</v>
       </c>
       <c r="G9">
-        <v>21.66052651823421</v>
+        <v>2.141333853536974</v>
       </c>
       <c r="H9">
-        <v>22.23645132458533</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>16.54778067304018</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>35.59137004377165</v>
+        <v>7.307137890459886</v>
       </c>
       <c r="K9">
-        <v>22.11282156142445</v>
+        <v>16.25547124150781</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.569216993970731</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>12.14278984049575</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.19571182245081</v>
+        <v>22.12393621727755</v>
       </c>
       <c r="C10">
-        <v>21.78351053094492</v>
+        <v>12.17965888244659</v>
       </c>
       <c r="D10">
-        <v>9.937104562419499</v>
+        <v>7.670074607738818</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>37.03930794938677</v>
+        <v>79.40160763124865</v>
       </c>
       <c r="G10">
-        <v>23.77207130552696</v>
+        <v>2.118142256894536</v>
       </c>
       <c r="H10">
-        <v>23.91316678187838</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>17.28834068606255</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>39.67737621936156</v>
+        <v>7.38119498738773</v>
       </c>
       <c r="K10">
-        <v>24.18392592603023</v>
+        <v>17.95130039519534</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.496343211331949</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>12.6025193376073</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.18928272422178</v>
+        <v>22.87377304185884</v>
       </c>
       <c r="C11">
-        <v>22.6424015253025</v>
+        <v>12.69057877660898</v>
       </c>
       <c r="D11">
-        <v>10.3162124675437</v>
+        <v>7.927248075892678</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>38.60181377300932</v>
+        <v>81.71564942506032</v>
       </c>
       <c r="G11">
-        <v>24.78288270676634</v>
+        <v>2.107572919329462</v>
       </c>
       <c r="H11">
-        <v>24.70593893388898</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>17.6696052387301</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>41.53545924764703</v>
+        <v>7.416415169118267</v>
       </c>
       <c r="K11">
-        <v>25.0932289514855</v>
+        <v>18.70227843792853</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.467479094837134</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>12.82529674745633</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.56038366542943</v>
+        <v>23.19728743591358</v>
       </c>
       <c r="C12">
-        <v>22.96428181254124</v>
+        <v>12.88237595881422</v>
       </c>
       <c r="D12">
-        <v>10.45942944182847</v>
+        <v>8.02392040346391</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>39.19502187575821</v>
+        <v>82.58887345093468</v>
       </c>
       <c r="G12">
-        <v>25.16712216459449</v>
+        <v>2.103559565510541</v>
       </c>
       <c r="H12">
-        <v>25.02450408931057</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>17.82102812792809</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>42.24188560460578</v>
+        <v>7.430009613187394</v>
       </c>
       <c r="K12">
-        <v>25.43329978369304</v>
+        <v>18.98404028091353</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.457203820696068</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>12.91172989567357</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.48068076996286</v>
+        <v>23.12685856027051</v>
       </c>
       <c r="C13">
-        <v>22.89509857359957</v>
+        <v>12.84113858852365</v>
       </c>
       <c r="D13">
-        <v>10.42859212403542</v>
+        <v>8.00313049006532</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>39.0671722483232</v>
+        <v>82.40093432317485</v>
       </c>
       <c r="G13">
-        <v>25.08428941895126</v>
+        <v>2.104424545529904</v>
       </c>
       <c r="H13">
-        <v>24.94649694807103</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>17.78809117933132</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>42.08956366770357</v>
+        <v>7.427069707654926</v>
       </c>
       <c r="K13">
-        <v>25.36024049130028</v>
+        <v>18.92346837585848</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.45938697862188</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>12.89302077949881</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.21991350498686</v>
+        <v>22.89713546857137</v>
       </c>
       <c r="C14">
-        <v>22.66894660974146</v>
+        <v>12.70638987114662</v>
       </c>
       <c r="D14">
-        <v>10.32799897141183</v>
+        <v>7.93521512266593</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>38.65057838010019</v>
+        <v>81.7875475703995</v>
       </c>
       <c r="G14">
-        <v>24.81445972883737</v>
+        <v>2.107243009772199</v>
       </c>
       <c r="H14">
-        <v>24.73093933695499</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>17.68191742352419</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>41.59350140590004</v>
+        <v>7.417528201543259</v>
       </c>
       <c r="K14">
-        <v>25.12128917821748</v>
+        <v>18.72550952128506</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.466620373956336</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>12.83236540291255</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.05953159195503</v>
+        <v>22.77496980206941</v>
       </c>
       <c r="C15">
-        <v>22.53000247890562</v>
+        <v>12.62364317362446</v>
       </c>
       <c r="D15">
-        <v>10.26635298701906</v>
+        <v>7.893524858687566</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>38.39564404941334</v>
+        <v>81.41145176083593</v>
       </c>
       <c r="G15">
-        <v>24.64939877210366</v>
+        <v>2.108967706257513</v>
       </c>
       <c r="H15">
-        <v>24.6004082812995</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>17.6178223718129</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>41.29011531551223</v>
+        <v>7.411718465761943</v>
       </c>
       <c r="K15">
-        <v>24.97438503104272</v>
+        <v>18.60392388217998</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.471137574508577</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>12.79548579315341</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.13003282135182</v>
+        <v>22.07492936095704</v>
       </c>
       <c r="C16">
-        <v>21.72687673943286</v>
+        <v>12.14601791823939</v>
       </c>
       <c r="D16">
-        <v>9.912254922654117</v>
+        <v>7.653162901916104</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>36.93733171523107</v>
+        <v>79.24991950526629</v>
       </c>
       <c r="G16">
-        <v>23.70617158547632</v>
+        <v>2.118831926530826</v>
       </c>
       <c r="H16">
-        <v>23.86200865484264</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>17.26437137110524</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>39.55616330109879</v>
+        <v>7.378927124616433</v>
       </c>
       <c r="K16">
-        <v>24.12387688065972</v>
+        <v>17.90183686599879</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.498318969041124</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>12.58824372912034</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.55013577317696</v>
+        <v>21.64537694329474</v>
       </c>
       <c r="C17">
-        <v>21.2275716098386</v>
+        <v>11.84970564882604</v>
       </c>
       <c r="D17">
-        <v>9.693922624042274</v>
+        <v>7.504343260805153</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>36.04398384747918</v>
+        <v>77.91783643964557</v>
       </c>
       <c r="G17">
-        <v>23.12927464359169</v>
+        <v>2.124872903134104</v>
       </c>
       <c r="H17">
-        <v>23.41708282512181</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>17.05934562957061</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>38.49409964108598</v>
+        <v>7.35922757602962</v>
       </c>
       <c r="K17">
-        <v>23.59400048762109</v>
+        <v>17.46610068591108</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.516117404148308</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>12.46467299625961</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.21289546322694</v>
+        <v>21.39822966848591</v>
       </c>
       <c r="C18">
-        <v>20.93778550729898</v>
+        <v>11.6779712073164</v>
       </c>
       <c r="D18">
-        <v>9.567808577154308</v>
+        <v>7.418219316420855</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>35.53025529111456</v>
+        <v>77.14928075680854</v>
       </c>
       <c r="G18">
-        <v>22.80614325427247</v>
+        <v>2.128346248378952</v>
       </c>
       <c r="H18">
-        <v>23.16395197128072</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>16.9455524102129</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>37.88295377566234</v>
+        <v>7.348038516719284</v>
       </c>
       <c r="K18">
-        <v>23.28610447888445</v>
+        <v>17.21352775028659</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.526755438064928</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>12.39487479540422</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.0980639321229</v>
+        <v>21.31453300392936</v>
       </c>
       <c r="C19">
-        <v>20.83920777821453</v>
+        <v>11.61959300298187</v>
       </c>
       <c r="D19">
-        <v>9.525005630569432</v>
+        <v>7.38896660335792</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>35.35630220691144</v>
+        <v>76.88864069602189</v>
       </c>
       <c r="G19">
-        <v>22.70186519770737</v>
+        <v>2.12952227576065</v>
       </c>
       <c r="H19">
-        <v>23.07870830791552</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>16.90771524792596</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>37.67590695866902</v>
+        <v>7.344273371998551</v>
       </c>
       <c r="K19">
-        <v>23.18130700235927</v>
+        <v>17.12766721807764</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.530425057088702</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>12.37145858050667</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.6122466011641</v>
+        <v>21.69111102339171</v>
       </c>
       <c r="C20">
-        <v>21.28098890049424</v>
+        <v>11.88138157031514</v>
       </c>
       <c r="D20">
-        <v>9.717217162393599</v>
+        <v>7.520239366099676</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>36.13906416833063</v>
+        <v>78.05988191810907</v>
       </c>
       <c r="G20">
-        <v>23.19063859589191</v>
+        <v>2.124230017113649</v>
       </c>
       <c r="H20">
-        <v>23.46415462323356</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>17.0807388608501</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>38.60716804184726</v>
+        <v>7.361309720456361</v>
       </c>
       <c r="K20">
-        <v>23.65072715530863</v>
+        <v>17.51268509829992</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.514180983567865</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>12.47769448721182</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.29664258961143</v>
+        <v>22.96444899429226</v>
       </c>
       <c r="C21">
-        <v>22.73545918387168</v>
+        <v>12.7460118654391</v>
       </c>
       <c r="D21">
-        <v>10.35755086752924</v>
+        <v>7.955182120098016</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>38.77288899044591</v>
+        <v>81.96779182470308</v>
       </c>
       <c r="G21">
-        <v>24.89366821370915</v>
+        <v>2.106415528060807</v>
       </c>
       <c r="H21">
-        <v>24.7937110152224</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>17.71290608143133</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>41.73910330953154</v>
+        <v>7.420323464515609</v>
       </c>
       <c r="K21">
-        <v>25.191586434094</v>
+        <v>18.7837229629123</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.464477638861321</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>12.85012411398746</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.36780899606141</v>
+        <v>23.91382599609598</v>
       </c>
       <c r="C22">
-        <v>23.66679429355614</v>
+        <v>13.30148777799727</v>
       </c>
       <c r="D22">
-        <v>10.77435140519469</v>
+        <v>8.23533679814641</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>40.50400636803644</v>
+        <v>84.50443982988747</v>
       </c>
       <c r="G22">
-        <v>26.01579627213557</v>
+        <v>2.094703973869913</v>
       </c>
       <c r="H22">
-        <v>25.82537538184521</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>18.16754498234755</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>43.80440758970743</v>
+        <v>7.460413921823418</v>
       </c>
       <c r="K22">
-        <v>26.17408211509619</v>
+        <v>19.59936228665472</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5.435833491411331</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>13.10567767814177</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.79864379384497</v>
+        <v>23.40815394025148</v>
       </c>
       <c r="C23">
-        <v>23.17126683502522</v>
+        <v>13.00579320613943</v>
       </c>
       <c r="D23">
-        <v>10.55187391076366</v>
+        <v>8.086155716466889</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>39.57866362451688</v>
+        <v>83.1519471395528</v>
       </c>
       <c r="G23">
-        <v>25.41574530767869</v>
+        <v>2.100963998749262</v>
       </c>
       <c r="H23">
-        <v>25.25881809704521</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>17.92084516624096</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>42.69923592428299</v>
+        <v>7.438863815001238</v>
       </c>
       <c r="K23">
-        <v>25.65176873762094</v>
+        <v>19.16529366768677</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5.45075572799265</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>12.96812883600481</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.5841783202739</v>
+        <v>21.67043525354235</v>
       </c>
       <c r="C24">
-        <v>21.25684748297494</v>
+        <v>11.86706520725599</v>
       </c>
       <c r="D24">
-        <v>9.706687575508134</v>
+        <v>7.513054504321238</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>36.09607884969881</v>
+        <v>77.99567167577892</v>
       </c>
       <c r="G24">
-        <v>23.16289517502076</v>
+        <v>2.124520664326502</v>
       </c>
       <c r="H24">
-        <v>23.44286521166883</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>17.07105432478449</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>38.556051742546</v>
+        <v>7.360367960596963</v>
       </c>
       <c r="K24">
-        <v>23.62509122576355</v>
+        <v>17.4916307331012</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.515055179189498</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>12.47180360353707</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.05296253119663</v>
+        <v>19.86536752475516</v>
       </c>
       <c r="C25">
-        <v>19.09117526636576</v>
+        <v>10.58810710914016</v>
       </c>
       <c r="D25">
-        <v>8.773774516961353</v>
+        <v>6.874578692454554</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>32.67109700861329</v>
+        <v>72.34264820156285</v>
       </c>
       <c r="G25">
-        <v>20.91270735514081</v>
+        <v>2.149905290523086</v>
       </c>
       <c r="H25">
-        <v>21.64260773632686</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>16.31052417385746</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>34.07053117126269</v>
+        <v>7.281005184633655</v>
       </c>
       <c r="K25">
-        <v>21.31842154776376</v>
+        <v>15.73464933841932</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.599628026454819</v>
       </c>
       <c r="M25">
+        <v>11.98497276981182</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_23/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.53243832203811</v>
+        <v>12.3961147734505</v>
       </c>
       <c r="C2">
-        <v>9.593972664344049</v>
+        <v>7.169704299427222</v>
       </c>
       <c r="D2">
-        <v>6.384933304910369</v>
+        <v>6.346221374363569</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>68.09243129819014</v>
+        <v>21.04213030483741</v>
       </c>
       <c r="G2">
-        <v>2.168826703441441</v>
+        <v>22.82073016724123</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>9.364576115881054</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>15.29776930833006</v>
       </c>
       <c r="J2">
-        <v>7.225992489584954</v>
+        <v>6.281608013511258</v>
       </c>
       <c r="K2">
-        <v>14.67581716811706</v>
+        <v>10.42228525646103</v>
       </c>
       <c r="L2">
-        <v>5.673824268803454</v>
+        <v>7.035064534127383</v>
       </c>
       <c r="M2">
-        <v>11.66504054440601</v>
+        <v>9.84999411782958</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>13.09347908050484</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>15.20179361652076</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.62836359553892</v>
+        <v>11.57017420703172</v>
       </c>
       <c r="C3">
-        <v>8.883822381825651</v>
+        <v>7.112137384304015</v>
       </c>
       <c r="D3">
-        <v>6.040394257857779</v>
+        <v>6.193875548540093</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>65.15768284756145</v>
+        <v>20.97797574543319</v>
       </c>
       <c r="G3">
-        <v>2.181897877351454</v>
+        <v>22.73984098101711</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>9.43247539584597</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>15.44240440150706</v>
       </c>
       <c r="J3">
-        <v>7.190372307600258</v>
+        <v>6.327468397360385</v>
       </c>
       <c r="K3">
-        <v>13.95995675698978</v>
+        <v>9.857238002779878</v>
       </c>
       <c r="L3">
-        <v>5.731074098818704</v>
+        <v>6.956363104814538</v>
       </c>
       <c r="M3">
-        <v>11.47095214887433</v>
+        <v>9.547625253162808</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>13.2537069659172</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>15.27025571505726</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.07410352239023</v>
+        <v>11.04309922023478</v>
       </c>
       <c r="C4">
-        <v>8.428759936001821</v>
+        <v>7.076877248159705</v>
       </c>
       <c r="D4">
-        <v>5.822562990305958</v>
+        <v>6.100717720046899</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>63.33055165504944</v>
+        <v>20.95212195451458</v>
       </c>
       <c r="G4">
-        <v>2.190075450934943</v>
+        <v>22.7093600475959</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>9.478233972574001</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>15.53911094235735</v>
       </c>
       <c r="J4">
-        <v>7.169186926042864</v>
+        <v>6.356785889315929</v>
       </c>
       <c r="K4">
-        <v>13.5221990536767</v>
+        <v>9.492461534354652</v>
       </c>
       <c r="L4">
-        <v>5.769529577044097</v>
+        <v>6.909937247309219</v>
       </c>
       <c r="M4">
-        <v>11.36260508464821</v>
+        <v>9.359750190142842</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>13.35472797029008</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>15.32143551405747</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.84869972033883</v>
+        <v>10.83480102694843</v>
       </c>
       <c r="C5">
-        <v>8.238390178485261</v>
+        <v>7.062534717204509</v>
       </c>
       <c r="D5">
-        <v>5.732230033411481</v>
+        <v>6.062904873641042</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>62.58004610344119</v>
+        <v>20.94491566316226</v>
       </c>
       <c r="G5">
-        <v>2.19344999221336</v>
+        <v>22.7016276355274</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>9.497881291319048</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>15.58045470416309</v>
       </c>
       <c r="J5">
-        <v>7.160708102812841</v>
+        <v>6.369025825511196</v>
       </c>
       <c r="K5">
-        <v>13.34445215920946</v>
+        <v>9.339394702021107</v>
       </c>
       <c r="L5">
-        <v>5.786013697085819</v>
+        <v>6.89150855913739</v>
       </c>
       <c r="M5">
-        <v>11.32111838228319</v>
+        <v>9.282744478394381</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>13.39656940068065</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>15.3445218082268</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.81130782897817</v>
+        <v>10.79984015395685</v>
       </c>
       <c r="C6">
-        <v>8.206477794583543</v>
+        <v>7.060154871271229</v>
       </c>
       <c r="D6">
-        <v>5.717136535614173</v>
+        <v>6.056636707013153</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>62.45508089456533</v>
+        <v>20.9439178768512</v>
       </c>
       <c r="G6">
-        <v>2.194012984328741</v>
+        <v>22.70062275023774</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>9.501203489224897</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>15.58743522604455</v>
       </c>
       <c r="J6">
-        <v>7.159309028242096</v>
+        <v>6.371075983649202</v>
       </c>
       <c r="K6">
-        <v>13.31498278359305</v>
+        <v>9.313713562289109</v>
       </c>
       <c r="L6">
-        <v>5.788799508753391</v>
+        <v>6.888478463449026</v>
       </c>
       <c r="M6">
-        <v>11.31438886613524</v>
+        <v>9.269934305388851</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>13.40355818436831</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>15.34848796619645</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.07106140853154</v>
+        <v>11.04031511993478</v>
       </c>
       <c r="C7">
-        <v>8.426212678390019</v>
+        <v>7.076683707372311</v>
       </c>
       <c r="D7">
-        <v>5.821351033761622</v>
+        <v>6.100207085053367</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>63.32045348462763</v>
+        <v>20.95201138953944</v>
       </c>
       <c r="G7">
-        <v>2.19012078570855</v>
+        <v>22.7092369656375</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>9.478494922017417</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>15.53966074971333</v>
       </c>
       <c r="J7">
-        <v>7.169071975215842</v>
+        <v>6.356949773920572</v>
       </c>
       <c r="K7">
-        <v>13.51979900448247</v>
+        <v>9.490415006662705</v>
       </c>
       <c r="L7">
-        <v>5.769748616907446</v>
+        <v>6.909686709982483</v>
       </c>
       <c r="M7">
-        <v>11.36203486289947</v>
+        <v>9.358713311497894</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>13.3552895133767</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>15.32173792464782</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.22066923865355</v>
+        <v>12.11772221204374</v>
       </c>
       <c r="C8">
-        <v>9.352971817667481</v>
+        <v>7.149840075208193</v>
       </c>
       <c r="D8">
-        <v>6.267444307983442</v>
+        <v>6.293644597178168</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>67.08595421244011</v>
+        <v>21.01715656330456</v>
       </c>
       <c r="G8">
-        <v>2.173304619228264</v>
+        <v>22.78877875002421</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>9.387129495638828</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>15.34596801662119</v>
       </c>
       <c r="J8">
-        <v>7.213557024260651</v>
+        <v>6.297180944063839</v>
       </c>
       <c r="K8">
-        <v>14.42872064690935</v>
+        <v>10.23119412857734</v>
       </c>
       <c r="L8">
-        <v>5.692867123012061</v>
+        <v>7.007542716571932</v>
       </c>
       <c r="M8">
-        <v>11.59583875745679</v>
+        <v>9.746263332104043</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>13.14818411429592</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>15.22345954560169</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.47406714333045</v>
+        <v>14.00889728788139</v>
       </c>
       <c r="C9">
-        <v>11.02653267147509</v>
+        <v>7.293788764954022</v>
       </c>
       <c r="D9">
-        <v>7.092579899690995</v>
+        <v>6.673755890705603</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>74.26023998259133</v>
+        <v>21.25542525138054</v>
       </c>
       <c r="G9">
-        <v>2.141333853536974</v>
+        <v>23.10258430186186</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>9.241311142398811</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>15.03127317083394</v>
       </c>
       <c r="J9">
-        <v>7.307137890459886</v>
+        <v>6.189107965764893</v>
       </c>
       <c r="K9">
-        <v>16.25547124150781</v>
+        <v>11.54015622377179</v>
       </c>
       <c r="L9">
-        <v>5.569216993970731</v>
+        <v>7.213872888040662</v>
       </c>
       <c r="M9">
-        <v>12.14278984049575</v>
+        <v>10.48408524152114</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>12.76250236321816</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>15.1064463726467</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.12393621727755</v>
+        <v>15.25205952781712</v>
       </c>
       <c r="C10">
-        <v>12.17965888244659</v>
+        <v>7.39959957466681</v>
       </c>
       <c r="D10">
-        <v>7.670074607738818</v>
+        <v>6.950637811756041</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>79.40160763124865</v>
+        <v>21.50174834023503</v>
       </c>
       <c r="G10">
-        <v>2.118142256894536</v>
+        <v>23.43627946758278</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.156066349025053</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>14.84337793824068</v>
       </c>
       <c r="J10">
-        <v>7.38119498738773</v>
+        <v>6.115186732051533</v>
       </c>
       <c r="K10">
-        <v>17.95130039519534</v>
+        <v>12.41220621553976</v>
       </c>
       <c r="L10">
-        <v>5.496343211331949</v>
+        <v>7.373395393624986</v>
       </c>
       <c r="M10">
-        <v>12.6025193376073</v>
+        <v>11.00716510676824</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>12.4908855914002</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.07104179670111</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.87377304185884</v>
+        <v>15.78632411293334</v>
       </c>
       <c r="C11">
-        <v>12.69057877660898</v>
+        <v>7.447698026342538</v>
       </c>
       <c r="D11">
-        <v>7.927248075892678</v>
+        <v>7.075530643101753</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>81.71564942506032</v>
+        <v>21.63000391181559</v>
       </c>
       <c r="G11">
-        <v>2.107572919329462</v>
+        <v>23.61173999326355</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>9.122402726075258</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>14.76815507952482</v>
       </c>
       <c r="J11">
-        <v>7.416415169118267</v>
+        <v>6.082729490601632</v>
       </c>
       <c r="K11">
-        <v>18.70227843792853</v>
+        <v>12.78923214186482</v>
       </c>
       <c r="L11">
-        <v>5.467479094837134</v>
+        <v>7.447495920487028</v>
       </c>
       <c r="M11">
-        <v>12.82529674745633</v>
+        <v>11.24001872227961</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>12.36970635096903</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.06688207048425</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.19728743591358</v>
+        <v>15.98418055242682</v>
       </c>
       <c r="C12">
-        <v>12.88237595881422</v>
+        <v>7.465902593340504</v>
       </c>
       <c r="D12">
-        <v>8.02392040346391</v>
+        <v>7.122630013055329</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>82.58887345093468</v>
+        <v>21.68095165479039</v>
       </c>
       <c r="G12">
-        <v>2.103559565510541</v>
+        <v>23.68167139807365</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>9.110422818151024</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>14.74122021262473</v>
       </c>
       <c r="J12">
-        <v>7.430009613187394</v>
+        <v>6.07060564622785</v>
       </c>
       <c r="K12">
-        <v>18.98404028091353</v>
+        <v>12.92916351580951</v>
       </c>
       <c r="L12">
-        <v>5.457203820696068</v>
+        <v>7.475759825629</v>
       </c>
       <c r="M12">
-        <v>12.91172989567357</v>
+        <v>11.32739086052217</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>12.3241476866171</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.06710522286661</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.12685856027051</v>
+        <v>15.94176630815909</v>
       </c>
       <c r="C13">
-        <v>12.84113858852365</v>
+        <v>7.46198239003677</v>
       </c>
       <c r="D13">
-        <v>8.00313049006532</v>
+        <v>7.112495619876095</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>82.40093432317485</v>
+        <v>21.66987254488213</v>
       </c>
       <c r="G13">
-        <v>2.104424545529904</v>
+        <v>23.6664540265695</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>9.112968226923595</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>14.74695090415138</v>
       </c>
       <c r="J13">
-        <v>7.427069707654926</v>
+        <v>6.073209324338787</v>
       </c>
       <c r="K13">
-        <v>18.92346837585848</v>
+        <v>12.89915321614713</v>
       </c>
       <c r="L13">
-        <v>5.45938697862188</v>
+        <v>7.469663896532349</v>
       </c>
       <c r="M13">
-        <v>12.89302077949881</v>
+        <v>11.30861053349459</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>12.33394512762136</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.06697589291938</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.89713546857137</v>
+        <v>15.80269101383327</v>
       </c>
       <c r="C14">
-        <v>12.70638987114662</v>
+        <v>7.449195935799313</v>
       </c>
       <c r="D14">
-        <v>7.93521512266593</v>
+        <v>7.079409670247268</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>81.7875475703995</v>
+        <v>21.63414744247628</v>
       </c>
       <c r="G14">
-        <v>2.107243009772199</v>
+        <v>23.61742292886797</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>9.121401553657774</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>14.76590760761209</v>
       </c>
       <c r="J14">
-        <v>7.417528201543259</v>
+        <v>6.081728714390427</v>
       </c>
       <c r="K14">
-        <v>18.72550952128506</v>
+        <v>12.80080134193375</v>
       </c>
       <c r="L14">
-        <v>5.466620373956336</v>
+        <v>7.44981722329485</v>
       </c>
       <c r="M14">
-        <v>12.83236540291255</v>
+        <v>11.24722338242143</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>12.36595168919133</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.06686392453451</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.77496980206941</v>
+        <v>15.71692391797754</v>
       </c>
       <c r="C15">
-        <v>12.62364317362446</v>
+        <v>7.441362536526087</v>
       </c>
       <c r="D15">
-        <v>7.893524858687566</v>
+        <v>7.059117006976873</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>81.41145176083593</v>
+        <v>21.61257615252151</v>
       </c>
       <c r="G15">
-        <v>2.108967706257513</v>
+        <v>23.58784660492606</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>9.126668183276836</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>14.7777233790716</v>
       </c>
       <c r="J15">
-        <v>7.411718465761943</v>
+        <v>6.086968800626592</v>
       </c>
       <c r="K15">
-        <v>18.60392388217998</v>
+        <v>12.74018788763564</v>
       </c>
       <c r="L15">
-        <v>5.471137574508577</v>
+        <v>7.437686587379499</v>
       </c>
       <c r="M15">
-        <v>12.79548579315341</v>
+        <v>11.20951523932436</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>12.38559912014019</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.06703193852715</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.07492936095704</v>
+        <v>15.21651824662999</v>
       </c>
       <c r="C16">
-        <v>12.14601791823939</v>
+        <v>7.3964551514858</v>
       </c>
       <c r="D16">
-        <v>7.653162901916104</v>
+        <v>6.942450721238106</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>79.24991950526629</v>
+        <v>21.49369698604118</v>
       </c>
       <c r="G16">
-        <v>2.118831926530826</v>
+        <v>23.42529642762167</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>9.158371989335784</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>14.84850663620614</v>
       </c>
       <c r="J16">
-        <v>7.378927124616433</v>
+        <v>6.117331325216532</v>
       </c>
       <c r="K16">
-        <v>17.90183686599879</v>
+        <v>12.38716969779987</v>
       </c>
       <c r="L16">
-        <v>5.498318969041124</v>
+        <v>7.368582158654043</v>
       </c>
       <c r="M16">
-        <v>12.58824372912034</v>
+        <v>10.9918386945405</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>12.49885173860524</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>15.07156089922439</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.64537694329474</v>
+        <v>14.90155602732713</v>
       </c>
       <c r="C17">
-        <v>11.84970564882604</v>
+        <v>7.368893795104073</v>
       </c>
       <c r="D17">
-        <v>7.504343260805153</v>
+        <v>6.870576653976969</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>77.91783643964557</v>
+        <v>21.42495569299414</v>
       </c>
       <c r="G17">
-        <v>2.124872903134104</v>
+        <v>23.33170198336176</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>9.179153697482302</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>14.89460844296828</v>
       </c>
       <c r="J17">
-        <v>7.35922757602962</v>
+        <v>6.136256509209191</v>
       </c>
       <c r="K17">
-        <v>17.46610068591108</v>
+        <v>12.1655555006067</v>
       </c>
       <c r="L17">
-        <v>5.516117404148308</v>
+        <v>7.326569476874568</v>
       </c>
       <c r="M17">
-        <v>12.46467299625961</v>
+        <v>10.85694196810297</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>12.56892913860377</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>15.07745603052824</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.39822966848591</v>
+        <v>14.71745389015497</v>
       </c>
       <c r="C18">
-        <v>11.6779712073164</v>
+        <v>7.353038132908295</v>
       </c>
       <c r="D18">
-        <v>7.418219316420855</v>
+        <v>6.829138922329259</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>77.14928075680854</v>
+        <v>21.38693986363804</v>
       </c>
       <c r="G18">
-        <v>2.128346248378952</v>
+        <v>23.28009159723332</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>9.19158617125807</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>14.92208509222386</v>
       </c>
       <c r="J18">
-        <v>7.348038516719284</v>
+        <v>6.14725196182752</v>
       </c>
       <c r="K18">
-        <v>17.21352775028659</v>
+        <v>12.03623727178523</v>
       </c>
       <c r="L18">
-        <v>5.526755438064928</v>
+        <v>7.302550185854774</v>
       </c>
       <c r="M18">
-        <v>12.39487479540422</v>
+        <v>10.77887680651372</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>12.60946068500386</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>15.08196630681092</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.31453300392936</v>
+        <v>14.65461329320294</v>
       </c>
       <c r="C19">
-        <v>11.61959300298187</v>
+        <v>7.347669277671409</v>
       </c>
       <c r="D19">
-        <v>7.38896660335792</v>
+        <v>6.81509338254662</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>76.88864069602189</v>
+        <v>21.3743281995859</v>
       </c>
       <c r="G19">
-        <v>2.12952227576065</v>
+        <v>23.26299614970186</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>9.195876970690835</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>14.93155086050186</v>
       </c>
       <c r="J19">
-        <v>7.344273371998551</v>
+        <v>6.150993795740592</v>
       </c>
       <c r="K19">
-        <v>17.12766721807764</v>
+        <v>11.99213477228677</v>
       </c>
       <c r="L19">
-        <v>5.530425057088702</v>
+        <v>7.294443133984667</v>
       </c>
       <c r="M19">
-        <v>12.37145858050667</v>
+        <v>10.75236582198708</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>12.62322298357951</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>15.08368324909996</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.69111102339171</v>
+        <v>14.93538874289143</v>
       </c>
       <c r="C20">
-        <v>11.88138157031514</v>
+        <v>7.371828100430141</v>
       </c>
       <c r="D20">
-        <v>7.520239366099676</v>
+        <v>6.878238195420422</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>78.05988191810907</v>
+        <v>21.4321153826044</v>
       </c>
       <c r="G20">
-        <v>2.124230017113649</v>
+        <v>23.34143457663128</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>9.176891605933893</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>14.88960092075308</v>
       </c>
       <c r="J20">
-        <v>7.361309720456361</v>
+        <v>6.134230496061847</v>
       </c>
       <c r="K20">
-        <v>17.51268509829992</v>
+        <v>12.18933844498267</v>
       </c>
       <c r="L20">
-        <v>5.514180983567865</v>
+        <v>7.331026883386167</v>
       </c>
       <c r="M20">
-        <v>12.47769448721182</v>
+        <v>10.87135177674979</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>12.56144609864325</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>15.07671203279702</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.96444899429226</v>
+        <v>15.84366149228615</v>
       </c>
       <c r="C21">
-        <v>12.7460118654391</v>
+        <v>7.452951910922254</v>
       </c>
       <c r="D21">
-        <v>7.955182120098016</v>
+        <v>7.08913342180357</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>81.96779182470308</v>
+        <v>21.6445758001612</v>
       </c>
       <c r="G21">
-        <v>2.106415528060807</v>
+        <v>23.63172925000677</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>9.118903378453179</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>14.76029685811458</v>
       </c>
       <c r="J21">
-        <v>7.420323464515609</v>
+        <v>6.079221840003997</v>
       </c>
       <c r="K21">
-        <v>18.7837229629123</v>
+        <v>12.82976680910327</v>
       </c>
       <c r="L21">
-        <v>5.464477638861321</v>
+        <v>7.455641278558717</v>
       </c>
       <c r="M21">
-        <v>12.85012411398746</v>
+        <v>11.26527663699461</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>12.35654175570298</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.0668473611657</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.91382599609598</v>
+        <v>16.41130319761364</v>
       </c>
       <c r="C22">
-        <v>13.30148777799727</v>
+        <v>7.505915234727835</v>
       </c>
       <c r="D22">
-        <v>8.23533679814641</v>
+        <v>7.225812930349986</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>84.50443982988747</v>
+        <v>21.79732386985568</v>
       </c>
       <c r="G22">
-        <v>2.094703973869913</v>
+        <v>23.84181815563591</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>9.085496064134563</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>14.68486452688238</v>
       </c>
       <c r="J22">
-        <v>7.460413921823418</v>
+        <v>6.044243417996154</v>
       </c>
       <c r="K22">
-        <v>19.59936228665472</v>
+        <v>13.23176832254005</v>
       </c>
       <c r="L22">
-        <v>5.435833491411331</v>
+        <v>7.538263339578652</v>
       </c>
       <c r="M22">
-        <v>13.10567767814177</v>
+        <v>11.51801298967329</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>12.22453786608253</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.0709200894536</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.40815394025148</v>
+        <v>16.11070588040681</v>
       </c>
       <c r="C23">
-        <v>13.00579320613943</v>
+        <v>7.477654120555703</v>
       </c>
       <c r="D23">
-        <v>8.086155716466889</v>
+        <v>7.152982988293149</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>83.1519471395528</v>
+        <v>21.71451289414422</v>
       </c>
       <c r="G23">
-        <v>2.100963998749262</v>
+        <v>23.72780089526535</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>9.102904120165141</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>14.72426748069647</v>
       </c>
       <c r="J23">
-        <v>7.438863815001238</v>
+        <v>6.062823431906457</v>
       </c>
       <c r="K23">
-        <v>19.16529366768677</v>
+        <v>13.01872941655997</v>
       </c>
       <c r="L23">
-        <v>5.45075572799265</v>
+        <v>7.494063979540459</v>
       </c>
       <c r="M23">
-        <v>12.96812883600481</v>
+        <v>11.38357580541585</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>12.29482021853291</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.06775709361448</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.67043525354235</v>
+        <v>14.92010240077027</v>
       </c>
       <c r="C24">
-        <v>11.86706520725599</v>
+        <v>7.370501532663924</v>
       </c>
       <c r="D24">
-        <v>7.513054504321238</v>
+        <v>6.874774771776202</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>77.99567167577892</v>
+        <v>21.42887380476149</v>
       </c>
       <c r="G24">
-        <v>2.124520664326502</v>
+        <v>23.33702763061991</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>9.177912789925873</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>14.89186179937034</v>
       </c>
       <c r="J24">
-        <v>7.360367960596963</v>
+        <v>6.135146097963944</v>
       </c>
       <c r="K24">
-        <v>17.4916307331012</v>
+        <v>12.17859212188685</v>
       </c>
       <c r="L24">
-        <v>5.515055179189498</v>
+        <v>7.32901127012676</v>
       </c>
       <c r="M24">
-        <v>12.47180360353707</v>
+        <v>10.86483868913976</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>12.56482842277701</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>15.07704490833011</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.86536752475516</v>
+        <v>13.52313453704025</v>
       </c>
       <c r="C25">
-        <v>10.58810710914016</v>
+        <v>7.254820368183218</v>
       </c>
       <c r="D25">
-        <v>6.874578692454554</v>
+        <v>6.571147707453434</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>72.34264820156285</v>
+        <v>21.17871312270772</v>
       </c>
       <c r="G25">
-        <v>2.149905290523086</v>
+        <v>23.0000395703889</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>9.277033023139284</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>15.10907503978381</v>
       </c>
       <c r="J25">
-        <v>7.281005184633655</v>
+        <v>6.217375949171324</v>
       </c>
       <c r="K25">
-        <v>15.73464933841932</v>
+        <v>11.20168384315761</v>
       </c>
       <c r="L25">
-        <v>5.599628026454819</v>
+        <v>7.15659736232402</v>
       </c>
       <c r="M25">
-        <v>11.98497276981182</v>
+        <v>10.28745785238693</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>12.86472349086299</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>15.12954524137423</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_23/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.3961147734505</v>
+        <v>11.77319110122542</v>
       </c>
       <c r="C2">
-        <v>7.169704299427222</v>
+        <v>9.339930978019268</v>
       </c>
       <c r="D2">
-        <v>6.346221374363569</v>
+        <v>9.637528544856021</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21.04213030483741</v>
+        <v>32.97357693082004</v>
       </c>
       <c r="G2">
-        <v>22.82073016724123</v>
+        <v>34.04471943687835</v>
       </c>
       <c r="H2">
-        <v>9.364576115881054</v>
+        <v>15.76563767409966</v>
       </c>
       <c r="I2">
-        <v>15.29776930833006</v>
+        <v>25.16777475009706</v>
       </c>
       <c r="J2">
-        <v>6.281608013511258</v>
+        <v>10.77297587573493</v>
       </c>
       <c r="K2">
-        <v>10.42228525646103</v>
+        <v>8.746967178653133</v>
       </c>
       <c r="L2">
-        <v>7.035064534127383</v>
+        <v>11.68520293384096</v>
       </c>
       <c r="M2">
-        <v>9.84999411782958</v>
+        <v>14.91665396002302</v>
       </c>
       <c r="N2">
-        <v>13.09347908050484</v>
+        <v>20.14633532612088</v>
       </c>
       <c r="O2">
-        <v>15.20179361652076</v>
+        <v>24.67058496525248</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.57017420703172</v>
+        <v>11.56328077285739</v>
       </c>
       <c r="C3">
-        <v>7.112137384304015</v>
+        <v>9.326651566309776</v>
       </c>
       <c r="D3">
-        <v>6.193875548540093</v>
+        <v>9.629881618070872</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.97797574543319</v>
+        <v>33.05288923252066</v>
       </c>
       <c r="G3">
-        <v>22.73984098101711</v>
+        <v>34.14294303540743</v>
       </c>
       <c r="H3">
-        <v>9.43247539584597</v>
+        <v>15.80800047398647</v>
       </c>
       <c r="I3">
-        <v>15.44240440150706</v>
+        <v>25.24983428930941</v>
       </c>
       <c r="J3">
-        <v>6.327468397360385</v>
+        <v>10.79190540099736</v>
       </c>
       <c r="K3">
-        <v>9.857238002779878</v>
+        <v>8.588410589100047</v>
       </c>
       <c r="L3">
-        <v>6.956363104814538</v>
+        <v>11.69250902444195</v>
       </c>
       <c r="M3">
-        <v>9.547625253162808</v>
+        <v>14.88678437966507</v>
       </c>
       <c r="N3">
-        <v>13.2537069659172</v>
+        <v>20.19740422521614</v>
       </c>
       <c r="O3">
-        <v>15.27025571505726</v>
+        <v>24.7437803024635</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.04309922023478</v>
+        <v>11.4340927559132</v>
       </c>
       <c r="C4">
-        <v>7.076877248159705</v>
+        <v>9.318588504956757</v>
       </c>
       <c r="D4">
-        <v>6.100717720046899</v>
+        <v>9.626489552177778</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.95212195451458</v>
+        <v>33.10739672497283</v>
       </c>
       <c r="G4">
-        <v>22.7093600475959</v>
+        <v>34.21081727026166</v>
       </c>
       <c r="H4">
-        <v>9.478233972574001</v>
+        <v>15.83589746647258</v>
       </c>
       <c r="I4">
-        <v>15.53911094235735</v>
+        <v>25.30376645190792</v>
       </c>
       <c r="J4">
-        <v>6.356785889315929</v>
+        <v>10.80418863433509</v>
       </c>
       <c r="K4">
-        <v>9.492461534354652</v>
+        <v>8.490574750520716</v>
       </c>
       <c r="L4">
-        <v>6.909937247309219</v>
+        <v>11.69825580433719</v>
       </c>
       <c r="M4">
-        <v>9.359750190142842</v>
+        <v>14.87012297602523</v>
       </c>
       <c r="N4">
-        <v>13.35472797029008</v>
+        <v>20.23030036110638</v>
       </c>
       <c r="O4">
-        <v>15.32143551405747</v>
+        <v>24.79257121439894</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.83480102694843</v>
+        <v>11.38143899137656</v>
       </c>
       <c r="C5">
-        <v>7.062534717204509</v>
+        <v>9.315326309708093</v>
       </c>
       <c r="D5">
-        <v>6.062904873641042</v>
+        <v>9.625436821078738</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.94491566316226</v>
+        <v>33.1310692240851</v>
       </c>
       <c r="G5">
-        <v>22.7016276355274</v>
+        <v>34.24037544938975</v>
       </c>
       <c r="H5">
-        <v>9.497881291319048</v>
+        <v>15.84774054362341</v>
       </c>
       <c r="I5">
-        <v>15.58045470416309</v>
+        <v>25.32663695411422</v>
       </c>
       <c r="J5">
-        <v>6.369025825511196</v>
+        <v>10.80936065697485</v>
       </c>
       <c r="K5">
-        <v>9.339394702021107</v>
+        <v>8.450634517347346</v>
       </c>
       <c r="L5">
-        <v>6.89150855913739</v>
+        <v>11.70091553258549</v>
       </c>
       <c r="M5">
-        <v>9.282744478394381</v>
+        <v>14.86376017622787</v>
       </c>
       <c r="N5">
-        <v>13.39656940068065</v>
+        <v>20.24409399002669</v>
       </c>
       <c r="O5">
-        <v>15.3445218082268</v>
+        <v>24.8134217534829</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.79984015395685</v>
+        <v>11.37269734682853</v>
       </c>
       <c r="C6">
-        <v>7.060154871271229</v>
+        <v>9.314786071220922</v>
       </c>
       <c r="D6">
-        <v>6.056636707013153</v>
+        <v>9.625281972441231</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20.9439178768512</v>
+        <v>33.13508820078906</v>
       </c>
       <c r="G6">
-        <v>22.70062275023774</v>
+        <v>34.24539814889388</v>
       </c>
       <c r="H6">
-        <v>9.501203489224897</v>
+        <v>15.84973577243698</v>
       </c>
       <c r="I6">
-        <v>15.58743522604455</v>
+        <v>25.3304885222819</v>
       </c>
       <c r="J6">
-        <v>6.371075983649202</v>
+        <v>10.81022953672839</v>
       </c>
       <c r="K6">
-        <v>9.313713562289109</v>
+        <v>8.4439996371696</v>
       </c>
       <c r="L6">
-        <v>6.888478463449026</v>
+        <v>11.70137640020898</v>
       </c>
       <c r="M6">
-        <v>9.269934305388851</v>
+        <v>14.86272955304134</v>
       </c>
       <c r="N6">
-        <v>13.40355818436831</v>
+        <v>20.24640788761301</v>
       </c>
       <c r="O6">
-        <v>15.34848796619645</v>
+        <v>24.81694242681946</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.04031511993478</v>
+        <v>11.4333825937382</v>
       </c>
       <c r="C7">
-        <v>7.076683707372311</v>
+        <v>9.318544413376156</v>
       </c>
       <c r="D7">
-        <v>6.100207085053367</v>
+        <v>9.626474017920712</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.95201138953944</v>
+        <v>33.10771006891395</v>
       </c>
       <c r="G7">
-        <v>22.7092369656375</v>
+        <v>34.21120821824934</v>
       </c>
       <c r="H7">
-        <v>9.478494922017417</v>
+        <v>15.8360552630508</v>
       </c>
       <c r="I7">
-        <v>15.53966074971333</v>
+        <v>25.3040712759906</v>
       </c>
       <c r="J7">
-        <v>6.356949773920572</v>
+        <v>10.80425771128585</v>
       </c>
       <c r="K7">
-        <v>9.490415006662705</v>
+        <v>8.490036324930053</v>
       </c>
       <c r="L7">
-        <v>6.909686709982483</v>
+        <v>11.69829038626032</v>
       </c>
       <c r="M7">
-        <v>9.358713311497894</v>
+        <v>14.87003543066669</v>
       </c>
       <c r="N7">
-        <v>13.3552895133767</v>
+        <v>20.23048481367907</v>
       </c>
       <c r="O7">
-        <v>15.32173792464782</v>
+        <v>24.79284849320676</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.11772221204374</v>
+        <v>11.70091678708256</v>
       </c>
       <c r="C8">
-        <v>7.149840075208193</v>
+        <v>9.335333921978386</v>
       </c>
       <c r="D8">
-        <v>6.293644597178168</v>
+        <v>9.634622571945117</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21.01715656330456</v>
+        <v>32.99971776417527</v>
       </c>
       <c r="G8">
-        <v>22.78877875002421</v>
+        <v>34.07701500898333</v>
       </c>
       <c r="H8">
-        <v>9.387129495638828</v>
+        <v>15.77985325290678</v>
       </c>
       <c r="I8">
-        <v>15.34596801662119</v>
+        <v>25.19533307428777</v>
       </c>
       <c r="J8">
-        <v>6.297180944063839</v>
+        <v>10.77936596644348</v>
       </c>
       <c r="K8">
-        <v>10.23119412857734</v>
+        <v>8.692426280779859</v>
       </c>
       <c r="L8">
-        <v>7.007542716571932</v>
+        <v>11.68746090146253</v>
       </c>
       <c r="M8">
-        <v>9.746263332104043</v>
+        <v>14.90600944917289</v>
       </c>
       <c r="N8">
-        <v>13.14818411429592</v>
+        <v>20.16362495861679</v>
       </c>
       <c r="O8">
-        <v>15.22345954560169</v>
+        <v>24.69502396949845</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.00889728788139</v>
+        <v>12.22026451556436</v>
       </c>
       <c r="C9">
-        <v>7.293788764954022</v>
+        <v>9.368942308039649</v>
       </c>
       <c r="D9">
-        <v>6.673755890705603</v>
+        <v>9.660854766155959</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.25542525138054</v>
+        <v>32.83406191035173</v>
       </c>
       <c r="G9">
-        <v>23.10258430186186</v>
+        <v>33.87402153595472</v>
       </c>
       <c r="H9">
-        <v>9.241311142398811</v>
+        <v>15.68458116031922</v>
       </c>
       <c r="I9">
-        <v>15.03127317083394</v>
+        <v>25.01021139363854</v>
       </c>
       <c r="J9">
-        <v>6.189107965764893</v>
+        <v>10.73577371118805</v>
       </c>
       <c r="K9">
-        <v>11.54015622377179</v>
+        <v>9.083370062265303</v>
       </c>
       <c r="L9">
-        <v>7.213872888040662</v>
+        <v>11.67619092025221</v>
       </c>
       <c r="M9">
-        <v>10.48408524152114</v>
+        <v>14.98965577455286</v>
       </c>
       <c r="N9">
-        <v>12.76250236321816</v>
+        <v>20.04468132513831</v>
       </c>
       <c r="O9">
-        <v>15.1064463726467</v>
+        <v>24.53372460156836</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.25205952781712</v>
+        <v>12.59487367250189</v>
       </c>
       <c r="C10">
-        <v>7.39959957466681</v>
+        <v>9.394006651037024</v>
       </c>
       <c r="D10">
-        <v>6.950637811756041</v>
+        <v>9.68625350638041</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>21.50174834023503</v>
+        <v>32.74049189881855</v>
       </c>
       <c r="G10">
-        <v>23.43627946758278</v>
+        <v>33.76173069770621</v>
       </c>
       <c r="H10">
-        <v>9.156066349025053</v>
+        <v>15.62365783026728</v>
       </c>
       <c r="I10">
-        <v>14.84337793824068</v>
+        <v>24.89129635425938</v>
       </c>
       <c r="J10">
-        <v>6.115186732051533</v>
+        <v>10.70690127841983</v>
       </c>
       <c r="K10">
-        <v>12.41220621553976</v>
+        <v>9.364241551758205</v>
       </c>
       <c r="L10">
-        <v>7.373395393624986</v>
+        <v>11.67393507490516</v>
       </c>
       <c r="M10">
-        <v>11.00716510676824</v>
+        <v>15.05879248945458</v>
       </c>
       <c r="N10">
-        <v>12.4908855914002</v>
+        <v>19.96464359784525</v>
       </c>
       <c r="O10">
-        <v>15.07104179670111</v>
+        <v>24.43382717710837</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.78632411293334</v>
+        <v>12.76303955575914</v>
       </c>
       <c r="C11">
-        <v>7.447698026342538</v>
+        <v>9.405480207267173</v>
       </c>
       <c r="D11">
-        <v>7.075530643101753</v>
+        <v>9.699108726411458</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>21.63000391181559</v>
+        <v>32.70403612049829</v>
       </c>
       <c r="G11">
-        <v>23.61173999326355</v>
+        <v>33.71867922896261</v>
       </c>
       <c r="H11">
-        <v>9.122402726075258</v>
+        <v>15.59790508681646</v>
       </c>
       <c r="I11">
-        <v>14.76815507952482</v>
+        <v>24.84090133560382</v>
       </c>
       <c r="J11">
-        <v>6.082729490601632</v>
+        <v>10.69444562726077</v>
       </c>
       <c r="K11">
-        <v>12.78923214186482</v>
+        <v>9.490096128836742</v>
       </c>
       <c r="L11">
-        <v>7.447495920487028</v>
+        <v>11.6742049398279</v>
       </c>
       <c r="M11">
-        <v>11.24001872227961</v>
+        <v>15.09184261317064</v>
       </c>
       <c r="N11">
-        <v>12.36970635096903</v>
+        <v>19.92981392639746</v>
       </c>
       <c r="O11">
-        <v>15.06688207048425</v>
+        <v>24.39242069799417</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.98418055242682</v>
+        <v>12.82633847316846</v>
       </c>
       <c r="C12">
-        <v>7.465902593340504</v>
+        <v>9.40983436985162</v>
       </c>
       <c r="D12">
-        <v>7.122630013055329</v>
+        <v>9.704161014188067</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>21.68095165479039</v>
+        <v>32.69110968356152</v>
       </c>
       <c r="G12">
-        <v>23.68167139807365</v>
+        <v>33.70353351249011</v>
       </c>
       <c r="H12">
-        <v>9.110422818151024</v>
+        <v>15.5884347286114</v>
       </c>
       <c r="I12">
-        <v>14.74122021262473</v>
+        <v>24.82234948471979</v>
       </c>
       <c r="J12">
-        <v>6.07060564622785</v>
+        <v>10.6898261313639</v>
       </c>
       <c r="K12">
-        <v>12.92916351580951</v>
+        <v>9.537436328163347</v>
       </c>
       <c r="L12">
-        <v>7.475759825629</v>
+        <v>11.67449238313863</v>
       </c>
       <c r="M12">
-        <v>11.32739086052217</v>
+        <v>15.10458149925675</v>
       </c>
       <c r="N12">
-        <v>12.3241476866171</v>
+        <v>19.91685096188938</v>
       </c>
       <c r="O12">
-        <v>15.06710522286661</v>
+        <v>24.37732162047432</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.94176630815909</v>
+        <v>12.8127238067426</v>
       </c>
       <c r="C13">
-        <v>7.46198239003677</v>
+        <v>9.408896220952313</v>
       </c>
       <c r="D13">
-        <v>7.112495619876095</v>
+        <v>9.703064763450914</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>21.66987254488213</v>
+        <v>32.69385455008099</v>
       </c>
       <c r="G13">
-        <v>23.6664540265695</v>
+        <v>33.70674392694571</v>
       </c>
       <c r="H13">
-        <v>9.112968226923595</v>
+        <v>15.59046182012655</v>
       </c>
       <c r="I13">
-        <v>14.74695090415138</v>
+        <v>24.82632131890107</v>
       </c>
       <c r="J13">
-        <v>6.073209324338787</v>
+        <v>10.69081670609019</v>
       </c>
       <c r="K13">
-        <v>12.89915321614713</v>
+        <v>9.527255577225905</v>
       </c>
       <c r="L13">
-        <v>7.469663896532349</v>
+        <v>11.67442225641916</v>
       </c>
       <c r="M13">
-        <v>11.30861053349459</v>
+        <v>15.10182811660727</v>
       </c>
       <c r="N13">
-        <v>12.33394512762136</v>
+        <v>19.91963271892083</v>
       </c>
       <c r="O13">
-        <v>15.06697589291938</v>
+        <v>24.38054765091983</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.80269101383327</v>
+        <v>12.768255175111</v>
       </c>
       <c r="C14">
-        <v>7.449195935799313</v>
+        <v>9.405838244298231</v>
       </c>
       <c r="D14">
-        <v>7.079409670247268</v>
+        <v>9.699520704273034</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>21.63414744247628</v>
+        <v>32.70295504742679</v>
       </c>
       <c r="G14">
-        <v>23.61742292886797</v>
+        <v>33.71740998356621</v>
       </c>
       <c r="H14">
-        <v>9.121401553657774</v>
+        <v>15.5971203125529</v>
       </c>
       <c r="I14">
-        <v>14.76590760761209</v>
+        <v>24.83936441092929</v>
       </c>
       <c r="J14">
-        <v>6.081728714390427</v>
+        <v>10.69406363294999</v>
       </c>
       <c r="K14">
-        <v>12.80080134193375</v>
+        <v>9.493997449349253</v>
       </c>
       <c r="L14">
-        <v>7.44981722329485</v>
+        <v>11.6742248818676</v>
       </c>
       <c r="M14">
-        <v>11.24722338242143</v>
+        <v>15.09288620721083</v>
       </c>
       <c r="N14">
-        <v>12.36595168919133</v>
+        <v>19.92874292576967</v>
       </c>
       <c r="O14">
-        <v>15.06686392453451</v>
+        <v>24.39116685013295</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.71692391797754</v>
+        <v>12.74096543007778</v>
       </c>
       <c r="C15">
-        <v>7.441362536526087</v>
+        <v>9.403966338550141</v>
       </c>
       <c r="D15">
-        <v>7.059117006976873</v>
+        <v>9.697373780252185</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>21.61257615252151</v>
+        <v>32.70864377823992</v>
       </c>
       <c r="G15">
-        <v>23.58784660492606</v>
+        <v>33.72409397845806</v>
       </c>
       <c r="H15">
-        <v>9.126668183276836</v>
+        <v>15.60123549757106</v>
       </c>
       <c r="I15">
-        <v>14.7777233790716</v>
+        <v>24.84742290585916</v>
       </c>
       <c r="J15">
-        <v>6.086968800626592</v>
+        <v>10.69606511482618</v>
       </c>
       <c r="K15">
-        <v>12.74018788763564</v>
+        <v>9.473583217464764</v>
       </c>
       <c r="L15">
-        <v>7.437686587379499</v>
+        <v>11.67412807523042</v>
       </c>
       <c r="M15">
-        <v>11.20951523932436</v>
+        <v>15.08743794242461</v>
       </c>
       <c r="N15">
-        <v>12.38559912014019</v>
+        <v>19.93435263152234</v>
       </c>
       <c r="O15">
-        <v>15.06703193852715</v>
+        <v>24.39774703725904</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.21651824662999</v>
+        <v>12.58383333971821</v>
       </c>
       <c r="C16">
-        <v>7.3964551514858</v>
+        <v>9.393258190013096</v>
       </c>
       <c r="D16">
-        <v>6.942450721238106</v>
+        <v>9.685439333652573</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>21.49369698604118</v>
+        <v>32.74299731739028</v>
       </c>
       <c r="G16">
-        <v>23.42529642762167</v>
+        <v>33.76470599736293</v>
       </c>
       <c r="H16">
-        <v>9.158371989335784</v>
+        <v>15.62538026814044</v>
       </c>
       <c r="I16">
-        <v>14.84850663620614</v>
+        <v>24.89466420584803</v>
       </c>
       <c r="J16">
-        <v>6.117331325216532</v>
+        <v>10.70772890571257</v>
       </c>
       <c r="K16">
-        <v>12.38716969779987</v>
+        <v>9.355974408192239</v>
       </c>
       <c r="L16">
-        <v>7.368582158654043</v>
+        <v>11.6739434241392</v>
       </c>
       <c r="M16">
-        <v>10.9918386945405</v>
+        <v>15.05666422286012</v>
       </c>
       <c r="N16">
-        <v>12.49885173860524</v>
+        <v>19.96695151217923</v>
       </c>
       <c r="O16">
-        <v>15.07156089922439</v>
+        <v>24.4366144381736</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.90155602732713</v>
+        <v>12.48681981371634</v>
       </c>
       <c r="C17">
-        <v>7.368893795104073</v>
+        <v>9.386706784558656</v>
       </c>
       <c r="D17">
-        <v>6.870576653976969</v>
+        <v>9.678449249605922</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>21.42495569299414</v>
+        <v>32.76563700594931</v>
       </c>
       <c r="G17">
-        <v>23.33170198336176</v>
+        <v>33.7916785646255</v>
       </c>
       <c r="H17">
-        <v>9.179153697482302</v>
+        <v>15.64069440672163</v>
       </c>
       <c r="I17">
-        <v>14.89460844296828</v>
+        <v>24.9245925825598</v>
       </c>
       <c r="J17">
-        <v>6.136256509209191</v>
+        <v>10.71505778286092</v>
       </c>
       <c r="K17">
-        <v>12.1655555006067</v>
+        <v>9.28330348471326</v>
       </c>
       <c r="L17">
-        <v>7.326569476874568</v>
+        <v>11.67416131935805</v>
       </c>
       <c r="M17">
-        <v>10.85694196810297</v>
+        <v>15.0381906686947</v>
       </c>
       <c r="N17">
-        <v>12.56892913860377</v>
+        <v>19.98735386658677</v>
       </c>
       <c r="O17">
-        <v>15.07745603052824</v>
+        <v>24.46149246645909</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.71745389015497</v>
+        <v>12.43081215690764</v>
       </c>
       <c r="C18">
-        <v>7.353038132908295</v>
+        <v>9.382945390792742</v>
       </c>
       <c r="D18">
-        <v>6.829138922329259</v>
+        <v>9.674551391726377</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>21.38693986363804</v>
+        <v>32.77923384027414</v>
       </c>
       <c r="G18">
-        <v>23.28009159723332</v>
+        <v>33.80794820207998</v>
       </c>
       <c r="H18">
-        <v>9.19158617125807</v>
+        <v>15.64968735306099</v>
       </c>
       <c r="I18">
-        <v>14.92208509222386</v>
+        <v>24.94215488114754</v>
       </c>
       <c r="J18">
-        <v>6.14725196182752</v>
+        <v>10.71933705168093</v>
       </c>
       <c r="K18">
-        <v>12.03623727178523</v>
+        <v>9.241327230538275</v>
       </c>
       <c r="L18">
-        <v>7.302550185854774</v>
+        <v>11.67440870884606</v>
       </c>
       <c r="M18">
-        <v>10.77887680651372</v>
+        <v>15.02771612256948</v>
       </c>
       <c r="N18">
-        <v>12.60946068500386</v>
+        <v>19.9992375218706</v>
       </c>
       <c r="O18">
-        <v>15.08196630681092</v>
+        <v>24.47618166194173</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.65461329320294</v>
+        <v>12.41181504106611</v>
       </c>
       <c r="C19">
-        <v>7.347669277671409</v>
+        <v>9.381673043746078</v>
       </c>
       <c r="D19">
-        <v>6.81509338254662</v>
+        <v>9.673252793316692</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>21.3743281995859</v>
+        <v>32.78393626262351</v>
       </c>
       <c r="G19">
-        <v>23.26299614970186</v>
+        <v>33.81358654609235</v>
       </c>
       <c r="H19">
-        <v>9.195876970690835</v>
+        <v>15.65276393859005</v>
       </c>
       <c r="I19">
-        <v>14.93155086050186</v>
+        <v>24.94816100522516</v>
       </c>
       <c r="J19">
-        <v>6.150993795740592</v>
+        <v>10.72079692405542</v>
       </c>
       <c r="K19">
-        <v>11.99213477228677</v>
+        <v>9.227085586250606</v>
       </c>
       <c r="L19">
-        <v>7.294443133984667</v>
+        <v>11.67451346814874</v>
       </c>
       <c r="M19">
-        <v>10.75236582198708</v>
+        <v>15.02419574148647</v>
       </c>
       <c r="N19">
-        <v>12.62322298357951</v>
+        <v>20.00328670106951</v>
       </c>
       <c r="O19">
-        <v>15.08368324909996</v>
+        <v>24.48122043535181</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.93538874289143</v>
+        <v>12.49716903745965</v>
       </c>
       <c r="C20">
-        <v>7.371828100430141</v>
+        <v>9.387403495631798</v>
       </c>
       <c r="D20">
-        <v>6.878238195420422</v>
+        <v>9.679180681747386</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>21.4321153826044</v>
+        <v>32.76316745272194</v>
       </c>
       <c r="G20">
-        <v>23.34143457663128</v>
+        <v>33.78872905644204</v>
       </c>
       <c r="H20">
-        <v>9.176891605933893</v>
+        <v>15.63904508213181</v>
       </c>
       <c r="I20">
-        <v>14.88960092075308</v>
+        <v>24.92137061230218</v>
       </c>
       <c r="J20">
-        <v>6.134230496061847</v>
+        <v>10.7142710015627</v>
       </c>
       <c r="K20">
-        <v>12.18933844498267</v>
+        <v>9.291058153891784</v>
       </c>
       <c r="L20">
-        <v>7.331026883386167</v>
+        <v>11.67412549903156</v>
       </c>
       <c r="M20">
-        <v>10.87135177674979</v>
+        <v>15.04014163318761</v>
       </c>
       <c r="N20">
-        <v>12.56144609864325</v>
+        <v>19.98516661159002</v>
       </c>
       <c r="O20">
-        <v>15.07671203279702</v>
+        <v>24.45880482737179</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.84366149228615</v>
+        <v>12.78132750766042</v>
       </c>
       <c r="C21">
-        <v>7.452951910922254</v>
+        <v>9.406736199170068</v>
       </c>
       <c r="D21">
-        <v>7.08913342180357</v>
+        <v>9.700556701821</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>21.6445758001612</v>
+        <v>32.70025816736035</v>
       </c>
       <c r="G21">
-        <v>23.63172925000677</v>
+        <v>33.7142456893332</v>
       </c>
       <c r="H21">
-        <v>9.118903378453179</v>
+        <v>15.59515691148695</v>
       </c>
       <c r="I21">
-        <v>14.76029685811458</v>
+        <v>24.83551891303246</v>
       </c>
       <c r="J21">
-        <v>6.079221840003997</v>
+        <v>10.69310729721705</v>
       </c>
       <c r="K21">
-        <v>12.82976680910327</v>
+        <v>9.503775132746341</v>
       </c>
       <c r="L21">
-        <v>7.455641278558717</v>
+        <v>11.67427783709976</v>
       </c>
       <c r="M21">
-        <v>11.26527663699461</v>
+        <v>15.09550664920833</v>
       </c>
       <c r="N21">
-        <v>12.35654175570298</v>
+        <v>19.92606090331413</v>
       </c>
       <c r="O21">
-        <v>15.0668473611657</v>
+        <v>24.38803197444259</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.41130319761364</v>
+        <v>12.9647906587995</v>
       </c>
       <c r="C22">
-        <v>7.505915234727835</v>
+        <v>9.419425449236304</v>
       </c>
       <c r="D22">
-        <v>7.225812930349986</v>
+        <v>9.715599970144522</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>21.79732386985568</v>
+        <v>32.66426418827375</v>
       </c>
       <c r="G22">
-        <v>23.84181815563591</v>
+        <v>33.67231080662385</v>
       </c>
       <c r="H22">
-        <v>9.085496064134563</v>
+        <v>15.56811491335994</v>
       </c>
       <c r="I22">
-        <v>14.68486452688238</v>
+        <v>24.78250854136621</v>
       </c>
       <c r="J22">
-        <v>6.044243417996154</v>
+        <v>10.67984190700965</v>
       </c>
       <c r="K22">
-        <v>13.23176832254005</v>
+        <v>9.64092511187469</v>
       </c>
       <c r="L22">
-        <v>7.538263339578652</v>
+        <v>11.67545662571488</v>
       </c>
       <c r="M22">
-        <v>11.51801298967329</v>
+        <v>15.13299058122698</v>
       </c>
       <c r="N22">
-        <v>12.22453786608253</v>
+        <v>19.88875040220034</v>
       </c>
       <c r="O22">
-        <v>15.0709200894536</v>
+        <v>24.34516236344709</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.11070588040681</v>
+        <v>12.86709752861176</v>
       </c>
       <c r="C23">
-        <v>7.477654120555703</v>
+        <v>9.412648307189029</v>
       </c>
       <c r="D23">
-        <v>7.152982988293149</v>
+        <v>9.707473901096478</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>21.71451289414422</v>
+        <v>32.68300633872118</v>
       </c>
       <c r="G23">
-        <v>23.72780089526535</v>
+        <v>33.69407450199199</v>
       </c>
       <c r="H23">
-        <v>9.102904120165141</v>
+        <v>15.58239768293249</v>
       </c>
       <c r="I23">
-        <v>14.72426748069647</v>
+        <v>24.81051777718005</v>
       </c>
       <c r="J23">
-        <v>6.062823431906457</v>
+        <v>10.68687020472202</v>
       </c>
       <c r="K23">
-        <v>13.01872941655997</v>
+        <v>9.567910474906334</v>
       </c>
       <c r="L23">
-        <v>7.494063979540459</v>
+        <v>11.67472911945205</v>
       </c>
       <c r="M23">
-        <v>11.38357580541585</v>
+        <v>15.11286797752696</v>
       </c>
       <c r="N23">
-        <v>12.29482021853291</v>
+        <v>19.90854337428954</v>
       </c>
       <c r="O23">
-        <v>15.06775709361448</v>
+        <v>24.36773297294657</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.92010240077027</v>
+        <v>12.49249087553069</v>
       </c>
       <c r="C24">
-        <v>7.370501532663924</v>
+        <v>9.387088496616048</v>
       </c>
       <c r="D24">
-        <v>6.874774771776202</v>
+        <v>9.678849624689052</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>21.42887380476149</v>
+        <v>32.76428212806263</v>
       </c>
       <c r="G24">
-        <v>23.33702763061991</v>
+        <v>33.79006015337599</v>
       </c>
       <c r="H24">
-        <v>9.177912789925873</v>
+        <v>15.63979015413632</v>
       </c>
       <c r="I24">
-        <v>14.89186179937034</v>
+        <v>24.92282615588078</v>
       </c>
       <c r="J24">
-        <v>6.135146097963944</v>
+        <v>10.71462650040062</v>
       </c>
       <c r="K24">
-        <v>12.17859212188685</v>
+        <v>9.287552877577619</v>
       </c>
       <c r="L24">
-        <v>7.32901127012676</v>
+        <v>11.67414131293594</v>
       </c>
       <c r="M24">
-        <v>10.86483868913976</v>
+        <v>15.03925914642475</v>
       </c>
       <c r="N24">
-        <v>12.56482842277701</v>
+        <v>19.98615498958783</v>
       </c>
       <c r="O24">
-        <v>15.07704490833011</v>
+        <v>24.46001870514291</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.52313453704025</v>
+        <v>12.08072736502063</v>
       </c>
       <c r="C25">
-        <v>7.254820368183218</v>
+        <v>9.359781680636809</v>
       </c>
       <c r="D25">
-        <v>6.571147707453434</v>
+        <v>9.652672870553602</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.17871312270772</v>
+        <v>32.87393602921784</v>
       </c>
       <c r="G25">
-        <v>23.0000395703889</v>
+        <v>33.92247706163866</v>
       </c>
       <c r="H25">
-        <v>9.277033023139284</v>
+        <v>15.70875897359049</v>
       </c>
       <c r="I25">
-        <v>15.10907503978381</v>
+        <v>25.05728666596568</v>
       </c>
       <c r="J25">
-        <v>6.217375949171324</v>
+        <v>10.74701057020177</v>
       </c>
       <c r="K25">
-        <v>11.20168384315761</v>
+        <v>8.978534686889798</v>
       </c>
       <c r="L25">
-        <v>7.15659736232402</v>
+        <v>11.67817788266459</v>
       </c>
       <c r="M25">
-        <v>10.28745785238693</v>
+        <v>14.96565513343391</v>
       </c>
       <c r="N25">
-        <v>12.86472349086299</v>
+        <v>20.07556309353136</v>
       </c>
       <c r="O25">
-        <v>15.12954524137423</v>
+        <v>24.5740919278036</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_23/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.77319110122542</v>
+        <v>12.39611477345047</v>
       </c>
       <c r="C2">
-        <v>9.339930978019268</v>
+        <v>7.169704299427228</v>
       </c>
       <c r="D2">
-        <v>9.637528544856021</v>
+        <v>6.346221374363473</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>32.97357693082004</v>
+        <v>21.04213030483748</v>
       </c>
       <c r="G2">
-        <v>34.04471943687835</v>
+        <v>22.82073016724136</v>
       </c>
       <c r="H2">
-        <v>15.76563767409966</v>
+        <v>9.364576115881059</v>
       </c>
       <c r="I2">
-        <v>25.16777475009706</v>
+        <v>15.29776930833014</v>
       </c>
       <c r="J2">
-        <v>10.77297587573493</v>
+        <v>6.281608013511321</v>
       </c>
       <c r="K2">
-        <v>8.746967178653133</v>
+        <v>10.42228525646101</v>
       </c>
       <c r="L2">
-        <v>11.68520293384096</v>
+        <v>7.035064534127403</v>
       </c>
       <c r="M2">
-        <v>14.91665396002302</v>
+        <v>9.849994117829603</v>
       </c>
       <c r="N2">
-        <v>20.14633532612088</v>
+        <v>13.09347908050487</v>
       </c>
       <c r="O2">
-        <v>24.67058496525248</v>
+        <v>15.2017936165208</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.56328077285739</v>
+        <v>11.57017420703176</v>
       </c>
       <c r="C3">
-        <v>9.326651566309776</v>
+        <v>7.112137384304138</v>
       </c>
       <c r="D3">
-        <v>9.629881618070872</v>
+        <v>6.193875548540182</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33.05288923252066</v>
+        <v>20.97797574543299</v>
       </c>
       <c r="G3">
-        <v>34.14294303540743</v>
+        <v>22.73984098101681</v>
       </c>
       <c r="H3">
-        <v>15.80800047398647</v>
+        <v>9.432475395845852</v>
       </c>
       <c r="I3">
-        <v>25.24983428930941</v>
+        <v>15.44240440150691</v>
       </c>
       <c r="J3">
-        <v>10.79190540099736</v>
+        <v>6.327468397360354</v>
       </c>
       <c r="K3">
-        <v>8.588410589100047</v>
+        <v>9.857238002779892</v>
       </c>
       <c r="L3">
-        <v>11.69250902444195</v>
+        <v>6.956363104814485</v>
       </c>
       <c r="M3">
-        <v>14.88678437966507</v>
+        <v>9.547625253162794</v>
       </c>
       <c r="N3">
-        <v>20.19740422521614</v>
+        <v>13.2537069659171</v>
       </c>
       <c r="O3">
-        <v>24.7437803024635</v>
+        <v>15.27025571505706</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.4340927559132</v>
+        <v>11.04309922023477</v>
       </c>
       <c r="C4">
-        <v>9.318588504956757</v>
+        <v>7.076877248159567</v>
       </c>
       <c r="D4">
-        <v>9.626489552177778</v>
+        <v>6.100717720046931</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.10739672497283</v>
+        <v>20.95212195451453</v>
       </c>
       <c r="G4">
-        <v>34.21081727026166</v>
+        <v>22.70936004759585</v>
       </c>
       <c r="H4">
-        <v>15.83589746647258</v>
+        <v>9.478233972573873</v>
       </c>
       <c r="I4">
-        <v>25.30376645190792</v>
+        <v>15.53911094235729</v>
       </c>
       <c r="J4">
-        <v>10.80418863433509</v>
+        <v>6.356785889315895</v>
       </c>
       <c r="K4">
-        <v>8.490574750520716</v>
+        <v>9.492461534354685</v>
       </c>
       <c r="L4">
-        <v>11.69825580433719</v>
+        <v>6.909937247309187</v>
       </c>
       <c r="M4">
-        <v>14.87012297602523</v>
+        <v>9.359750190142821</v>
       </c>
       <c r="N4">
-        <v>20.23030036110638</v>
+        <v>13.35472797029005</v>
       </c>
       <c r="O4">
-        <v>24.79257121439894</v>
+        <v>15.32143551405739</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.38143899137656</v>
+        <v>10.83480102694845</v>
       </c>
       <c r="C5">
-        <v>9.315326309708093</v>
+        <v>7.062534717204646</v>
       </c>
       <c r="D5">
-        <v>9.625436821078738</v>
+        <v>6.06290487364104</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.1310692240851</v>
+        <v>20.94491566316242</v>
       </c>
       <c r="G5">
-        <v>34.24037544938975</v>
+        <v>22.70162763552752</v>
       </c>
       <c r="H5">
-        <v>15.84774054362341</v>
+        <v>9.497881291319105</v>
       </c>
       <c r="I5">
-        <v>25.32663695411422</v>
+        <v>15.58045470416328</v>
       </c>
       <c r="J5">
-        <v>10.80936065697485</v>
+        <v>6.369025825511164</v>
       </c>
       <c r="K5">
-        <v>8.450634517347346</v>
+        <v>9.339394702021067</v>
       </c>
       <c r="L5">
-        <v>11.70091553258549</v>
+        <v>6.891508559137309</v>
       </c>
       <c r="M5">
-        <v>14.86376017622787</v>
+        <v>9.282744478394378</v>
       </c>
       <c r="N5">
-        <v>20.24409399002669</v>
+        <v>13.39656940068075</v>
       </c>
       <c r="O5">
-        <v>24.8134217534829</v>
+        <v>15.34452180822698</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.37269734682853</v>
+        <v>10.79984015395683</v>
       </c>
       <c r="C6">
-        <v>9.314786071220922</v>
+        <v>7.06015487127111</v>
       </c>
       <c r="D6">
-        <v>9.625281972441231</v>
+        <v>6.056636707013049</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.13508820078906</v>
+        <v>20.94391787685118</v>
       </c>
       <c r="G6">
-        <v>34.24539814889388</v>
+        <v>22.70062275023782</v>
       </c>
       <c r="H6">
-        <v>15.84973577243698</v>
+        <v>9.501203489224892</v>
       </c>
       <c r="I6">
-        <v>25.3304885222819</v>
+        <v>15.5874352260446</v>
       </c>
       <c r="J6">
-        <v>10.81022953672839</v>
+        <v>6.371075983649302</v>
       </c>
       <c r="K6">
-        <v>8.4439996371696</v>
+        <v>9.313713562289081</v>
       </c>
       <c r="L6">
-        <v>11.70137640020898</v>
+        <v>6.888478463449042</v>
       </c>
       <c r="M6">
-        <v>14.86272955304134</v>
+        <v>9.269934305388906</v>
       </c>
       <c r="N6">
-        <v>20.24640788761301</v>
+        <v>13.40355818436831</v>
       </c>
       <c r="O6">
-        <v>24.81694242681946</v>
+        <v>15.3484879661965</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.4333825937382</v>
+        <v>11.04031511993478</v>
       </c>
       <c r="C7">
-        <v>9.318544413376156</v>
+        <v>7.0766837073723</v>
       </c>
       <c r="D7">
-        <v>9.626474017920712</v>
+        <v>6.100207085053428</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.10771006891395</v>
+        <v>20.95201138953939</v>
       </c>
       <c r="G7">
-        <v>34.21120821824934</v>
+        <v>22.70923696563732</v>
       </c>
       <c r="H7">
-        <v>15.8360552630508</v>
+        <v>9.478494922017417</v>
       </c>
       <c r="I7">
-        <v>25.3040712759906</v>
+        <v>15.53966074971322</v>
       </c>
       <c r="J7">
-        <v>10.80425771128585</v>
+        <v>6.356949773920539</v>
       </c>
       <c r="K7">
-        <v>8.490036324930053</v>
+        <v>9.490415006662763</v>
       </c>
       <c r="L7">
-        <v>11.69829038626032</v>
+        <v>6.909686709982503</v>
       </c>
       <c r="M7">
-        <v>14.87003543066669</v>
+        <v>9.358713311497878</v>
       </c>
       <c r="N7">
-        <v>20.23048481367907</v>
+        <v>13.35528951337666</v>
       </c>
       <c r="O7">
-        <v>24.79284849320676</v>
+        <v>15.32173792464773</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.70091678708256</v>
+        <v>12.1177222120437</v>
       </c>
       <c r="C8">
-        <v>9.335333921978386</v>
+        <v>7.149840075208308</v>
       </c>
       <c r="D8">
-        <v>9.634622571945117</v>
+        <v>6.293644597178266</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>32.99971776417527</v>
+        <v>21.01715656330477</v>
       </c>
       <c r="G8">
-        <v>34.07701500898333</v>
+        <v>22.78877875002462</v>
       </c>
       <c r="H8">
-        <v>15.77985325290678</v>
+        <v>9.38712949563889</v>
       </c>
       <c r="I8">
-        <v>25.19533307428777</v>
+        <v>15.34596801662138</v>
       </c>
       <c r="J8">
-        <v>10.77936596644348</v>
+        <v>6.29718094406384</v>
       </c>
       <c r="K8">
-        <v>8.692426280779859</v>
+        <v>10.23119412857729</v>
       </c>
       <c r="L8">
-        <v>11.68746090146253</v>
+        <v>7.007542716571982</v>
       </c>
       <c r="M8">
-        <v>14.90600944917289</v>
+        <v>9.746263332104105</v>
       </c>
       <c r="N8">
-        <v>20.16362495861679</v>
+        <v>13.14818411429599</v>
       </c>
       <c r="O8">
-        <v>24.69502396949845</v>
+        <v>15.22345954560184</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.22026451556436</v>
+        <v>14.00889728788136</v>
       </c>
       <c r="C9">
-        <v>9.368942308039649</v>
+        <v>7.293788764954264</v>
       </c>
       <c r="D9">
-        <v>9.660854766155959</v>
+        <v>6.673755890705507</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>32.83406191035173</v>
+        <v>21.25542525138061</v>
       </c>
       <c r="G9">
-        <v>33.87402153595472</v>
+        <v>23.10258430186197</v>
       </c>
       <c r="H9">
-        <v>15.68458116031922</v>
+        <v>9.241311142398873</v>
       </c>
       <c r="I9">
-        <v>25.01021139363854</v>
+        <v>15.03127317083404</v>
       </c>
       <c r="J9">
-        <v>10.73577371118805</v>
+        <v>6.189107965764959</v>
       </c>
       <c r="K9">
-        <v>9.083370062265303</v>
+        <v>11.54015622377177</v>
       </c>
       <c r="L9">
-        <v>11.67619092025221</v>
+        <v>7.213872888040653</v>
       </c>
       <c r="M9">
-        <v>14.98965577455286</v>
+        <v>10.48408524152114</v>
       </c>
       <c r="N9">
-        <v>20.04468132513831</v>
+        <v>12.76250236321822</v>
       </c>
       <c r="O9">
-        <v>24.53372460156836</v>
+        <v>15.10644637264682</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.59487367250189</v>
+        <v>15.25205952781719</v>
       </c>
       <c r="C10">
-        <v>9.394006651037024</v>
+        <v>7.399599574666553</v>
       </c>
       <c r="D10">
-        <v>9.68625350638041</v>
+        <v>6.950637811756017</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>32.74049189881855</v>
+        <v>21.50174834023494</v>
       </c>
       <c r="G10">
-        <v>33.76173069770621</v>
+        <v>23.43627946758263</v>
       </c>
       <c r="H10">
-        <v>15.62365783026728</v>
+        <v>9.156066349025041</v>
       </c>
       <c r="I10">
-        <v>24.89129635425938</v>
+        <v>14.84337793824057</v>
       </c>
       <c r="J10">
-        <v>10.70690127841983</v>
+        <v>6.115186732051562</v>
       </c>
       <c r="K10">
-        <v>9.364241551758205</v>
+        <v>12.41220621553978</v>
       </c>
       <c r="L10">
-        <v>11.67393507490516</v>
+        <v>7.373395393625072</v>
       </c>
       <c r="M10">
-        <v>15.05879248945458</v>
+        <v>11.00716510676823</v>
       </c>
       <c r="N10">
-        <v>19.96464359784525</v>
+        <v>12.4908855914002</v>
       </c>
       <c r="O10">
-        <v>24.43382717710837</v>
+        <v>15.07104179670103</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.76303955575914</v>
+        <v>15.78632411293335</v>
       </c>
       <c r="C11">
-        <v>9.405480207267173</v>
+        <v>7.447698026342533</v>
       </c>
       <c r="D11">
-        <v>9.699108726411458</v>
+        <v>7.075530643101762</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>32.70403612049829</v>
+        <v>21.63000391181563</v>
       </c>
       <c r="G11">
-        <v>33.71867922896261</v>
+        <v>23.61173999326369</v>
       </c>
       <c r="H11">
-        <v>15.59790508681646</v>
+        <v>9.122402726075252</v>
       </c>
       <c r="I11">
-        <v>24.84090133560382</v>
+        <v>14.76815507952487</v>
       </c>
       <c r="J11">
-        <v>10.69444562726077</v>
+        <v>6.082729490601696</v>
       </c>
       <c r="K11">
-        <v>9.490096128836742</v>
+        <v>12.78923214186481</v>
       </c>
       <c r="L11">
-        <v>11.6742049398279</v>
+        <v>7.447495920487059</v>
       </c>
       <c r="M11">
-        <v>15.09184261317064</v>
+        <v>11.24001872227963</v>
       </c>
       <c r="N11">
-        <v>19.92981392639746</v>
+        <v>12.36970635096906</v>
       </c>
       <c r="O11">
-        <v>24.39242069799417</v>
+        <v>15.06688207048429</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.82633847316846</v>
+        <v>15.98418055242682</v>
       </c>
       <c r="C12">
-        <v>9.40983436985162</v>
+        <v>7.465902593340623</v>
       </c>
       <c r="D12">
-        <v>9.704161014188067</v>
+        <v>7.122630013055393</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>32.69110968356152</v>
+        <v>21.68095165479042</v>
       </c>
       <c r="G12">
-        <v>33.70353351249011</v>
+        <v>23.68167139807364</v>
       </c>
       <c r="H12">
-        <v>15.5884347286114</v>
+        <v>9.110422818151022</v>
       </c>
       <c r="I12">
-        <v>24.82234948471979</v>
+        <v>14.74122021262475</v>
       </c>
       <c r="J12">
-        <v>10.6898261313639</v>
+        <v>6.070605646227949</v>
       </c>
       <c r="K12">
-        <v>9.537436328163347</v>
+        <v>12.92916351580954</v>
       </c>
       <c r="L12">
-        <v>11.67449238313863</v>
+        <v>7.475759825629067</v>
       </c>
       <c r="M12">
-        <v>15.10458149925675</v>
+        <v>11.3273908605222</v>
       </c>
       <c r="N12">
-        <v>19.91685096188938</v>
+        <v>12.32414768661709</v>
       </c>
       <c r="O12">
-        <v>24.37732162047432</v>
+        <v>15.06710522286658</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.8127238067426</v>
+        <v>15.94176630815904</v>
       </c>
       <c r="C13">
-        <v>9.408896220952313</v>
+        <v>7.46198239003701</v>
       </c>
       <c r="D13">
-        <v>9.703064763450914</v>
+        <v>7.112495619876152</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>32.69385455008099</v>
+        <v>21.66987254488217</v>
       </c>
       <c r="G13">
-        <v>33.70674392694571</v>
+        <v>23.6664540265695</v>
       </c>
       <c r="H13">
-        <v>15.59046182012655</v>
+        <v>9.1129682269236</v>
       </c>
       <c r="I13">
-        <v>24.82632131890107</v>
+        <v>14.74695090415148</v>
       </c>
       <c r="J13">
-        <v>10.69081670609019</v>
+        <v>6.073209324338885</v>
       </c>
       <c r="K13">
-        <v>9.527255577225905</v>
+        <v>12.89915321614712</v>
       </c>
       <c r="L13">
-        <v>11.67442225641916</v>
+        <v>7.469663896532361</v>
       </c>
       <c r="M13">
-        <v>15.10182811660727</v>
+        <v>11.30861053349463</v>
       </c>
       <c r="N13">
-        <v>19.91963271892083</v>
+        <v>12.33394512762136</v>
       </c>
       <c r="O13">
-        <v>24.38054765091983</v>
+        <v>15.06697589291938</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.768255175111</v>
+        <v>15.80269101383321</v>
       </c>
       <c r="C14">
-        <v>9.405838244298231</v>
+        <v>7.449195935799432</v>
       </c>
       <c r="D14">
-        <v>9.699520704273034</v>
+        <v>7.079409670247247</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>32.70295504742679</v>
+        <v>21.63414744247635</v>
       </c>
       <c r="G14">
-        <v>33.71740998356621</v>
+        <v>23.61742292886806</v>
       </c>
       <c r="H14">
-        <v>15.5971203125529</v>
+        <v>9.121401553657828</v>
       </c>
       <c r="I14">
-        <v>24.83936441092929</v>
+        <v>14.76590760761225</v>
       </c>
       <c r="J14">
-        <v>10.69406363294999</v>
+        <v>6.081728714390556</v>
       </c>
       <c r="K14">
-        <v>9.493997449349253</v>
+        <v>12.80080134193374</v>
       </c>
       <c r="L14">
-        <v>11.6742248818676</v>
+        <v>7.449817223294858</v>
       </c>
       <c r="M14">
-        <v>15.09288620721083</v>
+        <v>11.24722338242147</v>
       </c>
       <c r="N14">
-        <v>19.92874292576967</v>
+        <v>12.36595168919139</v>
       </c>
       <c r="O14">
-        <v>24.39116685013295</v>
+        <v>15.06686392453458</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.74096543007778</v>
+        <v>15.71692391797762</v>
       </c>
       <c r="C15">
-        <v>9.403966338550141</v>
+        <v>7.441362536525838</v>
       </c>
       <c r="D15">
-        <v>9.697373780252185</v>
+        <v>7.059117006976859</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>32.70864377823992</v>
+        <v>21.61257615252133</v>
       </c>
       <c r="G15">
-        <v>33.72409397845806</v>
+        <v>23.58784660492585</v>
       </c>
       <c r="H15">
-        <v>15.60123549757106</v>
+        <v>9.126668183276667</v>
       </c>
       <c r="I15">
-        <v>24.84742290585916</v>
+        <v>14.77772337907137</v>
       </c>
       <c r="J15">
-        <v>10.69606511482618</v>
+        <v>6.086968800626656</v>
       </c>
       <c r="K15">
-        <v>9.473583217464764</v>
+        <v>12.74018788763569</v>
       </c>
       <c r="L15">
-        <v>11.67412807523042</v>
+        <v>7.437686587379518</v>
       </c>
       <c r="M15">
-        <v>15.08743794242461</v>
+        <v>11.20951523932433</v>
       </c>
       <c r="N15">
-        <v>19.93435263152234</v>
+        <v>12.38559912014012</v>
       </c>
       <c r="O15">
-        <v>24.39774703725904</v>
+        <v>15.06703193852699</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.58383333971821</v>
+        <v>15.21651824662998</v>
       </c>
       <c r="C16">
-        <v>9.393258190013096</v>
+        <v>7.396455151486045</v>
       </c>
       <c r="D16">
-        <v>9.685439333652573</v>
+        <v>6.942450721238169</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>32.74299731739028</v>
+        <v>21.49369698604122</v>
       </c>
       <c r="G16">
-        <v>33.76470599736293</v>
+        <v>23.42529642762165</v>
       </c>
       <c r="H16">
-        <v>15.62538026814044</v>
+        <v>9.158371989335789</v>
       </c>
       <c r="I16">
-        <v>24.89466420584803</v>
+        <v>14.84850663620616</v>
       </c>
       <c r="J16">
-        <v>10.70772890571257</v>
+        <v>6.117331325216661</v>
       </c>
       <c r="K16">
-        <v>9.355974408192239</v>
+        <v>12.38716969779989</v>
       </c>
       <c r="L16">
-        <v>11.6739434241392</v>
+        <v>7.368582158654122</v>
       </c>
       <c r="M16">
-        <v>15.05666422286012</v>
+        <v>10.99183869454055</v>
       </c>
       <c r="N16">
-        <v>19.96695151217923</v>
+        <v>12.49885173860528</v>
       </c>
       <c r="O16">
-        <v>24.4366144381736</v>
+        <v>15.07156089922439</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.48681981371634</v>
+        <v>14.90155602732713</v>
       </c>
       <c r="C17">
-        <v>9.386706784558656</v>
+        <v>7.36889379510419</v>
       </c>
       <c r="D17">
-        <v>9.678449249605922</v>
+        <v>6.870576653976959</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.76563700594931</v>
+        <v>21.4249556929941</v>
       </c>
       <c r="G17">
-        <v>33.7916785646255</v>
+        <v>23.33170198336183</v>
       </c>
       <c r="H17">
-        <v>15.64069440672163</v>
+        <v>9.179153697482256</v>
       </c>
       <c r="I17">
-        <v>24.9245925825598</v>
+        <v>14.89460844296828</v>
       </c>
       <c r="J17">
-        <v>10.71505778286092</v>
+        <v>6.136256509209221</v>
       </c>
       <c r="K17">
-        <v>9.28330348471326</v>
+        <v>12.16555550060674</v>
       </c>
       <c r="L17">
-        <v>11.67416131935805</v>
+        <v>7.326569476874553</v>
       </c>
       <c r="M17">
-        <v>15.0381906686947</v>
+        <v>10.85694196810298</v>
       </c>
       <c r="N17">
-        <v>19.98735386658677</v>
+        <v>12.56892913860374</v>
       </c>
       <c r="O17">
-        <v>24.46149246645909</v>
+        <v>15.07745603052816</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.43081215690764</v>
+        <v>14.71745389015494</v>
       </c>
       <c r="C18">
-        <v>9.382945390792742</v>
+        <v>7.353038132908661</v>
       </c>
       <c r="D18">
-        <v>9.674551391726377</v>
+        <v>6.829138922329432</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.77923384027414</v>
+        <v>21.38693986363816</v>
       </c>
       <c r="G18">
-        <v>33.80794820207998</v>
+        <v>23.2800915972333</v>
       </c>
       <c r="H18">
-        <v>15.64968735306099</v>
+        <v>9.191586171258068</v>
       </c>
       <c r="I18">
-        <v>24.94215488114754</v>
+        <v>14.92208509222397</v>
       </c>
       <c r="J18">
-        <v>10.71933705168093</v>
+        <v>6.147251961827589</v>
       </c>
       <c r="K18">
-        <v>9.241327230538275</v>
+        <v>12.03623727178526</v>
       </c>
       <c r="L18">
-        <v>11.67440870884606</v>
+        <v>7.302550185854822</v>
       </c>
       <c r="M18">
-        <v>15.02771612256948</v>
+        <v>10.77887680651377</v>
       </c>
       <c r="N18">
-        <v>19.9992375218706</v>
+        <v>12.60946068500389</v>
       </c>
       <c r="O18">
-        <v>24.47618166194173</v>
+        <v>15.08196630681092</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.41181504106611</v>
+        <v>14.65461329320294</v>
       </c>
       <c r="C19">
-        <v>9.381673043746078</v>
+        <v>7.347669277671769</v>
       </c>
       <c r="D19">
-        <v>9.673252793316692</v>
+        <v>6.815093382546718</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.78393626262351</v>
+        <v>21.37432819958601</v>
       </c>
       <c r="G19">
-        <v>33.81358654609235</v>
+        <v>23.26299614970159</v>
       </c>
       <c r="H19">
-        <v>15.65276393859005</v>
+        <v>9.195876970690948</v>
       </c>
       <c r="I19">
-        <v>24.94816100522516</v>
+        <v>14.93155086050198</v>
       </c>
       <c r="J19">
-        <v>10.72079692405542</v>
+        <v>6.150993795740752</v>
       </c>
       <c r="K19">
-        <v>9.227085586250606</v>
+        <v>11.99213477228682</v>
       </c>
       <c r="L19">
-        <v>11.67451346814874</v>
+        <v>7.294443133984756</v>
       </c>
       <c r="M19">
-        <v>15.02419574148647</v>
+        <v>10.75236582198711</v>
       </c>
       <c r="N19">
-        <v>20.00328670106951</v>
+        <v>12.62322298357965</v>
       </c>
       <c r="O19">
-        <v>24.48122043535181</v>
+        <v>15.08368324909999</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.49716903745965</v>
+        <v>14.93538874289143</v>
       </c>
       <c r="C20">
-        <v>9.387403495631798</v>
+        <v>7.371828100430141</v>
       </c>
       <c r="D20">
-        <v>9.679180681747386</v>
+        <v>6.878238195420454</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.76316745272194</v>
+        <v>21.43211538260444</v>
       </c>
       <c r="G20">
-        <v>33.78872905644204</v>
+        <v>23.34143457663131</v>
       </c>
       <c r="H20">
-        <v>15.63904508213181</v>
+        <v>9.176891605933893</v>
       </c>
       <c r="I20">
-        <v>24.92137061230218</v>
+        <v>14.88960092075308</v>
       </c>
       <c r="J20">
-        <v>10.7142710015627</v>
+        <v>6.134230496061947</v>
       </c>
       <c r="K20">
-        <v>9.291058153891784</v>
+        <v>12.18933844498268</v>
       </c>
       <c r="L20">
-        <v>11.67412549903156</v>
+        <v>7.331026883386278</v>
       </c>
       <c r="M20">
-        <v>15.04014163318761</v>
+        <v>10.87135177674987</v>
       </c>
       <c r="N20">
-        <v>19.98516661159002</v>
+        <v>12.56144609864325</v>
       </c>
       <c r="O20">
-        <v>24.45880482737179</v>
+        <v>15.07671203279703</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.78132750766042</v>
+        <v>15.84366149228616</v>
       </c>
       <c r="C21">
-        <v>9.406736199170068</v>
+        <v>7.45295191092248</v>
       </c>
       <c r="D21">
-        <v>9.700556701821</v>
+        <v>7.089133421803555</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>32.70025816736035</v>
+        <v>21.64457580016112</v>
       </c>
       <c r="G21">
-        <v>33.7142456893332</v>
+        <v>23.63172925000661</v>
       </c>
       <c r="H21">
-        <v>15.59515691148695</v>
+        <v>9.118903378453174</v>
       </c>
       <c r="I21">
-        <v>24.83551891303246</v>
+        <v>14.76029685811463</v>
       </c>
       <c r="J21">
-        <v>10.69310729721705</v>
+        <v>6.079221840003997</v>
       </c>
       <c r="K21">
-        <v>9.503775132746341</v>
+        <v>12.82976680910332</v>
       </c>
       <c r="L21">
-        <v>11.67427783709976</v>
+        <v>7.455641278558622</v>
       </c>
       <c r="M21">
-        <v>15.09550664920833</v>
+        <v>11.26527663699456</v>
       </c>
       <c r="N21">
-        <v>19.92606090331413</v>
+        <v>12.35654175570301</v>
       </c>
       <c r="O21">
-        <v>24.38803197444259</v>
+        <v>15.06684736116564</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.9647906587995</v>
+        <v>16.41130319761366</v>
       </c>
       <c r="C22">
-        <v>9.419425449236304</v>
+        <v>7.50591523472808</v>
       </c>
       <c r="D22">
-        <v>9.715599970144522</v>
+        <v>7.225812930350041</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>32.66426418827375</v>
+        <v>21.79732386985561</v>
       </c>
       <c r="G22">
-        <v>33.67231080662385</v>
+        <v>23.84181815563588</v>
       </c>
       <c r="H22">
-        <v>15.56811491335994</v>
+        <v>9.0854960641345</v>
       </c>
       <c r="I22">
-        <v>24.78250854136621</v>
+        <v>14.68486452688231</v>
       </c>
       <c r="J22">
-        <v>10.67984190700965</v>
+        <v>6.044243417996183</v>
       </c>
       <c r="K22">
-        <v>9.64092511187469</v>
+        <v>13.23176832254013</v>
       </c>
       <c r="L22">
-        <v>11.67545662571488</v>
+        <v>7.538263339578688</v>
       </c>
       <c r="M22">
-        <v>15.13299058122698</v>
+        <v>11.51801298967328</v>
       </c>
       <c r="N22">
-        <v>19.88875040220034</v>
+        <v>12.22453786608254</v>
       </c>
       <c r="O22">
-        <v>24.34516236344709</v>
+        <v>15.07092008945347</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.86709752861176</v>
+        <v>16.1107058804068</v>
       </c>
       <c r="C23">
-        <v>9.412648307189029</v>
+        <v>7.477654120555935</v>
       </c>
       <c r="D23">
-        <v>9.707473901096478</v>
+        <v>7.152982988293226</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>32.68300633872118</v>
+        <v>21.7145128941443</v>
       </c>
       <c r="G23">
-        <v>33.69407450199199</v>
+        <v>23.72780089526535</v>
       </c>
       <c r="H23">
-        <v>15.58239768293249</v>
+        <v>9.102904120165146</v>
       </c>
       <c r="I23">
-        <v>24.81051777718005</v>
+        <v>14.72426748069654</v>
       </c>
       <c r="J23">
-        <v>10.68687020472202</v>
+        <v>6.062823431906587</v>
       </c>
       <c r="K23">
-        <v>9.567910474906334</v>
+        <v>13.01872941655997</v>
       </c>
       <c r="L23">
-        <v>11.67472911945205</v>
+        <v>7.494063979540575</v>
       </c>
       <c r="M23">
-        <v>15.11286797752696</v>
+        <v>11.3835758054159</v>
       </c>
       <c r="N23">
-        <v>19.90854337428954</v>
+        <v>12.29482021853291</v>
       </c>
       <c r="O23">
-        <v>24.36773297294657</v>
+        <v>15.06775709361449</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.49249087553069</v>
+        <v>14.92010240077032</v>
       </c>
       <c r="C24">
-        <v>9.387088496616048</v>
+        <v>7.370501532663787</v>
       </c>
       <c r="D24">
-        <v>9.678849624689052</v>
+        <v>6.874774771776293</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.76428212806263</v>
+        <v>21.42887380476161</v>
       </c>
       <c r="G24">
-        <v>33.79006015337599</v>
+        <v>23.33702763062002</v>
       </c>
       <c r="H24">
-        <v>15.63979015413632</v>
+        <v>9.177912789925875</v>
       </c>
       <c r="I24">
-        <v>24.92282615588078</v>
+        <v>14.89186179937038</v>
       </c>
       <c r="J24">
-        <v>10.71462650040062</v>
+        <v>6.135146097964011</v>
       </c>
       <c r="K24">
-        <v>9.287552877577619</v>
+        <v>12.17859212188687</v>
       </c>
       <c r="L24">
-        <v>11.67414131293594</v>
+        <v>7.329011270126879</v>
       </c>
       <c r="M24">
-        <v>15.03925914642475</v>
+        <v>10.8648386891398</v>
       </c>
       <c r="N24">
-        <v>19.98615498958783</v>
+        <v>12.56482842277705</v>
       </c>
       <c r="O24">
-        <v>24.46001870514291</v>
+        <v>15.07704490833015</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.08072736502063</v>
+        <v>13.52313453704029</v>
       </c>
       <c r="C25">
-        <v>9.359781680636809</v>
+        <v>7.254820368183094</v>
       </c>
       <c r="D25">
-        <v>9.652672870553602</v>
+        <v>6.571147707453555</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>32.87393602921784</v>
+        <v>21.17871312270765</v>
       </c>
       <c r="G25">
-        <v>33.92247706163866</v>
+        <v>23.00003957038877</v>
       </c>
       <c r="H25">
-        <v>15.70875897359049</v>
+        <v>9.277033023139175</v>
       </c>
       <c r="I25">
-        <v>25.05728666596568</v>
+        <v>15.10907503978371</v>
       </c>
       <c r="J25">
-        <v>10.74701057020177</v>
+        <v>6.217375949171291</v>
       </c>
       <c r="K25">
-        <v>8.978534686889798</v>
+        <v>11.20168384315764</v>
       </c>
       <c r="L25">
-        <v>11.67817788266459</v>
+        <v>7.156597362323983</v>
       </c>
       <c r="M25">
-        <v>14.96565513343391</v>
+        <v>10.28745785238691</v>
       </c>
       <c r="N25">
-        <v>20.07556309353136</v>
+        <v>12.86472349086293</v>
       </c>
       <c r="O25">
-        <v>24.5740919278036</v>
+        <v>15.12954524137411</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_23/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.39611477345047</v>
+        <v>12.39529944911985</v>
       </c>
       <c r="C2">
-        <v>7.169704299427228</v>
+        <v>6.699525117677776</v>
       </c>
       <c r="D2">
-        <v>6.346221374363473</v>
+        <v>3.917548620840235</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21.04213030483748</v>
+        <v>30.15695551279513</v>
       </c>
       <c r="G2">
-        <v>22.82073016724136</v>
+        <v>39.00511916160004</v>
       </c>
       <c r="H2">
-        <v>9.364576115881059</v>
+        <v>4.220161417269496</v>
       </c>
       <c r="I2">
-        <v>15.29776930833014</v>
+        <v>4.679956641912155</v>
       </c>
       <c r="J2">
-        <v>6.281608013511321</v>
+        <v>13.12909607841481</v>
       </c>
       <c r="K2">
-        <v>10.42228525646101</v>
+        <v>21.69219386476771</v>
       </c>
       <c r="L2">
-        <v>7.035064534127403</v>
+        <v>6.057126472924875</v>
       </c>
       <c r="M2">
-        <v>9.849994117829603</v>
+        <v>10.5665602172935</v>
       </c>
       <c r="N2">
-        <v>13.09347908050487</v>
+        <v>6.521883050771655</v>
       </c>
       <c r="O2">
-        <v>15.2017936165208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>9.71939239085464</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.57017420703176</v>
+        <v>11.62490919189399</v>
       </c>
       <c r="C3">
-        <v>7.112137384304138</v>
+        <v>6.362515447810703</v>
       </c>
       <c r="D3">
-        <v>6.193875548540182</v>
+        <v>3.77746261870063</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.97797574543299</v>
+        <v>29.70563716063142</v>
       </c>
       <c r="G3">
-        <v>22.73984098101681</v>
+        <v>38.3217412817184</v>
       </c>
       <c r="H3">
-        <v>9.432475395845852</v>
+        <v>4.438753385432082</v>
       </c>
       <c r="I3">
-        <v>15.44240440150691</v>
+        <v>4.861205285225934</v>
       </c>
       <c r="J3">
-        <v>6.327468397360354</v>
+        <v>13.07134767576623</v>
       </c>
       <c r="K3">
-        <v>9.857238002779892</v>
+        <v>21.5627571572865</v>
       </c>
       <c r="L3">
-        <v>6.956363104814485</v>
+        <v>5.996410687693129</v>
       </c>
       <c r="M3">
-        <v>9.547625253162794</v>
+        <v>9.936030544566208</v>
       </c>
       <c r="N3">
-        <v>13.2537069659171</v>
+        <v>6.367177556995538</v>
       </c>
       <c r="O3">
-        <v>15.27025571505706</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.367241036195633</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.04309922023477</v>
+        <v>11.12546967649129</v>
       </c>
       <c r="C4">
-        <v>7.076877248159567</v>
+        <v>6.148739664675311</v>
       </c>
       <c r="D4">
-        <v>6.100717720046931</v>
+        <v>3.689954591215701</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.95212195451453</v>
+        <v>29.42924857891079</v>
       </c>
       <c r="G4">
-        <v>22.70936004759585</v>
+        <v>37.90143121694147</v>
       </c>
       <c r="H4">
-        <v>9.478233972573873</v>
+        <v>4.577832120693969</v>
       </c>
       <c r="I4">
-        <v>15.53911094235729</v>
+        <v>4.977053143256954</v>
       </c>
       <c r="J4">
-        <v>6.356785889315895</v>
+        <v>13.03758198748592</v>
       </c>
       <c r="K4">
-        <v>9.492461534354685</v>
+        <v>21.48409238029945</v>
       </c>
       <c r="L4">
-        <v>6.909937247309187</v>
+        <v>5.957604736348201</v>
       </c>
       <c r="M4">
-        <v>9.359750190142821</v>
+        <v>9.528065280809692</v>
       </c>
       <c r="N4">
-        <v>13.35472797029005</v>
+        <v>6.2709317285442</v>
       </c>
       <c r="O4">
-        <v>15.32143551405739</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>9.145395954081039</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.83480102694845</v>
+        <v>10.91357149621045</v>
       </c>
       <c r="C5">
-        <v>7.062534717204646</v>
+        <v>6.065222482613058</v>
       </c>
       <c r="D5">
-        <v>6.06290487364104</v>
+        <v>3.656049707597854</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.94491566316242</v>
+        <v>29.30309103642702</v>
       </c>
       <c r="G5">
-        <v>22.70162763552752</v>
+        <v>37.70617904511543</v>
       </c>
       <c r="H5">
-        <v>9.497881291319105</v>
+        <v>4.636146140915885</v>
       </c>
       <c r="I5">
-        <v>15.58045470416328</v>
+        <v>5.02771078003236</v>
       </c>
       <c r="J5">
-        <v>6.369025825511164</v>
+        <v>13.01973918657146</v>
       </c>
       <c r="K5">
-        <v>9.339394702021067</v>
+        <v>21.44211275479077</v>
       </c>
       <c r="L5">
-        <v>6.891508559137309</v>
+        <v>5.940679246165862</v>
       </c>
       <c r="M5">
-        <v>9.282744478394378</v>
+        <v>9.357915987039432</v>
       </c>
       <c r="N5">
-        <v>13.39656940068075</v>
+        <v>6.232648741655946</v>
       </c>
       <c r="O5">
-        <v>15.34452180822698</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>9.054167633378309</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.79984015395683</v>
+        <v>10.87579404652328</v>
       </c>
       <c r="C6">
-        <v>7.06015487127111</v>
+        <v>6.057756165130553</v>
       </c>
       <c r="D6">
-        <v>6.056636707013049</v>
+        <v>3.65296188106746</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20.94391787685118</v>
+        <v>29.26529302553596</v>
       </c>
       <c r="G6">
-        <v>22.70062275023782</v>
+        <v>37.64449151732634</v>
       </c>
       <c r="H6">
-        <v>9.501203489224892</v>
+        <v>4.646389685760907</v>
       </c>
       <c r="I6">
-        <v>15.5874352260446</v>
+        <v>5.039099047777164</v>
       </c>
       <c r="J6">
-        <v>6.371075983649302</v>
+        <v>13.011294051725</v>
       </c>
       <c r="K6">
-        <v>9.313713562289081</v>
+        <v>21.42276979216092</v>
       </c>
       <c r="L6">
-        <v>6.888478463449042</v>
+        <v>5.936960940448098</v>
       </c>
       <c r="M6">
-        <v>9.269934305388906</v>
+        <v>9.330945771623126</v>
       </c>
       <c r="N6">
-        <v>13.40355818436831</v>
+        <v>6.22777250262453</v>
       </c>
       <c r="O6">
-        <v>15.3484879661965</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>9.039529186539703</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.04031511993478</v>
+        <v>11.11675789418419</v>
       </c>
       <c r="C7">
-        <v>7.0766837073723</v>
+        <v>6.16508225220761</v>
       </c>
       <c r="D7">
-        <v>6.100207085053428</v>
+        <v>3.696397638714183</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.95201138953939</v>
+        <v>29.3817655968611</v>
       </c>
       <c r="G7">
-        <v>22.70923696563732</v>
+        <v>37.81940018713625</v>
       </c>
       <c r="H7">
-        <v>9.478494922017417</v>
+        <v>4.579917579406214</v>
       </c>
       <c r="I7">
-        <v>15.53966074971322</v>
+        <v>4.985429778349642</v>
       </c>
       <c r="J7">
-        <v>6.356949773920539</v>
+        <v>13.02235560130033</v>
       </c>
       <c r="K7">
-        <v>9.490415006662763</v>
+        <v>21.44982448868975</v>
       </c>
       <c r="L7">
-        <v>6.909686709982503</v>
+        <v>5.9549894407892</v>
       </c>
       <c r="M7">
-        <v>9.358713311497878</v>
+        <v>9.530063683899529</v>
       </c>
       <c r="N7">
-        <v>13.35528951337666</v>
+        <v>6.274473037358957</v>
       </c>
       <c r="O7">
-        <v>15.32173792464773</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>9.145739208783194</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.1177222120437</v>
+        <v>12.12791247723289</v>
       </c>
       <c r="C8">
-        <v>7.149840075208308</v>
+        <v>6.60659580120224</v>
       </c>
       <c r="D8">
-        <v>6.293644597178266</v>
+        <v>3.878287370949671</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21.01715656330477</v>
+        <v>29.94207802280846</v>
       </c>
       <c r="G8">
-        <v>22.78877875002462</v>
+        <v>38.6673230199836</v>
       </c>
       <c r="H8">
-        <v>9.38712949563889</v>
+        <v>4.296168838097582</v>
       </c>
       <c r="I8">
-        <v>15.34596801662138</v>
+        <v>4.751238359962364</v>
       </c>
       <c r="J8">
-        <v>6.29718094406384</v>
+        <v>13.08929045277217</v>
       </c>
       <c r="K8">
-        <v>10.23119412857729</v>
+        <v>21.60345414440355</v>
       </c>
       <c r="L8">
-        <v>7.007542716571982</v>
+        <v>6.03346381215147</v>
       </c>
       <c r="M8">
-        <v>9.746263332104105</v>
+        <v>10.35876819648684</v>
       </c>
       <c r="N8">
-        <v>13.14818411429599</v>
+        <v>6.474047189114236</v>
       </c>
       <c r="O8">
-        <v>15.22345954560184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.60114467008178</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.00889728788136</v>
+        <v>13.91726183061712</v>
       </c>
       <c r="C9">
-        <v>7.293788764954264</v>
+        <v>7.388814874642534</v>
       </c>
       <c r="D9">
-        <v>6.673755890705507</v>
+        <v>4.210049398510159</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.25542525138061</v>
+        <v>31.1222295508689</v>
       </c>
       <c r="G9">
-        <v>23.10258430186197</v>
+        <v>40.45559266758141</v>
       </c>
       <c r="H9">
-        <v>9.241311142398873</v>
+        <v>3.775313993505771</v>
       </c>
       <c r="I9">
-        <v>15.03127317083404</v>
+        <v>4.314927818107242</v>
       </c>
       <c r="J9">
-        <v>6.189107965764959</v>
+        <v>13.26041884377538</v>
       </c>
       <c r="K9">
-        <v>11.54015622377177</v>
+        <v>21.9699675328372</v>
       </c>
       <c r="L9">
-        <v>7.213872888040653</v>
+        <v>6.179472875165459</v>
       </c>
       <c r="M9">
-        <v>10.48408524152114</v>
+        <v>11.81099819883737</v>
       </c>
       <c r="N9">
-        <v>12.76250236321822</v>
+        <v>6.847138105456327</v>
       </c>
       <c r="O9">
-        <v>15.10644637264682</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.44275755009987</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.25205952781719</v>
+        <v>15.14309770253832</v>
       </c>
       <c r="C10">
-        <v>7.399599574666553</v>
+        <v>7.966633627615304</v>
       </c>
       <c r="D10">
-        <v>6.950637811756017</v>
+        <v>4.425381479329475</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>21.50174834023494</v>
+        <v>31.74262288142762</v>
       </c>
       <c r="G10">
-        <v>23.43627946758263</v>
+        <v>41.38374820604807</v>
       </c>
       <c r="H10">
-        <v>9.156066349025041</v>
+        <v>3.440246779639812</v>
       </c>
       <c r="I10">
-        <v>14.84337793824057</v>
+        <v>4.025759205049811</v>
       </c>
       <c r="J10">
-        <v>6.115186732051562</v>
+        <v>13.32163794388028</v>
       </c>
       <c r="K10">
-        <v>12.41220621553978</v>
+        <v>22.08922561367433</v>
       </c>
       <c r="L10">
-        <v>7.373395393625072</v>
+        <v>6.255225927659436</v>
       </c>
       <c r="M10">
-        <v>11.00716510676823</v>
+        <v>12.78948916263443</v>
       </c>
       <c r="N10">
-        <v>12.4908855914002</v>
+        <v>7.044278714963058</v>
       </c>
       <c r="O10">
-        <v>15.07104179670103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>10.97638005623475</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.78632411293335</v>
+        <v>15.63859220168094</v>
       </c>
       <c r="C11">
-        <v>7.447698026342533</v>
+        <v>8.50697516764617</v>
       </c>
       <c r="D11">
-        <v>7.075530643101762</v>
+        <v>4.344490578620067</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>21.63000391181563</v>
+        <v>30.05227701387498</v>
       </c>
       <c r="G11">
-        <v>23.61173999326369</v>
+        <v>38.81757333578388</v>
       </c>
       <c r="H11">
-        <v>9.122402726075252</v>
+        <v>4.036479339079491</v>
       </c>
       <c r="I11">
-        <v>14.76815507952487</v>
+        <v>3.962478215559754</v>
       </c>
       <c r="J11">
-        <v>6.082729490601696</v>
+        <v>12.76508370127629</v>
       </c>
       <c r="K11">
-        <v>12.78923214186481</v>
+        <v>20.92754391638059</v>
       </c>
       <c r="L11">
-        <v>7.447495920487059</v>
+        <v>6.140352370964639</v>
       </c>
       <c r="M11">
-        <v>11.24001872227963</v>
+        <v>13.31676432037964</v>
       </c>
       <c r="N11">
-        <v>12.36970635096906</v>
+        <v>6.550351713038164</v>
       </c>
       <c r="O11">
-        <v>15.06688207048429</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>10.77482838516683</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.98418055242682</v>
+        <v>15.81672353874135</v>
       </c>
       <c r="C12">
-        <v>7.465902593340623</v>
+        <v>8.835560438414893</v>
       </c>
       <c r="D12">
-        <v>7.122630013055393</v>
+        <v>4.220139653124781</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>21.68095165479042</v>
+        <v>28.56030074274856</v>
       </c>
       <c r="G12">
-        <v>23.68167139807364</v>
+        <v>36.56271877533049</v>
       </c>
       <c r="H12">
-        <v>9.110422818151022</v>
+        <v>5.094990580469787</v>
       </c>
       <c r="I12">
-        <v>14.74122021262475</v>
+        <v>3.951029028503857</v>
       </c>
       <c r="J12">
-        <v>6.070605646227949</v>
+        <v>12.30898770992039</v>
       </c>
       <c r="K12">
-        <v>12.92916351580954</v>
+        <v>19.99430138244784</v>
       </c>
       <c r="L12">
-        <v>7.475759825629067</v>
+        <v>6.109053740851284</v>
       </c>
       <c r="M12">
-        <v>11.3273908605222</v>
+        <v>13.56061238600283</v>
       </c>
       <c r="N12">
-        <v>12.32414768661709</v>
+        <v>6.114168733345156</v>
       </c>
       <c r="O12">
-        <v>15.06710522286658</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>10.48506499266581</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.94176630815904</v>
+        <v>15.76013269890123</v>
       </c>
       <c r="C13">
-        <v>7.46198239003701</v>
+        <v>9.049948872640162</v>
       </c>
       <c r="D13">
-        <v>7.112495619876152</v>
+        <v>4.061314960148272</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>21.66987254488217</v>
+        <v>27.05664103097523</v>
       </c>
       <c r="G13">
-        <v>23.6664540265695</v>
+        <v>34.27996751419022</v>
       </c>
       <c r="H13">
-        <v>9.1129682269236</v>
+        <v>6.330762832128673</v>
       </c>
       <c r="I13">
-        <v>14.74695090415148</v>
+        <v>3.991289637863142</v>
       </c>
       <c r="J13">
-        <v>6.073209324338885</v>
+        <v>11.88071939298256</v>
       </c>
       <c r="K13">
-        <v>12.89915321614712</v>
+        <v>19.13424478119664</v>
       </c>
       <c r="L13">
-        <v>7.469663896532361</v>
+        <v>6.134943498424197</v>
       </c>
       <c r="M13">
-        <v>11.30861053349463</v>
+        <v>13.6135909307626</v>
       </c>
       <c r="N13">
-        <v>12.33394512762136</v>
+        <v>5.705135361098184</v>
       </c>
       <c r="O13">
-        <v>15.06697589291938</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>10.10624123817422</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.80269101383321</v>
+        <v>15.61229807073381</v>
       </c>
       <c r="C14">
-        <v>7.449195935799432</v>
+        <v>9.157016940989626</v>
       </c>
       <c r="D14">
-        <v>7.079409670247247</v>
+        <v>3.934953882958993</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>21.63414744247635</v>
+        <v>25.99389821837694</v>
       </c>
       <c r="G14">
-        <v>23.61742292886806</v>
+        <v>32.65666727851645</v>
       </c>
       <c r="H14">
-        <v>9.121401553657828</v>
+        <v>7.253083949062454</v>
       </c>
       <c r="I14">
-        <v>14.76590760761225</v>
+        <v>4.045057046130597</v>
       </c>
       <c r="J14">
-        <v>6.081728714390556</v>
+        <v>11.59362481209743</v>
       </c>
       <c r="K14">
-        <v>12.80080134193374</v>
+        <v>18.56901757323211</v>
       </c>
       <c r="L14">
-        <v>7.449817223294858</v>
+        <v>6.187643400320207</v>
       </c>
       <c r="M14">
-        <v>11.24722338242147</v>
+        <v>13.56641112087514</v>
       </c>
       <c r="N14">
-        <v>12.36595168919139</v>
+        <v>5.442083949802873</v>
       </c>
       <c r="O14">
-        <v>15.06686392453458</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>9.797892345611068</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.71692391797762</v>
+        <v>15.52337417105005</v>
       </c>
       <c r="C15">
-        <v>7.441362536525838</v>
+        <v>9.164283733478459</v>
       </c>
       <c r="D15">
-        <v>7.059117006976859</v>
+        <v>3.898980247799675</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>21.61257615252133</v>
+        <v>25.71948924550096</v>
       </c>
       <c r="G15">
-        <v>23.58784660492585</v>
+        <v>32.2325898142632</v>
       </c>
       <c r="H15">
-        <v>9.126668183276667</v>
+        <v>7.474836071404003</v>
       </c>
       <c r="I15">
-        <v>14.77772337907137</v>
+        <v>4.073369288999841</v>
       </c>
       <c r="J15">
-        <v>6.086968800626656</v>
+        <v>11.52505425462278</v>
       </c>
       <c r="K15">
-        <v>12.74018788763569</v>
+        <v>18.43577816097682</v>
       </c>
       <c r="L15">
-        <v>7.437686587379518</v>
+        <v>6.20198253971316</v>
       </c>
       <c r="M15">
-        <v>11.20951523932433</v>
+        <v>13.51496019656834</v>
       </c>
       <c r="N15">
-        <v>12.38559912014012</v>
+        <v>5.381326015893655</v>
       </c>
       <c r="O15">
-        <v>15.06703193852699</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>9.704569635591348</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.21651824662998</v>
+        <v>15.02908649969011</v>
       </c>
       <c r="C16">
-        <v>7.396455151486045</v>
+        <v>8.907454090549106</v>
       </c>
       <c r="D16">
-        <v>6.942450721238169</v>
+        <v>3.837715380040574</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>21.49369698604122</v>
+        <v>25.7105589633668</v>
       </c>
       <c r="G16">
-        <v>23.42529642762165</v>
+        <v>32.20705527043586</v>
       </c>
       <c r="H16">
-        <v>9.158371989335789</v>
+        <v>7.332217270375296</v>
       </c>
       <c r="I16">
-        <v>14.84850663620616</v>
+        <v>4.193562989449184</v>
       </c>
       <c r="J16">
-        <v>6.117331325216661</v>
+        <v>11.5766974079553</v>
       </c>
       <c r="K16">
-        <v>12.38716969779989</v>
+        <v>18.54214550065667</v>
       </c>
       <c r="L16">
-        <v>7.368582158654122</v>
+        <v>6.158265512255888</v>
       </c>
       <c r="M16">
-        <v>10.99183869454055</v>
+        <v>13.11139733732305</v>
       </c>
       <c r="N16">
-        <v>12.49885173860528</v>
+        <v>5.374735700099691</v>
       </c>
       <c r="O16">
-        <v>15.07156089922439</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>9.54260980684785</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.90155602732713</v>
+        <v>14.72332686188807</v>
       </c>
       <c r="C17">
-        <v>7.36889379510419</v>
+        <v>8.646349354796374</v>
       </c>
       <c r="D17">
-        <v>6.870576653976959</v>
+        <v>3.859776848730701</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>21.4249556929941</v>
+        <v>26.26785478520726</v>
       </c>
       <c r="G17">
-        <v>23.33170198336183</v>
+        <v>33.05164430489827</v>
       </c>
       <c r="H17">
-        <v>9.179153697482256</v>
+        <v>6.712236414014377</v>
       </c>
       <c r="I17">
-        <v>14.89460844296828</v>
+        <v>4.257967592197357</v>
       </c>
       <c r="J17">
-        <v>6.136256509209221</v>
+        <v>11.76685244979134</v>
       </c>
       <c r="K17">
-        <v>12.16555550060674</v>
+        <v>18.91658324019807</v>
       </c>
       <c r="L17">
-        <v>7.326569476874553</v>
+        <v>6.09031596830981</v>
       </c>
       <c r="M17">
-        <v>10.85694196810298</v>
+        <v>12.82114563034404</v>
       </c>
       <c r="N17">
-        <v>12.56892913860374</v>
+        <v>5.505235912489035</v>
       </c>
       <c r="O17">
-        <v>15.07745603052816</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>9.586324635805456</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.71745389015494</v>
+        <v>14.55739670665207</v>
       </c>
       <c r="C18">
-        <v>7.353038132908661</v>
+        <v>8.34438748083298</v>
       </c>
       <c r="D18">
-        <v>6.829138922329432</v>
+        <v>3.951367362836097</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>21.38693986363816</v>
+        <v>27.42283463780538</v>
       </c>
       <c r="G18">
-        <v>23.2800915972333</v>
+        <v>34.8169300856594</v>
       </c>
       <c r="H18">
-        <v>9.191586171258068</v>
+        <v>5.673926617651728</v>
       </c>
       <c r="I18">
-        <v>14.92208509222397</v>
+        <v>4.270856735475391</v>
       </c>
       <c r="J18">
-        <v>6.147251961827589</v>
+        <v>12.1146761639711</v>
       </c>
       <c r="K18">
-        <v>12.03623727178526</v>
+        <v>19.61019897304015</v>
       </c>
       <c r="L18">
-        <v>7.302550185854822</v>
+        <v>6.031923382829688</v>
       </c>
       <c r="M18">
-        <v>10.77887680651377</v>
+        <v>12.59878143836666</v>
       </c>
       <c r="N18">
-        <v>12.60946068500389</v>
+        <v>5.79325342350205</v>
       </c>
       <c r="O18">
-        <v>15.08196630681092</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>9.810420294676952</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.65461329320294</v>
+        <v>14.51013562644655</v>
       </c>
       <c r="C19">
-        <v>7.347669277671769</v>
+        <v>8.075302636620583</v>
       </c>
       <c r="D19">
-        <v>6.815093382546718</v>
+        <v>4.101532266501493</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>21.37432819958601</v>
+        <v>28.92512257533161</v>
       </c>
       <c r="G19">
-        <v>23.26299614970159</v>
+        <v>37.09747949616719</v>
       </c>
       <c r="H19">
-        <v>9.195876970690948</v>
+        <v>4.54616466992127</v>
       </c>
       <c r="I19">
-        <v>14.93155086050198</v>
+        <v>4.253569524170854</v>
       </c>
       <c r="J19">
-        <v>6.150993795740752</v>
+        <v>12.55155599238711</v>
       </c>
       <c r="K19">
-        <v>11.99213477228682</v>
+        <v>20.49510479226185</v>
       </c>
       <c r="L19">
-        <v>7.294443133984756</v>
+        <v>6.042324238168016</v>
       </c>
       <c r="M19">
-        <v>10.75236582198711</v>
+        <v>12.45926304492737</v>
       </c>
       <c r="N19">
-        <v>12.62322298357965</v>
+        <v>6.225090778189649</v>
       </c>
       <c r="O19">
-        <v>15.08368324909999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>10.16143401539628</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.93538874289143</v>
+        <v>14.81534627233378</v>
       </c>
       <c r="C20">
-        <v>7.371828100430141</v>
+        <v>7.863996063584161</v>
       </c>
       <c r="D20">
-        <v>6.878238195420454</v>
+        <v>4.386726768431499</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>21.43211538260444</v>
+        <v>31.4395962734728</v>
       </c>
       <c r="G20">
-        <v>23.34143457663131</v>
+        <v>40.90159046836177</v>
       </c>
       <c r="H20">
-        <v>9.176891605933893</v>
+        <v>3.530413470874471</v>
       </c>
       <c r="I20">
-        <v>14.88960092075308</v>
+        <v>4.125528966200938</v>
       </c>
       <c r="J20">
-        <v>6.134230496061947</v>
+        <v>13.25791095622261</v>
       </c>
       <c r="K20">
-        <v>12.18933844498268</v>
+        <v>21.95257080178488</v>
       </c>
       <c r="L20">
-        <v>7.331026883386278</v>
+        <v>6.228229864845196</v>
       </c>
       <c r="M20">
-        <v>10.87135177674987</v>
+        <v>12.55062489939238</v>
       </c>
       <c r="N20">
-        <v>12.56144609864325</v>
+        <v>7.001171647895877</v>
       </c>
       <c r="O20">
-        <v>15.07671203279703</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>10.84017780332708</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.84366149228616</v>
+        <v>15.71829257210079</v>
       </c>
       <c r="C21">
-        <v>7.45295191092248</v>
+        <v>8.239232641158683</v>
       </c>
       <c r="D21">
-        <v>7.089133421803555</v>
+        <v>4.577184852285267</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>21.64457580016112</v>
+        <v>32.28876538281887</v>
       </c>
       <c r="G21">
-        <v>23.63172925000661</v>
+        <v>42.18041618699615</v>
       </c>
       <c r="H21">
-        <v>9.118903378453174</v>
+        <v>3.240768209427003</v>
       </c>
       <c r="I21">
-        <v>14.76029685811463</v>
+        <v>3.895510055942355</v>
       </c>
       <c r="J21">
-        <v>6.079221840003997</v>
+        <v>13.41980991765035</v>
       </c>
       <c r="K21">
-        <v>12.82976680910332</v>
+        <v>22.28054307011115</v>
       </c>
       <c r="L21">
-        <v>7.455641278558622</v>
+        <v>6.322119011154497</v>
       </c>
       <c r="M21">
-        <v>11.26527663699456</v>
+        <v>13.24891166930487</v>
       </c>
       <c r="N21">
-        <v>12.35654175570301</v>
+        <v>7.255876215209716</v>
       </c>
       <c r="O21">
-        <v>15.06684736116564</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.31514809158247</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.41130319761366</v>
+        <v>16.28657868530011</v>
       </c>
       <c r="C22">
-        <v>7.50591523472808</v>
+        <v>8.476624956756678</v>
       </c>
       <c r="D22">
-        <v>7.225812930350041</v>
+        <v>4.681378686321183</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>21.79732386985561</v>
+        <v>32.77989430746231</v>
       </c>
       <c r="G22">
-        <v>23.84181815563588</v>
+        <v>42.92854807685191</v>
       </c>
       <c r="H22">
-        <v>9.0854960641345</v>
+        <v>3.066004303410508</v>
       </c>
       <c r="I22">
-        <v>14.68486452688231</v>
+        <v>3.741551319015125</v>
       </c>
       <c r="J22">
-        <v>6.044243417996183</v>
+        <v>13.51153494742704</v>
       </c>
       <c r="K22">
-        <v>13.23176832254013</v>
+        <v>22.46551637039011</v>
       </c>
       <c r="L22">
-        <v>7.538263339578688</v>
+        <v>6.372938920098996</v>
       </c>
       <c r="M22">
-        <v>11.51801298967328</v>
+        <v>13.68883562987789</v>
       </c>
       <c r="N22">
-        <v>12.22453786608254</v>
+        <v>7.379700180268453</v>
       </c>
       <c r="O22">
-        <v>15.07092008945347</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>11.59068425578672</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.1107058804068</v>
+        <v>15.99122590377139</v>
       </c>
       <c r="C23">
-        <v>7.477654120555935</v>
+        <v>8.334299102025348</v>
       </c>
       <c r="D23">
-        <v>7.152982988293226</v>
+        <v>4.619377116372133</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>21.7145128941443</v>
+        <v>32.56593028237378</v>
       </c>
       <c r="G23">
-        <v>23.72780089526535</v>
+        <v>42.61189247471869</v>
       </c>
       <c r="H23">
-        <v>9.102904120165146</v>
+        <v>3.157716335482063</v>
       </c>
       <c r="I23">
-        <v>14.72426748069654</v>
+        <v>3.813616709334564</v>
       </c>
       <c r="J23">
-        <v>6.062823431906587</v>
+        <v>13.47890380456401</v>
       </c>
       <c r="K23">
-        <v>13.01872941655997</v>
+        <v>22.40368902017958</v>
       </c>
       <c r="L23">
-        <v>7.494063979540575</v>
+        <v>6.348332599751365</v>
       </c>
       <c r="M23">
-        <v>11.3835758054159</v>
+        <v>13.45194258565747</v>
       </c>
       <c r="N23">
-        <v>12.29482021853291</v>
+        <v>7.309580299769904</v>
       </c>
       <c r="O23">
-        <v>15.06775709361449</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.44292811096443</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.92010240077032</v>
+        <v>14.81144586659243</v>
       </c>
       <c r="C24">
-        <v>7.370501532663787</v>
+        <v>7.807799373379947</v>
       </c>
       <c r="D24">
-        <v>6.874774771776293</v>
+        <v>4.390206475649106</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>21.42887380476161</v>
+        <v>31.67829398335502</v>
       </c>
       <c r="G24">
-        <v>23.33702763062002</v>
+        <v>41.27758746935099</v>
       </c>
       <c r="H24">
-        <v>9.177912789925875</v>
+        <v>3.514105266587177</v>
       </c>
       <c r="I24">
-        <v>14.89186179937038</v>
+        <v>4.109181666026292</v>
       </c>
       <c r="J24">
-        <v>6.135146097964011</v>
+        <v>13.33327641719672</v>
       </c>
       <c r="K24">
-        <v>12.17859212188687</v>
+        <v>22.11383920129541</v>
       </c>
       <c r="L24">
-        <v>7.329011270126879</v>
+        <v>6.249082903588638</v>
       </c>
       <c r="M24">
-        <v>10.8648386891398</v>
+        <v>12.52362991436812</v>
       </c>
       <c r="N24">
-        <v>12.56482842277705</v>
+        <v>7.046555862983768</v>
       </c>
       <c r="O24">
-        <v>15.07704490833015</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>10.87056812254495</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.52313453704029</v>
+        <v>13.44076524031175</v>
       </c>
       <c r="C25">
-        <v>7.254820368183094</v>
+        <v>7.210813015548934</v>
       </c>
       <c r="D25">
-        <v>6.571147707453555</v>
+        <v>4.133078615075505</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.17871312270765</v>
+        <v>30.72524328181542</v>
       </c>
       <c r="G25">
-        <v>23.00003957038877</v>
+        <v>39.83936456956305</v>
       </c>
       <c r="H25">
-        <v>9.277033023139175</v>
+        <v>3.914386189987453</v>
       </c>
       <c r="I25">
-        <v>15.10907503978371</v>
+        <v>4.44293062699499</v>
       </c>
       <c r="J25">
-        <v>6.217375949171291</v>
+        <v>13.18651410594792</v>
       </c>
       <c r="K25">
-        <v>11.20168384315764</v>
+        <v>21.81149057176724</v>
       </c>
       <c r="L25">
-        <v>7.156597362323983</v>
+        <v>6.137271183026119</v>
       </c>
       <c r="M25">
-        <v>10.28745785238691</v>
+        <v>11.4425475274259</v>
       </c>
       <c r="N25">
-        <v>12.86472349086293</v>
+        <v>6.754467443749683</v>
       </c>
       <c r="O25">
-        <v>15.12954524137411</v>
+        <v>10.22328900738645</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_23/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.39529944911985</v>
+        <v>12.27480413747508</v>
       </c>
       <c r="C2">
-        <v>6.699525117677776</v>
+        <v>6.840226582989721</v>
       </c>
       <c r="D2">
-        <v>3.917548620840235</v>
+        <v>4.233110224496003</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.15695551279513</v>
+        <v>28.22154415906945</v>
       </c>
       <c r="G2">
-        <v>39.00511916160004</v>
+        <v>35.77481870054166</v>
       </c>
       <c r="H2">
-        <v>4.220161417269496</v>
+        <v>3.97157124494526</v>
       </c>
       <c r="I2">
-        <v>4.679956641912155</v>
+        <v>4.365665678742666</v>
       </c>
       <c r="J2">
-        <v>13.12909607841481</v>
+        <v>12.36263241186763</v>
       </c>
       <c r="K2">
-        <v>21.69219386476771</v>
+        <v>20.00117053105063</v>
       </c>
       <c r="L2">
-        <v>6.057126472924875</v>
+        <v>15.27586186655398</v>
       </c>
       <c r="M2">
-        <v>10.5665602172935</v>
+        <v>14.33438974945929</v>
       </c>
       <c r="N2">
-        <v>6.521883050771655</v>
+        <v>5.969560371506256</v>
       </c>
       <c r="O2">
-        <v>9.71939239085464</v>
+        <v>10.77609489559328</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.865207798607097</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.733388986827949</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.62490919189399</v>
+        <v>11.48452381060814</v>
       </c>
       <c r="C3">
-        <v>6.362515447810703</v>
+        <v>6.412539249244991</v>
       </c>
       <c r="D3">
-        <v>3.77746261870063</v>
+        <v>4.076062436247593</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>29.70563716063142</v>
+        <v>27.92320499289895</v>
       </c>
       <c r="G3">
-        <v>38.3217412817184</v>
+        <v>35.42841193196662</v>
       </c>
       <c r="H3">
-        <v>4.438753385432082</v>
+        <v>4.171823628819365</v>
       </c>
       <c r="I3">
-        <v>4.861205285225934</v>
+        <v>4.52438773355376</v>
       </c>
       <c r="J3">
-        <v>13.07134767576623</v>
+        <v>12.30760302254564</v>
       </c>
       <c r="K3">
-        <v>21.5627571572865</v>
+        <v>19.98132123974931</v>
       </c>
       <c r="L3">
-        <v>5.996410687693129</v>
+        <v>15.33827001745954</v>
       </c>
       <c r="M3">
-        <v>9.936030544566208</v>
+        <v>14.27804123043562</v>
       </c>
       <c r="N3">
-        <v>6.367177556995538</v>
+        <v>5.918969409839191</v>
       </c>
       <c r="O3">
-        <v>9.367241036195633</v>
+        <v>10.13640848788044</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.70652354213253</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.370222797834272</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.12546967649129</v>
+        <v>10.96919107485055</v>
       </c>
       <c r="C4">
-        <v>6.148739664675311</v>
+        <v>6.139679909593683</v>
       </c>
       <c r="D4">
-        <v>3.689954591215701</v>
+        <v>3.978049618547217</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>29.42924857891079</v>
+        <v>27.74113836103065</v>
       </c>
       <c r="G4">
-        <v>37.90143121694147</v>
+        <v>35.22065288541496</v>
       </c>
       <c r="H4">
-        <v>4.577832120693969</v>
+        <v>4.29930892211677</v>
       </c>
       <c r="I4">
-        <v>4.977053143256954</v>
+        <v>4.62612710047326</v>
       </c>
       <c r="J4">
-        <v>13.03758198748592</v>
+        <v>12.27344993750243</v>
       </c>
       <c r="K4">
-        <v>21.48409238029945</v>
+        <v>19.96951349718342</v>
       </c>
       <c r="L4">
-        <v>5.957604736348201</v>
+        <v>15.37361908251739</v>
       </c>
       <c r="M4">
-        <v>9.528065280809692</v>
+        <v>14.25766659908203</v>
       </c>
       <c r="N4">
-        <v>6.2709317285442</v>
+        <v>5.88656150836869</v>
       </c>
       <c r="O4">
-        <v>9.145395954081039</v>
+        <v>9.722642158495857</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.608157846555372</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.140997349816296</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.91357149621045</v>
+        <v>10.74975596629516</v>
       </c>
       <c r="C5">
-        <v>6.065222482613058</v>
+        <v>6.031967786915239</v>
       </c>
       <c r="D5">
-        <v>3.656049707597854</v>
+        <v>3.93970249244747</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>29.30309103642702</v>
+        <v>27.6547666663048</v>
       </c>
       <c r="G5">
-        <v>37.70617904511543</v>
+        <v>35.11586658056615</v>
       </c>
       <c r="H5">
-        <v>4.636146140915885</v>
+        <v>4.352779560659898</v>
       </c>
       <c r="I5">
-        <v>5.02771078003236</v>
+        <v>4.671313547032036</v>
       </c>
       <c r="J5">
-        <v>13.01973918657146</v>
+        <v>12.25526219678505</v>
       </c>
       <c r="K5">
-        <v>21.44211275479077</v>
+        <v>19.95590704863229</v>
       </c>
       <c r="L5">
-        <v>5.940679246165862</v>
+        <v>15.3791391056758</v>
       </c>
       <c r="M5">
-        <v>9.357915987039432</v>
+        <v>14.24761462279059</v>
       </c>
       <c r="N5">
-        <v>6.232648741655946</v>
+        <v>5.872409626223845</v>
       </c>
       <c r="O5">
-        <v>9.054167633378309</v>
+        <v>9.550005931376335</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.568988067369625</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.046575982470388</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.87579404652328</v>
+        <v>10.71060521270383</v>
       </c>
       <c r="C6">
-        <v>6.057756165130553</v>
+        <v>6.021313456066587</v>
       </c>
       <c r="D6">
-        <v>3.65296188106746</v>
+        <v>3.935690322578626</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>29.26529302553596</v>
+        <v>27.62518152924147</v>
       </c>
       <c r="G6">
-        <v>37.64449151732634</v>
+        <v>35.07245140410251</v>
       </c>
       <c r="H6">
-        <v>4.646389685760907</v>
+        <v>4.362173654225453</v>
       </c>
       <c r="I6">
-        <v>5.039099047777164</v>
+        <v>4.682251609418811</v>
       </c>
       <c r="J6">
-        <v>13.011294051725</v>
+        <v>12.24712607907512</v>
       </c>
       <c r="K6">
-        <v>21.42276979216092</v>
+        <v>19.94280437314112</v>
       </c>
       <c r="L6">
-        <v>5.936960940448098</v>
+        <v>15.37008283724961</v>
       </c>
       <c r="M6">
-        <v>9.330945771623126</v>
+        <v>14.23963040785165</v>
       </c>
       <c r="N6">
-        <v>6.22777250262453</v>
+        <v>5.869302913296037</v>
       </c>
       <c r="O6">
-        <v>9.039529186539703</v>
+        <v>9.52250825823287</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.563835801128429</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.031356025586403</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.11675789418419</v>
+        <v>10.96174764076141</v>
       </c>
       <c r="C7">
-        <v>6.16508225220761</v>
+        <v>6.150409400105626</v>
       </c>
       <c r="D7">
-        <v>3.696397638714183</v>
+        <v>3.990205555223266</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>29.3817655968611</v>
+        <v>27.67491702580928</v>
       </c>
       <c r="G7">
-        <v>37.81940018713625</v>
+        <v>35.19670497528934</v>
       </c>
       <c r="H7">
-        <v>4.579917579406214</v>
+        <v>4.301866651197001</v>
       </c>
       <c r="I7">
-        <v>4.985429778349642</v>
+        <v>4.63627995450472</v>
       </c>
       <c r="J7">
-        <v>13.02235560130033</v>
+        <v>12.21652212079542</v>
       </c>
       <c r="K7">
-        <v>21.44982448868975</v>
+        <v>19.92597638383652</v>
       </c>
       <c r="L7">
-        <v>5.9549894407892</v>
+        <v>15.33468895554178</v>
       </c>
       <c r="M7">
-        <v>9.530063683899529</v>
+        <v>14.23070246425773</v>
       </c>
       <c r="N7">
-        <v>6.274473037358957</v>
+        <v>5.883840968034374</v>
       </c>
       <c r="O7">
-        <v>9.145739208783194</v>
+        <v>9.72217563604622</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.611359911407614</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.142053475074308</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.12791247723289</v>
+        <v>12.00579830990789</v>
       </c>
       <c r="C8">
-        <v>6.60659580120224</v>
+        <v>6.695848717122003</v>
       </c>
       <c r="D8">
-        <v>3.878287370949671</v>
+        <v>4.207441445491355</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>29.94207802280846</v>
+        <v>27.98838054360252</v>
       </c>
       <c r="G8">
-        <v>38.6673230199836</v>
+        <v>35.72260236801948</v>
       </c>
       <c r="H8">
-        <v>4.296168838097582</v>
+        <v>4.043169210480918</v>
       </c>
       <c r="I8">
-        <v>4.751238359962364</v>
+        <v>4.432740777731349</v>
       </c>
       <c r="J8">
-        <v>13.08929045277217</v>
+        <v>12.1865549615555</v>
       </c>
       <c r="K8">
-        <v>21.60345414440355</v>
+        <v>19.91090776997267</v>
       </c>
       <c r="L8">
-        <v>6.03346381215147</v>
+        <v>15.22690306606525</v>
       </c>
       <c r="M8">
-        <v>10.35876819648684</v>
+        <v>14.25636111749279</v>
       </c>
       <c r="N8">
-        <v>6.474047189114236</v>
+        <v>5.948198613851406</v>
       </c>
       <c r="O8">
-        <v>9.60114467008178</v>
+        <v>10.55827942871047</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.815622093629055</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.61403190213988</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.91726183061712</v>
+        <v>13.81950346416267</v>
       </c>
       <c r="C9">
-        <v>7.388814874642534</v>
+        <v>7.678954854298945</v>
       </c>
       <c r="D9">
-        <v>4.210049398510159</v>
+        <v>4.584775952841811</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>31.1222295508689</v>
+        <v>28.76920490322455</v>
       </c>
       <c r="G9">
-        <v>40.45559266758141</v>
+        <v>36.73843149169036</v>
       </c>
       <c r="H9">
-        <v>3.775313993505771</v>
+        <v>3.566785501428674</v>
       </c>
       <c r="I9">
-        <v>4.314927818107242</v>
+        <v>4.050224227813807</v>
       </c>
       <c r="J9">
-        <v>13.26041884377538</v>
+        <v>12.30268468849627</v>
       </c>
       <c r="K9">
-        <v>21.9699675328372</v>
+        <v>19.98668239222461</v>
       </c>
       <c r="L9">
-        <v>6.179472875165459</v>
+        <v>15.0805051714571</v>
       </c>
       <c r="M9">
-        <v>11.81099819883737</v>
+        <v>14.48508557659698</v>
       </c>
       <c r="N9">
-        <v>6.847138105456327</v>
+        <v>6.069227325837854</v>
       </c>
       <c r="O9">
-        <v>10.44275755009987</v>
+        <v>12.03132873827342</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.20067467935298</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.48008684534036</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.14309770253832</v>
+        <v>15.01351293897354</v>
       </c>
       <c r="C10">
-        <v>7.966633627615304</v>
+        <v>8.348303110373436</v>
       </c>
       <c r="D10">
-        <v>4.425381479329475</v>
+        <v>4.858488328989799</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>31.74262288142762</v>
+        <v>29.01486515192239</v>
       </c>
       <c r="G10">
-        <v>41.38374820604807</v>
+        <v>37.47270675712046</v>
       </c>
       <c r="H10">
-        <v>3.440246779639812</v>
+        <v>3.265324045449441</v>
       </c>
       <c r="I10">
-        <v>4.025759205049811</v>
+        <v>3.802178580886101</v>
       </c>
       <c r="J10">
-        <v>13.32163794388028</v>
+        <v>12.09683109472304</v>
       </c>
       <c r="K10">
-        <v>22.08922561367433</v>
+        <v>19.85003986996026</v>
       </c>
       <c r="L10">
-        <v>6.255225927659436</v>
+        <v>14.8115741602198</v>
       </c>
       <c r="M10">
-        <v>12.78948916263443</v>
+        <v>14.57010040870561</v>
       </c>
       <c r="N10">
-        <v>7.044278714963058</v>
+        <v>6.130929840355652</v>
       </c>
       <c r="O10">
-        <v>10.97638005623475</v>
+        <v>13.01160389641782</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.404624201696971</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>11.03115222925346</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.63859220168094</v>
+        <v>15.53570026441236</v>
       </c>
       <c r="C11">
-        <v>8.50697516764617</v>
+        <v>8.817352442010149</v>
       </c>
       <c r="D11">
-        <v>4.344490578620067</v>
+        <v>4.814818144060256</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>30.05227701387498</v>
+        <v>27.2588584984872</v>
       </c>
       <c r="G11">
-        <v>38.81757333578388</v>
+        <v>35.78052061311598</v>
       </c>
       <c r="H11">
-        <v>4.036479339079491</v>
+        <v>3.898797791024826</v>
       </c>
       <c r="I11">
-        <v>3.962478215559754</v>
+        <v>3.755934818852685</v>
       </c>
       <c r="J11">
-        <v>12.76508370127629</v>
+        <v>11.20603626042444</v>
       </c>
       <c r="K11">
-        <v>20.92754391638059</v>
+        <v>18.73188043819995</v>
       </c>
       <c r="L11">
-        <v>6.140352370964639</v>
+        <v>13.91137438681389</v>
       </c>
       <c r="M11">
-        <v>13.31676432037964</v>
+        <v>13.79541301433327</v>
       </c>
       <c r="N11">
-        <v>6.550351713038164</v>
+        <v>6.054893797439131</v>
       </c>
       <c r="O11">
-        <v>10.77482838516683</v>
+        <v>13.50458667468992</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.885551375775813</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.8331964295105</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.81672353874135</v>
+        <v>15.73861390278351</v>
       </c>
       <c r="C12">
-        <v>8.835560438414893</v>
+        <v>9.077100805633302</v>
       </c>
       <c r="D12">
-        <v>4.220139653124781</v>
+        <v>4.689709238066585</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>28.56030074274856</v>
+        <v>25.87051782056972</v>
       </c>
       <c r="G12">
-        <v>36.56271877533049</v>
+        <v>34.10734308887918</v>
       </c>
       <c r="H12">
-        <v>5.094990580469787</v>
+        <v>4.986996821126963</v>
       </c>
       <c r="I12">
-        <v>3.951029028503857</v>
+        <v>3.746848396069615</v>
       </c>
       <c r="J12">
-        <v>12.30898770992039</v>
+        <v>10.70154815110936</v>
       </c>
       <c r="K12">
-        <v>19.99430138244784</v>
+        <v>17.93855531245713</v>
       </c>
       <c r="L12">
-        <v>6.109053740851284</v>
+        <v>13.31624097312241</v>
       </c>
       <c r="M12">
-        <v>13.56061238600283</v>
+        <v>13.19902551102755</v>
       </c>
       <c r="N12">
-        <v>6.114168733345156</v>
+        <v>6.057122696283708</v>
       </c>
       <c r="O12">
-        <v>10.48506499266581</v>
+        <v>13.72444927111157</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.425791315828583</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.5407432274702</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.76013269890123</v>
+        <v>15.70493375663713</v>
       </c>
       <c r="C13">
-        <v>9.049948872640162</v>
+        <v>9.239211888084553</v>
       </c>
       <c r="D13">
-        <v>4.061314960148272</v>
+        <v>4.488175758219526</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>27.05664103097523</v>
+        <v>24.65874573294063</v>
       </c>
       <c r="G13">
-        <v>34.27996751419022</v>
+        <v>32.11993152697904</v>
       </c>
       <c r="H13">
-        <v>6.330762832128673</v>
+        <v>6.239044422960147</v>
       </c>
       <c r="I13">
-        <v>3.991289637863142</v>
+        <v>3.779626943131695</v>
       </c>
       <c r="J13">
-        <v>11.88071939298256</v>
+        <v>10.4685456393243</v>
       </c>
       <c r="K13">
-        <v>19.13424478119664</v>
+        <v>17.32454380151306</v>
       </c>
       <c r="L13">
-        <v>6.134943498424197</v>
+        <v>12.8833649167479</v>
       </c>
       <c r="M13">
-        <v>13.6135909307626</v>
+        <v>12.69934819031507</v>
       </c>
       <c r="N13">
-        <v>5.705135361098184</v>
+        <v>6.112987603121713</v>
       </c>
       <c r="O13">
-        <v>10.10624123817422</v>
+        <v>13.76290533592719</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.992980772385738</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.15216002678976</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.61229807073381</v>
+        <v>15.57275247331568</v>
       </c>
       <c r="C14">
-        <v>9.157016940989626</v>
+        <v>9.316365056783107</v>
       </c>
       <c r="D14">
-        <v>3.934953882958993</v>
+        <v>4.314302155680416</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>25.99389821837694</v>
+        <v>23.8775907996915</v>
       </c>
       <c r="G14">
-        <v>32.65666727851645</v>
+        <v>30.59232394997779</v>
       </c>
       <c r="H14">
-        <v>7.253083949062454</v>
+        <v>7.167878167260848</v>
       </c>
       <c r="I14">
-        <v>4.045057046130597</v>
+        <v>3.824296417202264</v>
       </c>
       <c r="J14">
-        <v>11.59362481209743</v>
+        <v>10.40182742994721</v>
       </c>
       <c r="K14">
-        <v>18.56901757323211</v>
+        <v>16.96937818125107</v>
       </c>
       <c r="L14">
-        <v>6.187643400320207</v>
+        <v>12.64205999788389</v>
       </c>
       <c r="M14">
-        <v>13.56641112087514</v>
+        <v>12.3941529543956</v>
       </c>
       <c r="N14">
-        <v>5.442083949802873</v>
+        <v>6.18314219647006</v>
       </c>
       <c r="O14">
-        <v>9.797892345611068</v>
+        <v>13.7093185980597</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.713675601656449</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.833618127624066</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.52337417105005</v>
+        <v>15.48762530467961</v>
       </c>
       <c r="C15">
-        <v>9.164283733478459</v>
+        <v>9.320051739046145</v>
       </c>
       <c r="D15">
-        <v>3.898980247799675</v>
+        <v>4.25930948069954</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>25.71948924550096</v>
+        <v>23.70519436277021</v>
       </c>
       <c r="G15">
-        <v>32.2325898142632</v>
+        <v>30.15066121851656</v>
       </c>
       <c r="H15">
-        <v>7.474836071404003</v>
+        <v>7.389755320334826</v>
       </c>
       <c r="I15">
-        <v>4.073369288999841</v>
+        <v>3.848914217368221</v>
       </c>
       <c r="J15">
-        <v>11.52505425462278</v>
+        <v>10.42228067256099</v>
       </c>
       <c r="K15">
-        <v>18.43577816097682</v>
+        <v>16.90453631781399</v>
       </c>
       <c r="L15">
-        <v>6.20198253971316</v>
+        <v>12.60074611474378</v>
       </c>
       <c r="M15">
-        <v>13.51496019656834</v>
+        <v>12.33205021652202</v>
       </c>
       <c r="N15">
-        <v>5.381326015893655</v>
+        <v>6.201243878286832</v>
       </c>
       <c r="O15">
-        <v>9.704569635591348</v>
+        <v>13.65798856041714</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.649271902310804</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.73632326875253</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.02908649969011</v>
+        <v>14.99304959407329</v>
       </c>
       <c r="C16">
-        <v>8.907454090549106</v>
+        <v>9.093331080573282</v>
       </c>
       <c r="D16">
-        <v>3.837715380040574</v>
+        <v>4.137014591829988</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>25.7105589633668</v>
+        <v>23.96687425737873</v>
       </c>
       <c r="G16">
-        <v>32.20705527043586</v>
+        <v>29.7914224325508</v>
       </c>
       <c r="H16">
-        <v>7.332217270375296</v>
+        <v>7.23362251672192</v>
       </c>
       <c r="I16">
-        <v>4.193562989449184</v>
+        <v>3.949901920494707</v>
       </c>
       <c r="J16">
-        <v>11.5766974079553</v>
+        <v>10.78304608746697</v>
       </c>
       <c r="K16">
-        <v>18.54214550065667</v>
+        <v>17.15022812729416</v>
       </c>
       <c r="L16">
-        <v>6.158265512255888</v>
+        <v>12.79968863276831</v>
       </c>
       <c r="M16">
-        <v>13.11139733732305</v>
+        <v>12.47968212126321</v>
       </c>
       <c r="N16">
-        <v>5.374735700099691</v>
+        <v>6.157097604649866</v>
       </c>
       <c r="O16">
-        <v>9.54260980684785</v>
+        <v>13.26978209555612</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.646226972488416</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.561992156915981</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.72332686188807</v>
+        <v>14.68026753716977</v>
       </c>
       <c r="C17">
-        <v>8.646349354796374</v>
+        <v>8.861792486855089</v>
       </c>
       <c r="D17">
-        <v>3.859776848730701</v>
+        <v>4.144234902308097</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>26.26785478520726</v>
+        <v>24.5610715409746</v>
       </c>
       <c r="G17">
-        <v>33.05164430489827</v>
+        <v>30.38148452706172</v>
       </c>
       <c r="H17">
-        <v>6.712236414014377</v>
+        <v>6.597646803881974</v>
       </c>
       <c r="I17">
-        <v>4.257967592197357</v>
+        <v>4.005062025549986</v>
       </c>
       <c r="J17">
-        <v>11.76685244979134</v>
+        <v>11.07988420525274</v>
       </c>
       <c r="K17">
-        <v>18.91658324019807</v>
+        <v>17.51658027910317</v>
       </c>
       <c r="L17">
-        <v>6.09031596830981</v>
+        <v>13.08581138646714</v>
       </c>
       <c r="M17">
-        <v>12.82114563034404</v>
+        <v>12.73767741922255</v>
       </c>
       <c r="N17">
-        <v>5.505235912489035</v>
+        <v>6.0807853373845</v>
       </c>
       <c r="O17">
-        <v>9.586324635805456</v>
+        <v>12.992609234639</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.787365697686052</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.602852710021443</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.55739670665207</v>
+        <v>14.49778841263897</v>
       </c>
       <c r="C18">
-        <v>8.34438748083298</v>
+        <v>8.602380040216961</v>
       </c>
       <c r="D18">
-        <v>3.951367362836097</v>
+        <v>4.248104328377221</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>27.42283463780538</v>
+        <v>25.59530190983249</v>
       </c>
       <c r="G18">
-        <v>34.8169300856594</v>
+        <v>31.81013018038074</v>
       </c>
       <c r="H18">
-        <v>5.673926617651728</v>
+        <v>5.536200617052481</v>
       </c>
       <c r="I18">
-        <v>4.270856735475391</v>
+        <v>4.014308883430697</v>
       </c>
       <c r="J18">
-        <v>12.1146761639711</v>
+        <v>11.42717334379551</v>
       </c>
       <c r="K18">
-        <v>19.61019897304015</v>
+        <v>18.09120028937221</v>
       </c>
       <c r="L18">
-        <v>6.031923382829688</v>
+        <v>13.53202486602197</v>
       </c>
       <c r="M18">
-        <v>12.59878143836666</v>
+        <v>13.15963633483183</v>
       </c>
       <c r="N18">
-        <v>5.79325342350205</v>
+        <v>6.003471180405764</v>
       </c>
       <c r="O18">
-        <v>9.810420294676952</v>
+        <v>12.78624169088484</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.093165806323185</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.830847799565277</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.51013562644655</v>
+        <v>14.42739703149742</v>
       </c>
       <c r="C19">
-        <v>8.075302636620583</v>
+        <v>8.38461912500604</v>
       </c>
       <c r="D19">
-        <v>4.101532266501493</v>
+        <v>4.426614966136122</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>28.92512257533161</v>
+        <v>26.87975116647904</v>
       </c>
       <c r="G19">
-        <v>37.09747949616719</v>
+        <v>33.68282362126173</v>
       </c>
       <c r="H19">
-        <v>4.54616466992127</v>
+        <v>4.378504648775492</v>
       </c>
       <c r="I19">
-        <v>4.253569524170854</v>
+        <v>4.00132226211814</v>
       </c>
       <c r="J19">
-        <v>12.55155599238711</v>
+        <v>11.8022134903354</v>
       </c>
       <c r="K19">
-        <v>20.49510479226185</v>
+        <v>18.78616016853018</v>
       </c>
       <c r="L19">
-        <v>6.042324238168016</v>
+        <v>14.07004373195457</v>
       </c>
       <c r="M19">
-        <v>12.45926304492737</v>
+        <v>13.67729027926272</v>
       </c>
       <c r="N19">
-        <v>6.225090778189649</v>
+        <v>5.983964057366564</v>
       </c>
       <c r="O19">
-        <v>10.16143401539628</v>
+        <v>12.66427212155085</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.547110166590874</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.19005151475101</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.81534627233378</v>
+        <v>14.69104485201332</v>
       </c>
       <c r="C20">
-        <v>7.863996063584161</v>
+        <v>8.248441788377777</v>
       </c>
       <c r="D20">
-        <v>4.386726768431499</v>
+        <v>4.783971532006738</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>31.4395962734728</v>
+        <v>28.90188178847836</v>
       </c>
       <c r="G20">
-        <v>40.90159046836177</v>
+        <v>36.89500578937566</v>
       </c>
       <c r="H20">
-        <v>3.530413470874471</v>
+        <v>3.344511591670689</v>
       </c>
       <c r="I20">
-        <v>4.125528966200938</v>
+        <v>3.893808800359758</v>
       </c>
       <c r="J20">
-        <v>13.25791095622261</v>
+        <v>12.25160908988779</v>
       </c>
       <c r="K20">
-        <v>21.95257080178488</v>
+        <v>19.84229824445028</v>
       </c>
       <c r="L20">
-        <v>6.228229864845196</v>
+        <v>14.84865527300537</v>
       </c>
       <c r="M20">
-        <v>12.55062489939238</v>
+        <v>14.51186552824499</v>
       </c>
       <c r="N20">
-        <v>7.001171647895877</v>
+        <v>6.110656034952784</v>
       </c>
       <c r="O20">
-        <v>10.84017780332708</v>
+        <v>12.77750737199582</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.358514076592789</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.88775718952371</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.71829257210079</v>
+        <v>15.58650383395629</v>
       </c>
       <c r="C21">
-        <v>8.239232641158683</v>
+        <v>8.586450153081365</v>
       </c>
       <c r="D21">
-        <v>4.577184852285267</v>
+        <v>5.126833653600311</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>32.28876538281887</v>
+        <v>29.00525263825949</v>
       </c>
       <c r="G21">
-        <v>42.18041618699615</v>
+        <v>38.84505732177676</v>
       </c>
       <c r="H21">
-        <v>3.240768209427003</v>
+        <v>3.090068661229914</v>
       </c>
       <c r="I21">
-        <v>3.895510055942355</v>
+        <v>3.704502080028253</v>
       </c>
       <c r="J21">
-        <v>13.41980991765035</v>
+        <v>11.47648918987803</v>
       </c>
       <c r="K21">
-        <v>22.28054307011115</v>
+        <v>19.68107917463185</v>
       </c>
       <c r="L21">
-        <v>6.322119011154497</v>
+        <v>14.60427543201257</v>
       </c>
       <c r="M21">
-        <v>13.24891166930487</v>
+        <v>14.54501360653691</v>
       </c>
       <c r="N21">
-        <v>7.255876215209716</v>
+        <v>6.177331333150661</v>
       </c>
       <c r="O21">
-        <v>11.31514809158247</v>
+        <v>13.45027111341579</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.624906615002764</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.38954045700311</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.28657868530011</v>
+        <v>16.15279163424791</v>
       </c>
       <c r="C22">
-        <v>8.476624956756678</v>
+        <v>8.790087207739628</v>
       </c>
       <c r="D22">
-        <v>4.681378686321183</v>
+        <v>5.334416479898427</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>32.77989430746231</v>
+        <v>28.99505751398403</v>
       </c>
       <c r="G22">
-        <v>42.92854807685191</v>
+        <v>40.1504486833276</v>
       </c>
       <c r="H22">
-        <v>3.066004303410508</v>
+        <v>2.937710551876307</v>
       </c>
       <c r="I22">
-        <v>3.741551319015125</v>
+        <v>3.574412040858636</v>
       </c>
       <c r="J22">
-        <v>13.51153494742704</v>
+        <v>10.95436127902426</v>
       </c>
       <c r="K22">
-        <v>22.46551637039011</v>
+        <v>19.53740028533159</v>
       </c>
       <c r="L22">
-        <v>6.372938920098996</v>
+        <v>14.41872262774568</v>
       </c>
       <c r="M22">
-        <v>13.68883562987789</v>
+        <v>14.54327586139656</v>
       </c>
       <c r="N22">
-        <v>7.379700180268453</v>
+        <v>6.21285468860546</v>
       </c>
       <c r="O22">
-        <v>11.59068425578672</v>
+        <v>13.87153607916595</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.755445459605125</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.68189813852193</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.99122590377139</v>
+        <v>15.85513487156339</v>
       </c>
       <c r="C23">
-        <v>8.334299102025348</v>
+        <v>8.679045416876422</v>
       </c>
       <c r="D23">
-        <v>4.619377116372133</v>
+        <v>5.203603974207271</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>32.56593028237378</v>
+        <v>29.09942079002055</v>
       </c>
       <c r="G23">
-        <v>42.61189247471869</v>
+        <v>39.39870039060873</v>
       </c>
       <c r="H23">
-        <v>3.157716335482063</v>
+        <v>3.016583303415281</v>
       </c>
       <c r="I23">
-        <v>3.813616709334564</v>
+        <v>3.630991156493632</v>
       </c>
       <c r="J23">
-        <v>13.47890380456401</v>
+        <v>11.33043848315646</v>
       </c>
       <c r="K23">
-        <v>22.40368902017958</v>
+        <v>19.67871707116039</v>
       </c>
       <c r="L23">
-        <v>6.348332599751365</v>
+        <v>14.56441195671159</v>
       </c>
       <c r="M23">
-        <v>13.45194258565747</v>
+        <v>14.59450637974013</v>
       </c>
       <c r="N23">
-        <v>7.309580299769904</v>
+        <v>6.196826646675734</v>
       </c>
       <c r="O23">
-        <v>11.44292811096443</v>
+        <v>13.64880280950818</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.681858649963528</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.52364014022562</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.81144586659243</v>
+        <v>14.68416386833561</v>
       </c>
       <c r="C24">
-        <v>7.807799373379947</v>
+        <v>8.193286674284941</v>
       </c>
       <c r="D24">
-        <v>4.390206475649106</v>
+        <v>4.790295510405882</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>31.67829398335502</v>
+        <v>29.11353475089369</v>
       </c>
       <c r="G24">
-        <v>41.27758746935099</v>
+        <v>37.21037938048327</v>
       </c>
       <c r="H24">
-        <v>3.514105266587177</v>
+        <v>3.328427717399622</v>
       </c>
       <c r="I24">
-        <v>4.109181666026292</v>
+        <v>3.874947578664788</v>
       </c>
       <c r="J24">
-        <v>13.33327641719672</v>
+        <v>12.32223475971058</v>
       </c>
       <c r="K24">
-        <v>22.11383920129541</v>
+        <v>19.97652792794523</v>
       </c>
       <c r="L24">
-        <v>6.249082903588638</v>
+        <v>14.95332514059041</v>
       </c>
       <c r="M24">
-        <v>12.52362991436812</v>
+        <v>14.61079405201772</v>
       </c>
       <c r="N24">
-        <v>7.046555862983768</v>
+        <v>6.126639268164875</v>
       </c>
       <c r="O24">
-        <v>10.87056812254495</v>
+        <v>12.75272548339505</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.406741511362003</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.91898056270536</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.44076524031175</v>
+        <v>13.34329017153455</v>
       </c>
       <c r="C25">
-        <v>7.210813015548934</v>
+        <v>7.461972002226204</v>
       </c>
       <c r="D25">
-        <v>4.133078615075505</v>
+        <v>4.486838007128399</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.72524328181542</v>
+        <v>28.51899493988884</v>
       </c>
       <c r="G25">
-        <v>39.83936456956305</v>
+        <v>36.27087626445294</v>
       </c>
       <c r="H25">
-        <v>3.914386189987453</v>
+        <v>3.693081273254986</v>
       </c>
       <c r="I25">
-        <v>4.44293062699499</v>
+        <v>4.165399979322347</v>
       </c>
       <c r="J25">
-        <v>13.18651410594792</v>
+        <v>12.30678714111656</v>
       </c>
       <c r="K25">
-        <v>21.81149057176724</v>
+        <v>19.93410161216439</v>
       </c>
       <c r="L25">
-        <v>6.137271183026119</v>
+        <v>15.09724412178002</v>
       </c>
       <c r="M25">
-        <v>11.4425475274259</v>
+        <v>14.38860854447076</v>
       </c>
       <c r="N25">
-        <v>6.754467443749683</v>
+        <v>6.035077509184956</v>
       </c>
       <c r="O25">
-        <v>10.22328900738645</v>
+        <v>11.65966976825089</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.10394926004843</v>
       </c>
       <c r="Q25">
+        <v>10.25331083994796</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
